--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="16275" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="10515" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
-    <sheet name="Utilities" sheetId="2" r:id="rId2"/>
+    <sheet name="Calendars" sheetId="2" r:id="rId2"/>
+    <sheet name="Date" sheetId="3" r:id="rId3"/>
+    <sheet name="Utilities" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>Group</t>
   </si>
@@ -32,34 +34,217 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Calendars</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>PASS /</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>qlCalendarName</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>qlCalendarIsBusinessDay</t>
+  </si>
+  <si>
+    <t>qlCalendarIsHoliday</t>
+  </si>
+  <si>
+    <t>qlCalendarIsEndOfMonth</t>
+  </si>
+  <si>
+    <t>qlCalendarEndOfMonth</t>
+  </si>
+  <si>
+    <t>qlCalendarAddHoliday</t>
+  </si>
+  <si>
+    <t>qlCalendarRemoveHoliday</t>
+  </si>
+  <si>
+    <t>qlCalendarHolidayList</t>
+  </si>
+  <si>
+    <t>qlCalendarAdjust</t>
+  </si>
+  <si>
+    <t>qlCalendarAdvance</t>
+  </si>
+  <si>
+    <t>qlCalendarBusinessDaysBetween</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>qlPeriodFromFrequency</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>qlFrequencyFromPeriod</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>qlPeriodLessThan</t>
+  </si>
+  <si>
+    <t>qlPeriodEquivalent</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>qlDateMinDate</t>
+  </si>
+  <si>
+    <t>qlDateMaxDate</t>
+  </si>
+  <si>
+    <t>qlDateIsLeap</t>
+  </si>
+  <si>
+    <t>qlDateEndOfMonth</t>
+  </si>
+  <si>
+    <t>qlDateIsEndOfMonth</t>
+  </si>
+  <si>
+    <t>qlDateNextWeekday</t>
+  </si>
+  <si>
+    <t>qlDateNthWeekday</t>
+  </si>
+  <si>
+    <t>qlIMMIsIMMdate</t>
+  </si>
+  <si>
+    <t>qlIMMIsIMMcode</t>
+  </si>
+  <si>
+    <t>qlIMMcode</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>qlIMMNextCode</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>qlIMMNextCodes</t>
+  </si>
+  <si>
+    <t>qlIMMdate</t>
+  </si>
+  <si>
+    <t>qlIMMNextDate</t>
+  </si>
+  <si>
+    <t>qlIMMNextDates</t>
+  </si>
+  <si>
+    <t>qlASXIsASXdate</t>
+  </si>
+  <si>
+    <t>qlASXIsASXcode</t>
+  </si>
+  <si>
+    <t>qlASXcode</t>
+  </si>
+  <si>
+    <t>qlASXNextCode</t>
+  </si>
+  <si>
+    <t>qlASXNextCodes</t>
+  </si>
+  <si>
+    <t>qlASXdate</t>
+  </si>
+  <si>
+    <t>qlASXNextDate</t>
+  </si>
+  <si>
+    <t>qlASXNextDates</t>
+  </si>
+  <si>
+    <t>qlECBKnownDates</t>
+  </si>
+  <si>
+    <t>qlECBAddDate</t>
+  </si>
+  <si>
+    <t>qlECBRemoveDate</t>
+  </si>
+  <si>
+    <t>qlECBdate2</t>
+  </si>
+  <si>
+    <t>qlECBdate</t>
+  </si>
+  <si>
+    <t>qlECBcode</t>
+  </si>
+  <si>
+    <t>MAR10</t>
+  </si>
+  <si>
+    <t>qlECBNextDate</t>
+  </si>
+  <si>
+    <t>qlECBNextDate2</t>
+  </si>
+  <si>
+    <t>qlECBNextDates</t>
+  </si>
+  <si>
+    <t>qlECBIsECBdate</t>
+  </si>
+  <si>
+    <t>qlECBIsECBcode</t>
+  </si>
+  <si>
+    <t>qlECBNextCode</t>
+  </si>
+  <si>
+    <t>DEC16</t>
+  </si>
+  <si>
+    <t>qlECBNextCode2</t>
+  </si>
+  <si>
+    <t>APR10</t>
+  </si>
+  <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>PASS /</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
     <t>qlVersion()</t>
-  </si>
-  <si>
-    <t>1.8.1</t>
   </si>
   <si>
     <t>1.8.2</t>
@@ -106,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,6 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,9 +602,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -444,6 +630,16 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -453,9 +649,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -500,15 +698,1031 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="3" t="e">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <f t="shared" ref="D4:D13" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>25598</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>42005</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>25570</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>25570</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>255</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D42" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>367</v>
+      </c>
+      <c r="C7">
+        <v>367</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>109574</v>
+      </c>
+      <c r="C8">
+        <v>109574</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>109574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>25599</v>
+      </c>
+      <c r="C10">
+        <v>25599</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>25599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>25573</v>
+      </c>
+      <c r="C12">
+        <v>25573</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>25573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>25594</v>
+      </c>
+      <c r="C13">
+        <v>25594</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>25594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>45735</v>
+      </c>
+      <c r="C19">
+        <v>45735</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>42725</v>
+      </c>
+      <c r="C20">
+        <v>42725</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>42725</v>
+      </c>
+      <c r="C21">
+        <v>42725</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>45730</v>
+      </c>
+      <c r="C27">
+        <v>45730</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E27">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>42713</v>
+      </c>
+      <c r="C28">
+        <v>42713</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>42713</v>
+      </c>
+      <c r="C29">
+        <v>42713</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>25569</v>
+      </c>
+      <c r="C30">
+        <v>38371</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E30">
+        <v>38371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>38371</v>
+      </c>
+      <c r="C33">
+        <v>38371</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E33">
+        <v>38371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>40247</v>
+      </c>
+      <c r="C34">
+        <v>40247</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E34">
+        <v>40247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="4">
+        <v>42439</v>
+      </c>
+      <c r="C35" s="4">
+        <v>42439</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>42718</v>
+      </c>
+      <c r="C36">
+        <v>42718</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E36">
+        <v>42718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>40282</v>
+      </c>
+      <c r="C37">
+        <v>40282</v>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E37">
+        <v>40282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38">
+        <v>42718</v>
+      </c>
+      <c r="C38">
+        <v>42718</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E38">
+        <v>42718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="4">
+        <v>42720</v>
+      </c>
+      <c r="C41" s="4">
+        <v>42720</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4">
+        <v>42470</v>
+      </c>
+      <c r="C42" s="4">
+        <v>42470</v>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="10515" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="10515" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>Group</t>
   </si>
@@ -651,9 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -698,15 +696,15 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D3" s="3" t="e">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NAME?</v>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,15 +714,15 @@
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="3" t="e">
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D13" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NAME?</v>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,15 +732,15 @@
       <c r="B5" t="b">
         <v>1</v>
       </c>
-      <c r="C5" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NAME?</v>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,15 +750,15 @@
       <c r="B6" t="b">
         <v>0</v>
       </c>
-      <c r="C6" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NAME?</v>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,15 +768,15 @@
       <c r="B7">
         <v>25598</v>
       </c>
-      <c r="C7" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NAME?</v>
+      <c r="C7">
+        <v>25598</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>25598</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,15 +786,15 @@
       <c r="B8" t="b">
         <v>1</v>
       </c>
-      <c r="C8" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NAME?</v>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,15 +804,15 @@
       <c r="B9" t="b">
         <v>1</v>
       </c>
-      <c r="C9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NAME?</v>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,15 +822,15 @@
       <c r="B10">
         <v>42005</v>
       </c>
-      <c r="C10" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NAME?</v>
+      <c r="C10">
+        <v>42005</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>42005</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,15 +840,15 @@
       <c r="B11">
         <v>25570</v>
       </c>
-      <c r="C11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NAME?</v>
+      <c r="C11">
+        <v>25570</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11">
+        <v>25570</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,15 +858,15 @@
       <c r="B12">
         <v>25570</v>
       </c>
-      <c r="C12" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NAME?</v>
+      <c r="C12">
+        <v>25570</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>25570</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,15 +876,15 @@
       <c r="B13">
         <v>255</v>
       </c>
-      <c r="C13" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NAME?</v>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1594,14 +1592,14 @@
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1667,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="10515" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
     <sheet name="Calendars" sheetId="2" r:id="rId2"/>
     <sheet name="Date" sheetId="3" r:id="rId3"/>
-    <sheet name="Utilities" sheetId="4" r:id="rId4"/>
+    <sheet name="TimeSeries" sheetId="4" r:id="rId4"/>
+    <sheet name="Utilities" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>Group</t>
   </si>
@@ -239,6 +240,42 @@
   </si>
   <si>
     <t>APR10</t>
+  </si>
+  <si>
+    <t>TimeSeries</t>
+  </si>
+  <si>
+    <t>qlTimeSeries</t>
+  </si>
+  <si>
+    <t>ts#0016</t>
+  </si>
+  <si>
+    <t>ts#0000</t>
+  </si>
+  <si>
+    <t>qlTimeSeriesFirstDate</t>
+  </si>
+  <si>
+    <t>qlTimeSeriesLastDate</t>
+  </si>
+  <si>
+    <t>qlTimeSeriesSize</t>
+  </si>
+  <si>
+    <t>qlTimeSeriesEmpty</t>
+  </si>
+  <si>
+    <t>qlTimeSeriesDates</t>
+  </si>
+  <si>
+    <t>qlTimeSeriesValues</t>
+  </si>
+  <si>
+    <t>qlTimeSeriesValue</t>
+  </si>
+  <si>
+    <t>qlTimeSeriesFromIndex</t>
   </si>
   <si>
     <t>Utilities</t>
@@ -602,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +677,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -896,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:E42"/>
     </sheetView>
   </sheetViews>
@@ -1430,14 +1474,14 @@
         <v>25569</v>
       </c>
       <c r="C30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,14 +1636,14 @@
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,9 +1707,220 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>25569</v>
+      </c>
+      <c r="C4">
+        <v>25569</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D11" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>25571</v>
+      </c>
+      <c r="C5">
+        <v>25571</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>25571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>25569</v>
+      </c>
+      <c r="C8">
+        <v>25569</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
@@ -1707,20 +1962,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="13395" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>Group</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>qlTimeSeries</t>
-  </si>
-  <si>
-    <t>ts#0016</t>
   </si>
   <si>
     <t>ts#0000</t>
@@ -641,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -681,7 +678,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42:E42"/>
     </sheetView>
   </sheetViews>
@@ -1471,17 +1468,17 @@
         <v>58</v>
       </c>
       <c r="B30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
       <c r="C30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,14 +1633,14 @@
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,19 +1754,19 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -1787,7 +1784,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -1805,7 +1802,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1823,7 +1820,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1841,7 +1838,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -1859,7 +1856,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1877,7 +1874,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1895,7 +1892,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -1920,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
@@ -1962,20 +1959,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="13395" windowHeight="6465"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
     <sheet name="Calendars" sheetId="2" r:id="rId2"/>
     <sheet name="Date" sheetId="3" r:id="rId3"/>
-    <sheet name="TimeSeries" sheetId="4" r:id="rId4"/>
-    <sheet name="Utilities" sheetId="5" r:id="rId5"/>
+    <sheet name="Index" sheetId="4" r:id="rId4"/>
+    <sheet name="TimeSeries" sheetId="5" r:id="rId5"/>
+    <sheet name="Utilities" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
   <si>
     <t>Group</t>
   </si>
@@ -240,6 +241,162 @@
   </si>
   <si>
     <t>APR10</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>qlIndexName</t>
+  </si>
+  <si>
+    <t>Euribor1Y Actual/360</t>
+  </si>
+  <si>
+    <t>qlIndexFixingCalendar</t>
+  </si>
+  <si>
+    <t>qlIndexIsValidFixingDate</t>
+  </si>
+  <si>
+    <t>qlIndexFixing</t>
+  </si>
+  <si>
+    <t>qlIndexAddFixings</t>
+  </si>
+  <si>
+    <t>qlIndexAddFixings2</t>
+  </si>
+  <si>
+    <t>qlIndexClearFixings</t>
+  </si>
+  <si>
+    <t>qlInterestRateIndexFamilyName</t>
+  </si>
+  <si>
+    <t>Euribor</t>
+  </si>
+  <si>
+    <t>qlInterestRateIndexTenor</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>qlInterestRateIndexFixingDays</t>
+  </si>
+  <si>
+    <t>qlInterestRateIndexCurrency</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>qlInterestRateIndexDayCounter</t>
+  </si>
+  <si>
+    <t>Actual/360</t>
+  </si>
+  <si>
+    <t>qlInterestRateIndexValueDate</t>
+  </si>
+  <si>
+    <t>qlInterestRateIndexFixingDate</t>
+  </si>
+  <si>
+    <t>qlInterestRateIndexMaturity</t>
+  </si>
+  <si>
+    <t>qlIborIndexBusinessDayConv</t>
+  </si>
+  <si>
+    <t>Modified Following</t>
+  </si>
+  <si>
+    <t>qlIborIndexEndOfMonth</t>
+  </si>
+  <si>
+    <t>qlIborIndex</t>
+  </si>
+  <si>
+    <t>index01#0000</t>
+  </si>
+  <si>
+    <t>qlOvernightIndex</t>
+  </si>
+  <si>
+    <t>index02#0000</t>
+  </si>
+  <si>
+    <t>qlEuribor</t>
+  </si>
+  <si>
+    <t>index03#0000</t>
+  </si>
+  <si>
+    <t>qlEuribor365</t>
+  </si>
+  <si>
+    <t>index04#0000</t>
+  </si>
+  <si>
+    <t>qlEonia</t>
+  </si>
+  <si>
+    <t>index05#0000</t>
+  </si>
+  <si>
+    <t>qlLibor</t>
+  </si>
+  <si>
+    <t>index06#0000</t>
+  </si>
+  <si>
+    <t>qlSonia</t>
+  </si>
+  <si>
+    <t>index07#0000</t>
+  </si>
+  <si>
+    <t>qlSwapIndexFixedLegTenor</t>
+  </si>
+  <si>
+    <t>qlSwapIndexFixedLegBDC</t>
+  </si>
+  <si>
+    <t>qlSwapIndex</t>
+  </si>
+  <si>
+    <t>index08#0000</t>
+  </si>
+  <si>
+    <t>qlEuriborSwap</t>
+  </si>
+  <si>
+    <t>index09#0000</t>
+  </si>
+  <si>
+    <t>qlLiborSwap</t>
+  </si>
+  <si>
+    <t>index10#0000</t>
+  </si>
+  <si>
+    <t>qlEuriborSwapIsdaFixA</t>
+  </si>
+  <si>
+    <t>index11#0000</t>
+  </si>
+  <si>
+    <t>qlBMAIndex</t>
+  </si>
+  <si>
+    <t>index12#0000</t>
+  </si>
+  <si>
+    <t>qlProxyIbor</t>
+  </si>
+  <si>
+    <t>index13#0000</t>
   </si>
   <si>
     <t>TimeSeries</t>
@@ -636,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +835,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1471,14 +1633,14 @@
         <v>38371</v>
       </c>
       <c r="C30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1630,17 +1792,17 @@
         <v>68</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1703,6 +1865,629 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D34" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>42709</v>
+      </c>
+      <c r="C15">
+        <v>42709</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>42703</v>
+      </c>
+      <c r="C16">
+        <v>42703</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17">
+        <v>43070</v>
+      </c>
+      <c r="C17">
+        <v>43070</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1748,25 +2533,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -1784,7 +2569,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -1802,7 +2587,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1820,7 +2605,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1838,7 +2623,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -1856,7 +2641,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1874,7 +2659,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1892,7 +2677,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -1913,7 +2698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1959,20 +2744,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -10,16 +10,18 @@
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
     <sheet name="Calendars" sheetId="2" r:id="rId2"/>
     <sheet name="Date" sheetId="3" r:id="rId3"/>
-    <sheet name="Index" sheetId="4" r:id="rId4"/>
-    <sheet name="TimeSeries" sheetId="5" r:id="rId5"/>
-    <sheet name="Utilities" sheetId="6" r:id="rId6"/>
+    <sheet name="DayCounters" sheetId="4" r:id="rId4"/>
+    <sheet name="Index" sheetId="5" r:id="rId5"/>
+    <sheet name="Quotes" sheetId="6" r:id="rId6"/>
+    <sheet name="TimeSeries" sheetId="7" r:id="rId7"/>
+    <sheet name="Utilities" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="177">
   <si>
     <t>Group</t>
   </si>
@@ -243,6 +245,21 @@
     <t>APR10</t>
   </si>
   <si>
+    <t>DayCounters</t>
+  </si>
+  <si>
+    <t>qlDayCounterName</t>
+  </si>
+  <si>
+    <t>Actual/360</t>
+  </si>
+  <si>
+    <t>qlDayCounterDayCount</t>
+  </si>
+  <si>
+    <t>qlDayCounterYearFraction</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -294,9 +311,6 @@
     <t>qlInterestRateIndexDayCounter</t>
   </si>
   <si>
-    <t>Actual/360</t>
-  </si>
-  <si>
     <t>qlInterestRateIndexValueDate</t>
   </si>
   <si>
@@ -397,6 +411,105 @@
   </si>
   <si>
     <t>index13#0000</t>
+  </si>
+  <si>
+    <t>Quotes</t>
+  </si>
+  <si>
+    <t>qlQuoteValue</t>
+  </si>
+  <si>
+    <t>qlQuoteIsValid</t>
+  </si>
+  <si>
+    <t>qlSimpleQuoteReset</t>
+  </si>
+  <si>
+    <t>qlSimpleQuoteSetValue</t>
+  </si>
+  <si>
+    <t>qlSimpleQuoteSetTickValue</t>
+  </si>
+  <si>
+    <t>qlSimpleQuoteTickValue</t>
+  </si>
+  <si>
+    <t>qlBucketAnalysis</t>
+  </si>
+  <si>
+    <t>qlBucketAnalysisDelta</t>
+  </si>
+  <si>
+    <t>qlBucketAnalysisDelta2</t>
+  </si>
+  <si>
+    <t>qlSimpleQuote</t>
+  </si>
+  <si>
+    <t>quote01#0000</t>
+  </si>
+  <si>
+    <t>qlForwardValueQuote</t>
+  </si>
+  <si>
+    <t>quote02#0000</t>
+  </si>
+  <si>
+    <t>qlForwardSwapQuote</t>
+  </si>
+  <si>
+    <t>quote03#0000</t>
+  </si>
+  <si>
+    <t>qlImpliedStdDevQuote</t>
+  </si>
+  <si>
+    <t>quote04#0000</t>
+  </si>
+  <si>
+    <t>qlEurodollarFuturesImpliedStdDevQuote</t>
+  </si>
+  <si>
+    <t>quote05#0000</t>
+  </si>
+  <si>
+    <t>qlCompositeQuote</t>
+  </si>
+  <si>
+    <t>quote06#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuote</t>
+  </si>
+  <si>
+    <t>quote07#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuoteVolatility</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuoteMeanReversion</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuoteImmDate</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuoteFuturesValue</t>
+  </si>
+  <si>
+    <t>qlLastFixingQuote</t>
+  </si>
+  <si>
+    <t>quote08#0000</t>
+  </si>
+  <si>
+    <t>qlLastFixingQuoteReferenceDate</t>
+  </si>
+  <si>
+    <t>qlRelinkableHandleQuote</t>
+  </si>
+  <si>
+    <t>quote09#0000</t>
   </si>
   <si>
     <t>TimeSeries</t>
@@ -793,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,12 +948,22 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1866,9 +1989,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1917,7 +2042,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f t="shared" ref="D3:D5" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
@@ -1928,558 +2053,36 @@
       <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <v>364</v>
+      </c>
+      <c r="C4">
+        <v>364</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D34" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
+      <c r="B5">
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="C5">
+        <v>1.0111111111111111</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15">
-        <v>42709</v>
-      </c>
-      <c r="C15">
-        <v>42709</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15">
-        <v>42709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16">
-        <v>42703</v>
-      </c>
-      <c r="C16">
-        <v>42703</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16">
-        <v>42703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17">
-        <v>43070</v>
-      </c>
-      <c r="C17">
-        <v>43070</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17">
-        <v>43070</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E34" t="s">
-        <v>125</v>
+      <c r="E5">
+        <v>1.0111111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -2488,6 +2091,1067 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D34" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15">
+        <v>42709</v>
+      </c>
+      <c r="C15">
+        <v>42709</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>42703</v>
+      </c>
+      <c r="C16">
+        <v>42703</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17">
+        <v>43070</v>
+      </c>
+      <c r="C17">
+        <v>43070</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D5" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>IF(B6=C6,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" ref="D7:D25" si="1">IF(B7=C7,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8">
+        <v>456</v>
+      </c>
+      <c r="C8">
+        <v>456</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19">
+        <v>456</v>
+      </c>
+      <c r="C19">
+        <v>456</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20">
+        <v>789</v>
+      </c>
+      <c r="C20">
+        <v>789</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21">
+        <v>43544</v>
+      </c>
+      <c r="C21">
+        <v>43544</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>123</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2533,25 +3197,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -2569,7 +3233,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -2587,7 +3251,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2605,7 +3269,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -2623,7 +3287,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -2641,7 +3305,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2659,7 +3323,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2677,7 +3341,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -2698,7 +3362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2744,20 +3408,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -12,16 +12,19 @@
     <sheet name="Date" sheetId="3" r:id="rId3"/>
     <sheet name="DayCounters" sheetId="4" r:id="rId4"/>
     <sheet name="Index" sheetId="5" r:id="rId5"/>
-    <sheet name="Quotes" sheetId="6" r:id="rId6"/>
-    <sheet name="TimeSeries" sheetId="7" r:id="rId7"/>
-    <sheet name="Utilities" sheetId="8" r:id="rId8"/>
+    <sheet name="PiecewiseYieldCurve" sheetId="6" r:id="rId6"/>
+    <sheet name="Quotes" sheetId="7" r:id="rId7"/>
+    <sheet name="RateHelpers" sheetId="8" r:id="rId8"/>
+    <sheet name="TermStructures" sheetId="9" r:id="rId9"/>
+    <sheet name="TimeSeries" sheetId="10" r:id="rId10"/>
+    <sheet name="Utilities" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="272">
   <si>
     <t>Group</t>
   </si>
@@ -413,6 +416,36 @@
     <t>index13#0000</t>
   </si>
   <si>
+    <t>PiecewiseYieldCurve</t>
+  </si>
+  <si>
+    <t>qlPiecewiseYieldCurve</t>
+  </si>
+  <si>
+    <t>pwyc01#0000</t>
+  </si>
+  <si>
+    <t>qlPiecewiseYieldCurveMixedInterpolation</t>
+  </si>
+  <si>
+    <t>pwyc02#0000</t>
+  </si>
+  <si>
+    <t>qlPiecewiseYieldCurveTimes</t>
+  </si>
+  <si>
+    <t>qlPiecewiseYieldCurveDates</t>
+  </si>
+  <si>
+    <t>qlPiecewiseYieldCurveData</t>
+  </si>
+  <si>
+    <t>qlPiecewiseYieldCurveJumpTimes</t>
+  </si>
+  <si>
+    <t>qlPiecewiseYieldCurveJumpDates</t>
+  </si>
+  <si>
     <t>Quotes</t>
   </si>
   <si>
@@ -510,6 +543,261 @@
   </si>
   <si>
     <t>quote09#0000</t>
+  </si>
+  <si>
+    <t>RateHelpers</t>
+  </si>
+  <si>
+    <t>qlRateHelperEarliestDate</t>
+  </si>
+  <si>
+    <t>qlRateHelperLatestRelevantDate</t>
+  </si>
+  <si>
+    <t>qlRateHelperPillarDate</t>
+  </si>
+  <si>
+    <t>qlRateHelperMaturityDate</t>
+  </si>
+  <si>
+    <t>qlRateHelperQuoteName</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>qlRateHelperQuoteIsValid</t>
+  </si>
+  <si>
+    <t>qlRateHelperImpliedQuote</t>
+  </si>
+  <si>
+    <t>qlRateHelperQuoteError</t>
+  </si>
+  <si>
+    <t>qlDepositRateHelper</t>
+  </si>
+  <si>
+    <t>rh01#0000</t>
+  </si>
+  <si>
+    <t>qlDepositRateHelper2</t>
+  </si>
+  <si>
+    <t>rh02#0000</t>
+  </si>
+  <si>
+    <t>qlSwapRateHelper</t>
+  </si>
+  <si>
+    <t>rh03#0000</t>
+  </si>
+  <si>
+    <t>qlSwapRateHelper2</t>
+  </si>
+  <si>
+    <t>rh04#0000</t>
+  </si>
+  <si>
+    <t>qlSwapRateHelperSpread</t>
+  </si>
+  <si>
+    <t>qlOISRateHelper</t>
+  </si>
+  <si>
+    <t>rh05#0000</t>
+  </si>
+  <si>
+    <t>qlDatedOISRateHelper</t>
+  </si>
+  <si>
+    <t>rh06#0000</t>
+  </si>
+  <si>
+    <t>qlFraRateHelper</t>
+  </si>
+  <si>
+    <t>rh07#0000</t>
+  </si>
+  <si>
+    <t>qlFraRateHelper2</t>
+  </si>
+  <si>
+    <t>rh08#0000</t>
+  </si>
+  <si>
+    <t>qlBondHelper</t>
+  </si>
+  <si>
+    <t>rh09#0000</t>
+  </si>
+  <si>
+    <t>qlFixedRateBondHelper</t>
+  </si>
+  <si>
+    <t>rh10#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesRateHelperConvexityAdjustment</t>
+  </si>
+  <si>
+    <t>qlFuturesRateHelper</t>
+  </si>
+  <si>
+    <t>rh11#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesRateHelper2</t>
+  </si>
+  <si>
+    <t>rh12#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesRateHelper3</t>
+  </si>
+  <si>
+    <t>rh13#0000</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelper</t>
+  </si>
+  <si>
+    <t>rh14#0000</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperSpotValue</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperTenor</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperFixingDays</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperCalendar</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperBDC</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperEOM</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperIsBaseCurrencyCollateralCurrency</t>
+  </si>
+  <si>
+    <t>qlRateHelperSelection</t>
+  </si>
+  <si>
+    <t>obj_0000e</t>
+  </si>
+  <si>
+    <t>obj_0002b</t>
+  </si>
+  <si>
+    <t>qlRateHelperRate</t>
+  </si>
+  <si>
+    <t>TermStructures</t>
+  </si>
+  <si>
+    <t>qlTermStructureDayCounter</t>
+  </si>
+  <si>
+    <t>Actual/365 (Fixed)</t>
+  </si>
+  <si>
+    <t>qlTermStructureMaxDate</t>
+  </si>
+  <si>
+    <t>qlTermStructureReferenceDate</t>
+  </si>
+  <si>
+    <t>qlTermStructureTimeFromReference</t>
+  </si>
+  <si>
+    <t>qlTermStructureCalendar</t>
+  </si>
+  <si>
+    <t>qlTermStructureSettlementDays</t>
+  </si>
+  <si>
+    <t>qlYieldTSDiscount</t>
+  </si>
+  <si>
+    <t>qlYieldTSForwardRate</t>
+  </si>
+  <si>
+    <t>qlYieldTSForwardRate2</t>
+  </si>
+  <si>
+    <t>qlYieldTSZeroRate</t>
+  </si>
+  <si>
+    <t>qlRelinkableHandleYieldTermStructure</t>
+  </si>
+  <si>
+    <t>curve01#0000</t>
+  </si>
+  <si>
+    <t>qlDiscountCurve</t>
+  </si>
+  <si>
+    <t>curve02#0000</t>
+  </si>
+  <si>
+    <t>qlZeroCurve</t>
+  </si>
+  <si>
+    <t>curve03#0000</t>
+  </si>
+  <si>
+    <t>qlForwardCurve</t>
+  </si>
+  <si>
+    <t>curve04#0000</t>
+  </si>
+  <si>
+    <t>qlFlatForward</t>
+  </si>
+  <si>
+    <t>curve05#0000</t>
+  </si>
+  <si>
+    <t>qlForwardSpreadedTermStructure</t>
+  </si>
+  <si>
+    <t>curve06#0000</t>
+  </si>
+  <si>
+    <t>qlImpliedTermStructure</t>
+  </si>
+  <si>
+    <t>curve07#0000</t>
+  </si>
+  <si>
+    <t>qlInterpolatedYieldCurve</t>
+  </si>
+  <si>
+    <t>curve08#0000</t>
+  </si>
+  <si>
+    <t>qlInterpolatedYieldCurveTimes</t>
+  </si>
+  <si>
+    <t>qlInterpolatedYieldCurveDates</t>
+  </si>
+  <si>
+    <t>qlInterpolatedYieldCurveData</t>
+  </si>
+  <si>
+    <t>qlInterpolatedYieldCurveJumpTimes</t>
+  </si>
+  <si>
+    <t>qlInterpolatedYieldCurveJumpDates</t>
   </si>
   <si>
     <t>TimeSeries</t>
@@ -595,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,6 +893,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -958,12 +1247,305 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4">
+        <v>25569</v>
+      </c>
+      <c r="C4">
+        <v>25569</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D11" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5">
+        <v>25571</v>
+      </c>
+      <c r="C5">
+        <v>25571</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>25571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8">
+        <v>25569</v>
+      </c>
+      <c r="C8">
+        <v>25569</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1918,14 +2500,14 @@
         <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2717,6 +3299,179 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="5">
+        <v>42676</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42676</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" s="5">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8">
+        <v>-47.519444444444446</v>
+      </c>
+      <c r="C8">
+        <v>-47.519444444444446</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>-47.519444444444446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="5">
+        <v>25569</v>
+      </c>
+      <c r="C9" s="5">
+        <v>25569</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2761,7 +3516,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -2779,7 +3534,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2797,7 +3552,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2815,7 +3570,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2833,7 +3588,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2851,7 +3606,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -2869,7 +3624,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2878,7 +3633,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2887,7 +3642,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2896,133 +3651,133 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -3040,7 +3795,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -3058,7 +3813,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -3076,7 +3831,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -3094,25 +3849,25 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -3130,20 +3885,20 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D25" s="3" t="e">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#NAME?</v>
+        <v>PASS</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3151,12 +3906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+      <selection activeCell="A35" sqref="A35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,164 +3952,590 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
+        <v>174</v>
+      </c>
+      <c r="B3">
+        <v>42678</v>
+      </c>
+      <c r="C3">
+        <v>42678</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3" t="s">
-        <v>165</v>
+        <f t="shared" ref="D3:D35" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>42678</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B4">
-        <v>25569</v>
+        <v>42681</v>
       </c>
       <c r="C4">
-        <v>25569</v>
+        <v>42681</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D11" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E4">
-        <v>25569</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B5">
-        <v>25571</v>
+        <v>42681</v>
       </c>
       <c r="C5">
-        <v>25571</v>
+        <v>42681</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E5">
-        <v>25571</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+        <v>177</v>
+      </c>
+      <c r="B6" s="5">
+        <v>42681</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42681</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6">
-        <v>3</v>
+      <c r="E6" s="5">
+        <v>42681</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B8">
-        <v>25569</v>
-      </c>
-      <c r="C8">
-        <v>25569</v>
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8">
-        <v>25569</v>
+        <v>FAIL</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="B9" s="5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" s="5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" t="e">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" t="e">
+      <c r="D20" s="3" t="e">
+        <f t="shared" si="0"/>
         <v>#NAME?</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3362,12 +4543,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,20 +4589,416 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4">
+        <v>42738</v>
+      </c>
+      <c r="C4">
+        <v>42738</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5">
+        <v>42736</v>
+      </c>
+      <c r="C5">
+        <v>42736</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10">
+        <v>-180</v>
+      </c>
+      <c r="C10">
+        <v>-180</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11">
+        <v>-180</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12">
+        <v>-252.99872090438052</v>
+      </c>
+      <c r="C12">
+        <v>-252.99872090438052</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>-252.99872090438052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22">
+        <v>42736</v>
+      </c>
+      <c r="C22">
+        <v>42736</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25">
+        <v>42739</v>
+      </c>
+      <c r="C25">
+        <v>42739</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25">
+        <v>42739</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -15,16 +15,17 @@
     <sheet name="PiecewiseYieldCurve" sheetId="6" r:id="rId6"/>
     <sheet name="Quotes" sheetId="7" r:id="rId7"/>
     <sheet name="RateHelpers" sheetId="8" r:id="rId8"/>
-    <sheet name="TermStructures" sheetId="9" r:id="rId9"/>
-    <sheet name="TimeSeries" sheetId="10" r:id="rId10"/>
-    <sheet name="Utilities" sheetId="11" r:id="rId11"/>
+    <sheet name="Schedules" sheetId="9" r:id="rId9"/>
+    <sheet name="TermStructures" sheetId="10" r:id="rId10"/>
+    <sheet name="TimeSeries" sheetId="11" r:id="rId11"/>
+    <sheet name="Utilities" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="294">
   <si>
     <t>Group</t>
   </si>
@@ -695,10 +696,76 @@
     <t>obj_0000e</t>
   </si>
   <si>
-    <t>obj_0002b</t>
+    <t>obj_0002e</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
+  </si>
+  <si>
+    <t>Schedules</t>
+  </si>
+  <si>
+    <t>qlScheduleSize</t>
+  </si>
+  <si>
+    <t>qlSchedulePreviousDate</t>
+  </si>
+  <si>
+    <t>qlScheduleNextDate</t>
+  </si>
+  <si>
+    <t>qlScheduleDates</t>
+  </si>
+  <si>
+    <t>qlScheduleIsRegular</t>
+  </si>
+  <si>
+    <t>qlScheduleEmpty</t>
+  </si>
+  <si>
+    <t>qlScheduleCalendar</t>
+  </si>
+  <si>
+    <t>qlScheduleStartDate</t>
+  </si>
+  <si>
+    <t>qlScheduleEndDate</t>
+  </si>
+  <si>
+    <t>qlScheduleTenor</t>
+  </si>
+  <si>
+    <t>qlScheduleBDC</t>
+  </si>
+  <si>
+    <t>qlScheduleTerminationDateBDC</t>
+  </si>
+  <si>
+    <t>qlScheduleRule</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>qlScheduleEndOfMonth</t>
+  </si>
+  <si>
+    <t>qlSchedule</t>
+  </si>
+  <si>
+    <t>sched01#0000</t>
+  </si>
+  <si>
+    <t>qlScheduleFromDateVector</t>
+  </si>
+  <si>
+    <t>sched02#0000</t>
+  </si>
+  <si>
+    <t>qlScheduleTruncated</t>
+  </si>
+  <si>
+    <t>sched03#0000</t>
   </si>
   <si>
     <t>TermStructures</t>
@@ -883,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,6 +961,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1262,12 +1330,17 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1276,6 +1349,469 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>42738</v>
+      </c>
+      <c r="C4">
+        <v>42738</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5">
+        <v>42736</v>
+      </c>
+      <c r="C5">
+        <v>42736</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>-180</v>
+      </c>
+      <c r="C10">
+        <v>-180</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11">
+        <v>-180</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12">
+        <v>-252.99872090438052</v>
+      </c>
+      <c r="C12">
+        <v>-252.99872090438052</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>-252.99872090438052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22">
+        <v>42736</v>
+      </c>
+      <c r="C22">
+        <v>42736</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25">
+        <v>42739</v>
+      </c>
+      <c r="C25">
+        <v>42739</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25">
+        <v>42739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1321,25 +1857,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -1357,7 +1893,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -1375,7 +1911,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1393,7 +1929,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1411,7 +1947,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -1429,7 +1965,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1447,7 +1983,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1465,7 +2001,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -1486,7 +2022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1532,20 +2068,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2338,14 +2874,14 @@
         <v>38371</v>
       </c>
       <c r="C30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,7 +3837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3401,14 +3939,14 @@
         <v>42676</v>
       </c>
       <c r="C6" s="5">
-        <v>42676</v>
+        <v>42677</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E6" s="5">
-        <v>42676</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3437,14 +3975,14 @@
         <v>-47.519444444444446</v>
       </c>
       <c r="C8">
-        <v>-47.519444444444446</v>
+        <v>-47.522222222222226</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E8">
-        <v>-47.519444444444446</v>
+        <v>-47.522222222222226</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3958,14 +4496,14 @@
         <v>42678</v>
       </c>
       <c r="C3">
-        <v>42678</v>
+        <v>42681</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D35" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E3">
-        <v>42678</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,14 +4514,14 @@
         <v>42681</v>
       </c>
       <c r="C4">
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E4">
-        <v>42681</v>
+        <v>42682</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3994,14 +4532,14 @@
         <v>42681</v>
       </c>
       <c r="C5">
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E5">
-        <v>42681</v>
+        <v>42682</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4012,14 +4550,14 @@
         <v>42681</v>
       </c>
       <c r="C6" s="5">
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E6" s="5">
-        <v>42681</v>
+        <v>42682</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4545,11 +5083,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4591,414 +5127,306 @@
       <c r="A3" t="s">
         <v>226</v>
       </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" t="s">
-        <v>227</v>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3" t="s">
-        <v>227</v>
+        <f t="shared" ref="D3:D19" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4">
-        <v>42738</v>
-      </c>
-      <c r="C4">
-        <v>42738</v>
+        <v>227</v>
+      </c>
+      <c r="B4" s="5">
+        <v>25573</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25573</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E4">
-        <v>42738</v>
+      <c r="E4" s="5">
+        <v>25573</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5">
-        <v>42736</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>42736</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E5">
-        <v>42736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="B6" s="5">
+        <v>25570</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25570</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" s="5">
+        <v>25570</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>230</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+        <v>231</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10">
-        <v>-180</v>
-      </c>
-      <c r="C10">
-        <v>-180</v>
+        <v>233</v>
+      </c>
+      <c r="B10" s="5">
+        <v>25570</v>
+      </c>
+      <c r="C10" s="6">
+        <v>25570</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E10">
-        <v>-180</v>
+      <c r="E10" s="5">
+        <v>25570</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11">
-        <v>-180</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NAME?</v>
+        <v>234</v>
+      </c>
+      <c r="B11" s="5">
+        <v>25573</v>
+      </c>
+      <c r="C11" s="6">
+        <v>25573</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" s="5">
+        <v>25573</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12">
-        <v>-252.99872090438052</v>
-      </c>
-      <c r="C12">
-        <v>-252.99872090438052</v>
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E12">
-        <v>-252.99872090438052</v>
+      <c r="E12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16" t="s">
-        <v>244</v>
+        <v>FAIL</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B22">
-        <v>42736</v>
-      </c>
-      <c r="C22">
-        <v>42736</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E22">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="C24">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E24">
-        <v>8.3333333333333332E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25">
-        <v>42739</v>
-      </c>
-      <c r="C25">
-        <v>42739</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E25">
-        <v>42739</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -4,28 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18195" windowHeight="7995" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
-    <sheet name="Calendars" sheetId="2" r:id="rId2"/>
-    <sheet name="Date" sheetId="3" r:id="rId3"/>
-    <sheet name="DayCounters" sheetId="4" r:id="rId4"/>
-    <sheet name="Index" sheetId="5" r:id="rId5"/>
-    <sheet name="PiecewiseYieldCurve" sheetId="6" r:id="rId6"/>
-    <sheet name="Quotes" sheetId="7" r:id="rId7"/>
-    <sheet name="RateHelpers" sheetId="8" r:id="rId8"/>
-    <sheet name="Schedules" sheetId="9" r:id="rId9"/>
-    <sheet name="TermStructures" sheetId="10" r:id="rId10"/>
-    <sheet name="TimeSeries" sheetId="11" r:id="rId11"/>
-    <sheet name="Utilities" sheetId="12" r:id="rId12"/>
+    <sheet name="Bonds" sheetId="2" r:id="rId2"/>
+    <sheet name="Calendars" sheetId="3" r:id="rId3"/>
+    <sheet name="Date" sheetId="4" r:id="rId4"/>
+    <sheet name="DayCounters" sheetId="5" r:id="rId5"/>
+    <sheet name="Index" sheetId="6" r:id="rId6"/>
+    <sheet name="Math" sheetId="7" r:id="rId7"/>
+    <sheet name="Payoffs" sheetId="8" r:id="rId8"/>
+    <sheet name="PiecewiseYieldCurve" sheetId="9" r:id="rId9"/>
+    <sheet name="PricingEngines" sheetId="10" r:id="rId10"/>
+    <sheet name="Processes" sheetId="11" r:id="rId11"/>
+    <sheet name="Quotes" sheetId="12" r:id="rId12"/>
+    <sheet name="RateHelpers" sheetId="13" r:id="rId13"/>
+    <sheet name="Schedules" sheetId="14" r:id="rId14"/>
+    <sheet name="ShortRateModels" sheetId="15" r:id="rId15"/>
+    <sheet name="TermStructures" sheetId="16" r:id="rId16"/>
+    <sheet name="TimeSeries" sheetId="17" r:id="rId17"/>
+    <sheet name="Utilities" sheetId="18" r:id="rId18"/>
+    <sheet name="Volatilities" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="513">
   <si>
     <t>Group</t>
   </si>
@@ -42,36 +49,225 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>PASS /</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>qlBondSettlementDays</t>
+  </si>
+  <si>
+    <t>qlBondCalendar</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>qlBondNotionals</t>
+  </si>
+  <si>
+    <t>qlBondNotional</t>
+  </si>
+  <si>
+    <t>qlBondMaturityDate</t>
+  </si>
+  <si>
+    <t>qlBondIssueDate</t>
+  </si>
+  <si>
+    <t>qlBondIsTradable</t>
+  </si>
+  <si>
+    <t>qlBondSettlementDate</t>
+  </si>
+  <si>
+    <t>qlBondStartDate</t>
+  </si>
+  <si>
+    <t>qlBondPreviousCashFlowDate</t>
+  </si>
+  <si>
+    <t>qlBondNextCashFlowDate</t>
+  </si>
+  <si>
+    <t>qlBondPreviousCashFlowAmount</t>
+  </si>
+  <si>
+    <t>qlBondNextCashFlowAmount</t>
+  </si>
+  <si>
+    <t>qlBondPreviousCouponRate</t>
+  </si>
+  <si>
+    <t>qlBondNextCouponRate</t>
+  </si>
+  <si>
+    <t>qlBondAccrualStartDate</t>
+  </si>
+  <si>
+    <t>qlBondAccrualEndDate</t>
+  </si>
+  <si>
+    <t>qlBondReferencePeriodStart</t>
+  </si>
+  <si>
+    <t>qlBondReferencePeriodEnd</t>
+  </si>
+  <si>
+    <t>qlBondAccrualPeriod</t>
+  </si>
+  <si>
+    <t>qlBondAccrualDays</t>
+  </si>
+  <si>
+    <t>qlBondAccruedPeriod</t>
+  </si>
+  <si>
+    <t>qlBondAccruedDays</t>
+  </si>
+  <si>
+    <t>qlBondAccruedAmount</t>
+  </si>
+  <si>
+    <t>qlBondCleanPriceFromYieldTermStructure</t>
+  </si>
+  <si>
+    <t>qlBondBpsFromYieldTermStructure</t>
+  </si>
+  <si>
+    <t>qlBondAtmRateFromYieldTermStructure</t>
+  </si>
+  <si>
+    <t>qlBondCleanPriceFromYield</t>
+  </si>
+  <si>
+    <t>qlBondDirtyPriceFromYield</t>
+  </si>
+  <si>
+    <t>qlBondBpsFromYield</t>
+  </si>
+  <si>
+    <t>qlBondYieldFromCleanPrice</t>
+  </si>
+  <si>
+    <t>qlBondDurationFromYield</t>
+  </si>
+  <si>
+    <t>qlBondConvexityFromYield</t>
+  </si>
+  <si>
+    <t>qlBondCleanPriceFromZSpread</t>
+  </si>
+  <si>
+    <t>qlBondZSpreadFromCleanPrice</t>
+  </si>
+  <si>
+    <t>qlBondCleanPrice</t>
+  </si>
+  <si>
+    <t>qlBondDescription</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>qlBondCurrency</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>qlBondRedemptionAmount</t>
+  </si>
+  <si>
+    <t>qlBondRedemptionDate</t>
+  </si>
+  <si>
+    <t>qlBondFlowAnalysis</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>qlBondSetCouponPricer</t>
+  </si>
+  <si>
+    <t>qlBondSetCouponPricers</t>
+  </si>
+  <si>
+    <t>qlFixedRateBond</t>
+  </si>
+  <si>
+    <t>bond01#0000</t>
+  </si>
+  <si>
+    <t>qlFixedRateBond2</t>
+  </si>
+  <si>
+    <t>bond02#0000</t>
+  </si>
+  <si>
+    <t>qlFloatingRateBond</t>
+  </si>
+  <si>
+    <t>bond03#0000</t>
+  </si>
+  <si>
+    <t>qlCmsRateBond</t>
+  </si>
+  <si>
+    <t>bond04#0000</t>
+  </si>
+  <si>
+    <t>qlZeroCouponBond</t>
+  </si>
+  <si>
+    <t>bond05#0000</t>
+  </si>
+  <si>
+    <t>qlBond</t>
+  </si>
+  <si>
+    <t>bond06#0000</t>
+  </si>
+  <si>
+    <t>qlBondAlive</t>
+  </si>
+  <si>
+    <t>qlBondMaturityLookup</t>
+  </si>
+  <si>
+    <t>qlBondMaturitySort</t>
+  </si>
+  <si>
+    <t>bond06</t>
+  </si>
+  <si>
     <t>Calendars</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>PASS /</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
     <t>qlCalendarName</t>
   </si>
   <si>
-    <t>TARGET</t>
-  </si>
-  <si>
     <t>qlCalendarIsBusinessDay</t>
   </si>
   <si>
@@ -240,7 +436,7 @@
     <t>qlECBNextCode</t>
   </si>
   <si>
-    <t>DEC16</t>
+    <t>OCT16</t>
   </si>
   <si>
     <t>qlECBNextCode2</t>
@@ -309,9 +505,6 @@
     <t>qlInterestRateIndexCurrency</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>qlInterestRateIndexDayCounter</t>
   </si>
   <si>
@@ -417,6 +610,141 @@
     <t>index13#0000</t>
   </si>
   <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>qlPrimeNumber</t>
+  </si>
+  <si>
+    <t>qlNormDist</t>
+  </si>
+  <si>
+    <t>qlNormSDist</t>
+  </si>
+  <si>
+    <t>qlNormInv</t>
+  </si>
+  <si>
+    <t>qlNormSInv</t>
+  </si>
+  <si>
+    <t>qlSymmetricSchurDecompositionEigenvalues</t>
+  </si>
+  <si>
+    <t>qlSymmetricSchurDecompositionEigenvectors</t>
+  </si>
+  <si>
+    <t>qlSymmetricSchurDecomposition</t>
+  </si>
+  <si>
+    <t>math01#0000</t>
+  </si>
+  <si>
+    <t>qlCholeskyDecomposition</t>
+  </si>
+  <si>
+    <t>qlPseudoSqrt</t>
+  </si>
+  <si>
+    <t>qlRankReducedSqrt</t>
+  </si>
+  <si>
+    <t>qlGetCovariance</t>
+  </si>
+  <si>
+    <t>qlCovarianceDecompositionVariances</t>
+  </si>
+  <si>
+    <t>qlCovarianceDecompositionStandardDeviations</t>
+  </si>
+  <si>
+    <t>qlCovarianceDecompositionCorrelationMatrix</t>
+  </si>
+  <si>
+    <t>qlCovarianceDecomposition</t>
+  </si>
+  <si>
+    <t>math02#0000</t>
+  </si>
+  <si>
+    <t>Payoffs</t>
+  </si>
+  <si>
+    <t>qlPayoffName</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>qlPayoffDescription</t>
+  </si>
+  <si>
+    <t>Vanilla Put, 1 strike</t>
+  </si>
+  <si>
+    <t>qlPayoffValue</t>
+  </si>
+  <si>
+    <t>qlPayoffOptionType</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>qlPayoffStrike</t>
+  </si>
+  <si>
+    <t>qlPayoffThirdParameter</t>
+  </si>
+  <si>
+    <t>qlStrikedTypePayoff</t>
+  </si>
+  <si>
+    <t>pay01#0000</t>
+  </si>
+  <si>
+    <t>qlDoubleStickyRatchetPayoff</t>
+  </si>
+  <si>
+    <t>pay02#0000</t>
+  </si>
+  <si>
+    <t>qlRatchetPayoff</t>
+  </si>
+  <si>
+    <t>pay03#0000</t>
+  </si>
+  <si>
+    <t>qlStickyPayoff</t>
+  </si>
+  <si>
+    <t>pay04#0000</t>
+  </si>
+  <si>
+    <t>qlRatchetMaxPayoff</t>
+  </si>
+  <si>
+    <t>pay05#0000</t>
+  </si>
+  <si>
+    <t>qlRatchetMinPayoff</t>
+  </si>
+  <si>
+    <t>pay06#0000</t>
+  </si>
+  <si>
+    <t>qlStickyMaxPayoff</t>
+  </si>
+  <si>
+    <t>pay07#0000</t>
+  </si>
+  <si>
+    <t>qlStickyMinPayoff</t>
+  </si>
+  <si>
+    <t>pay08#0000</t>
+  </si>
+  <si>
     <t>PiecewiseYieldCurve</t>
   </si>
   <si>
@@ -447,6 +775,186 @@
     <t>qlPiecewiseYieldCurveJumpDates</t>
   </si>
   <si>
+    <t>PricingEngines</t>
+  </si>
+  <si>
+    <t>qlBlackFormula</t>
+  </si>
+  <si>
+    <t>srm01#0000</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaCashItmProbability</t>
+  </si>
+  <si>
+    <t>srm02#0000</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaImpliedStdDevApproximation</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaImpliedStdDev</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaStdDevDerivative</t>
+  </si>
+  <si>
+    <t>qlBachelierBlackFormula</t>
+  </si>
+  <si>
+    <t>qlBachelierBlackFormulaImpliedVol</t>
+  </si>
+  <si>
+    <t>qlBlackFormula2</t>
+  </si>
+  <si>
+    <t>srm03#0000</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaCashItmProbability2</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaImpliedStdDevApproximation2</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaImpliedStdDev2</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaStdDevDerivative2</t>
+  </si>
+  <si>
+    <t>qlBachelierBlackFormula2</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorValue</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorDeltaForward</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorDelta</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorElasticityForward</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorElasticity</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorGammaForward</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorGamma</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorTheta</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorThetaPerDay</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorVega</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorRho</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorDividendRho</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorItmCashProbability</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorItmAssetProbability</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorStrikeSensitivity</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorAlpha</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorBeta</t>
+  </si>
+  <si>
+    <t>qlBlackCalculator2</t>
+  </si>
+  <si>
+    <t>qlBlackCalculator</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorDelta</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorElasticity</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorGamma</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorTheta</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorThetaPerDay</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculator2</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculator</t>
+  </si>
+  <si>
+    <t>qlPricingEngine</t>
+  </si>
+  <si>
+    <t>qlDiscountingSwapEngine</t>
+  </si>
+  <si>
+    <t>qlBinomialPricingEngine</t>
+  </si>
+  <si>
+    <t>qlBlackSwaptionEngine</t>
+  </si>
+  <si>
+    <t>qlBlackSwaptionEngine2</t>
+  </si>
+  <si>
+    <t>qlBlackCapFloorEngine</t>
+  </si>
+  <si>
+    <t>qlBlackCapFloorEngine2</t>
+  </si>
+  <si>
+    <t>qlBachelierCapFloorEngine</t>
+  </si>
+  <si>
+    <t>qlBachelierCapFloorEngine2</t>
+  </si>
+  <si>
+    <t>qlAnalyticCapFloorEngine</t>
+  </si>
+  <si>
+    <t>qlBondEngine</t>
+  </si>
+  <si>
+    <t>qlJamshidianSwaptionEngine</t>
+  </si>
+  <si>
+    <t>qlTreeSwaptionEngine</t>
+  </si>
+  <si>
+    <t>qlModelG2SwaptionEngine</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>qlGeneralizedBlackScholesProcess</t>
+  </si>
+  <si>
+    <t>proc01#0000</t>
+  </si>
+  <si>
     <t>Quotes</t>
   </si>
   <si>
@@ -696,7 +1204,7 @@
     <t>obj_0000e</t>
   </si>
   <si>
-    <t>obj_0002e</t>
+    <t>obj_00041</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
@@ -768,6 +1276,48 @@
     <t>sched03#0000</t>
   </si>
   <si>
+    <t>ShortRateModels</t>
+  </si>
+  <si>
+    <t>qlHullWhite</t>
+  </si>
+  <si>
+    <t>qlVasicek</t>
+  </si>
+  <si>
+    <t>qlFuturesConvexityBias</t>
+  </si>
+  <si>
+    <t>qlVasicekA</t>
+  </si>
+  <si>
+    <t>qlVasicekB</t>
+  </si>
+  <si>
+    <t>qlVasicekLambda</t>
+  </si>
+  <si>
+    <t>qlVasicekSigma</t>
+  </si>
+  <si>
+    <t>qlModelG2</t>
+  </si>
+  <si>
+    <t>qlModelG2A</t>
+  </si>
+  <si>
+    <t>qlModelG2sigma</t>
+  </si>
+  <si>
+    <t>qlModelG2B</t>
+  </si>
+  <si>
+    <t>qlModelG2eta</t>
+  </si>
+  <si>
+    <t>qlModelG2rho</t>
+  </si>
+  <si>
     <t>TermStructures</t>
   </si>
   <si>
@@ -907,6 +1457,120 @@
   </si>
   <si>
     <t>1.8.2</t>
+  </si>
+  <si>
+    <t>Volatilities</t>
+  </si>
+  <si>
+    <t>qlSabrVolatility</t>
+  </si>
+  <si>
+    <t>qlVolatilityTermStructureBusinessDayConvention</t>
+  </si>
+  <si>
+    <t>Following</t>
+  </si>
+  <si>
+    <t>qlVolatilityTermStructureOptionDateFromTenor</t>
+  </si>
+  <si>
+    <t>qlVolatilityTermStructureMinStrike</t>
+  </si>
+  <si>
+    <t>qlVolatilityTermStructureMaxStrike</t>
+  </si>
+  <si>
+    <t>qlBlackAtmVolCurveAtmVol</t>
+  </si>
+  <si>
+    <t>qlBlackAtmVolCurveAtmVol2</t>
+  </si>
+  <si>
+    <t>qlBlackAtmVolCurveAtmVol3</t>
+  </si>
+  <si>
+    <t>qlBlackAtmVolCurveAtmVariance</t>
+  </si>
+  <si>
+    <t>qlBlackAtmVolCurveAtmVariance2</t>
+  </si>
+  <si>
+    <t>qlBlackAtmVolCurveAtmVariance3</t>
+  </si>
+  <si>
+    <t>qlBlackVolTermStructureBlackVol</t>
+  </si>
+  <si>
+    <t>qlBlackVolTermStructureBlackVariance</t>
+  </si>
+  <si>
+    <t>qlBlackVolTermStructureBlackForwardVol</t>
+  </si>
+  <si>
+    <t>qlBlackVolTermStructureBlackForwardVariance</t>
+  </si>
+  <si>
+    <t>qlBlackConstantVol</t>
+  </si>
+  <si>
+    <t>vol01#0000</t>
+  </si>
+  <si>
+    <t>qlBlackVarianceSurface</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveOptionTenors</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveOptionTenorsInInterpolation</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveOptionDates</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveOptionTimes</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveRmsError</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveMaxError</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveA</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveB</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveC</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveD</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveKatOptionTenors</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurveK</t>
+  </si>
+  <si>
+    <t>qlAbcdAtmVolCurve</t>
+  </si>
+  <si>
+    <t>vol02#0000</t>
+  </si>
+  <si>
+    <t>qlSabrVolSurface</t>
+  </si>
+  <si>
+    <t>qlVolatilitySpreads</t>
+  </si>
+  <si>
+    <t>qlVolatilitySpreads2</t>
+  </si>
+  <si>
+    <t>qlAtmCurve</t>
   </si>
 </sst>
 </file>
@@ -1263,9 +1927,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1295,37 +1959,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,12 +1999,47 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -1349,6 +2048,520 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:E55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="3" t="e">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5">
+        <v>2.6897035576518178E-3</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15">
+        <v>-0.75</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1394,61 +2607,61 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
+        <v>308</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3" t="s">
-        <v>249</v>
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4">
-        <v>42738</v>
-      </c>
-      <c r="C4">
-        <v>42738</v>
+        <v>309</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E4">
-        <v>42738</v>
+        <f t="shared" ref="D4:D5" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5">
-        <v>42736</v>
-      </c>
-      <c r="C5">
-        <v>42736</v>
+        <v>310</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E5">
-        <v>42736</v>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1457,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B6=C6,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E6">
@@ -1466,344 +2679,317 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>312</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <f t="shared" ref="D7:D25" si="1">IF(B7=C7,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10">
-        <v>-180</v>
-      </c>
-      <c r="C10">
-        <v>-180</v>
+        <v>315</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10">
-        <v>-180</v>
+        <f t="shared" si="1"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11">
-        <v>-180</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NAME?</v>
+        <v>316</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12">
-        <v>-252.99872090438052</v>
-      </c>
-      <c r="C12">
-        <v>-252.99872090438052</v>
+        <v>317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>318</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12">
-        <v>-252.99872090438052</v>
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" t="s">
-        <v>272</v>
+        <v>331</v>
+      </c>
+      <c r="B19">
+        <v>456</v>
+      </c>
+      <c r="C19">
+        <v>456</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E19" t="s">
-        <v>272</v>
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19">
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C20" t="s">
-        <v>274</v>
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <v>789</v>
+      </c>
+      <c r="C20">
+        <v>789</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E20" t="s">
-        <v>274</v>
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20">
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>43544</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>43544</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="B22">
-        <v>42736</v>
+        <v>123</v>
       </c>
       <c r="C22">
-        <v>42736</v>
+        <v>123</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E22">
-        <v>42736</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>335</v>
+      </c>
+      <c r="B23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>336</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B24">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="C24">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E24">
-        <v>8.3333333333333332E-3</v>
+        <v>337</v>
+      </c>
+      <c r="B24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25">
-        <v>42739</v>
-      </c>
-      <c r="C25">
-        <v>42739</v>
+        <v>338</v>
+      </c>
+      <c r="B25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" t="s">
+        <v>339</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E25">
-        <v>42739</v>
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +2997,1745 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3">
+        <v>42678</v>
+      </c>
+      <c r="C3">
+        <v>42648</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D35" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="E3">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4">
+        <v>42681</v>
+      </c>
+      <c r="C4">
+        <v>42649</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E4">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5">
+        <v>42681</v>
+      </c>
+      <c r="C5">
+        <v>42649</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="5">
+        <v>42681</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42649</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E6" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" s="5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B28" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>388</v>
+      </c>
+      <c r="B34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>391</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D19" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="5">
+        <v>25573</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25573</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" s="5">
+        <v>25573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="5">
+        <v>25570</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25570</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" s="5">
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="5">
+        <v>25570</v>
+      </c>
+      <c r="C10" s="6">
+        <v>25570</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" s="5">
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="5">
+        <v>25573</v>
+      </c>
+      <c r="C11" s="6">
+        <v>25573</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" s="5">
+        <v>25573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5">
+        <v>2.6897035576518178E-3</v>
+      </c>
+      <c r="C5">
+        <v>2.6897035576518178E-3</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>2.6897035576518178E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B15">
+        <v>-0.75</v>
+      </c>
+      <c r="C15">
+        <v>-0.75</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>-0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4">
+        <v>42738</v>
+      </c>
+      <c r="C4">
+        <v>42738</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5">
+        <v>42736</v>
+      </c>
+      <c r="C5">
+        <v>42736</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10">
+        <v>-180</v>
+      </c>
+      <c r="C10">
+        <v>-180</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11">
+        <v>-180</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B12">
+        <v>-252.99872090438052</v>
+      </c>
+      <c r="C12">
+        <v>-252.99872090438052</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>-252.99872090438052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" t="s">
+        <v>447</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" t="s">
+        <v>451</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C20" t="s">
+        <v>455</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22">
+        <v>42736</v>
+      </c>
+      <c r="C22">
+        <v>42736</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25">
+        <v>42739</v>
+      </c>
+      <c r="C25">
+        <v>42739</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25">
+        <v>42739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1857,25 +4781,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>463</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>464</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -1893,7 +4817,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>465</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -1911,7 +4835,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>466</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1929,7 +4853,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>467</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1947,7 +4871,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>468</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -1965,7 +4889,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>469</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1983,7 +4907,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>470</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2001,7 +4925,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>471</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -2022,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2068,20 +4992,681 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>474</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3">
+        <v>23.948673390030997</v>
+      </c>
+      <c r="C3">
+        <v>23.948673390030997</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>23.948673390030997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D36" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5">
+        <v>42648</v>
+      </c>
+      <c r="C5">
+        <v>42648</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6">
+        <v>-1.7976931348623157E+308</v>
+      </c>
+      <c r="C6">
+        <v>-1.7976931348623157E+308</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>-1.7976931348623157E+308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7">
+        <v>1.7976931348623157E+308</v>
+      </c>
+      <c r="C7">
+        <v>1.7976931348623157E+308</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>1.7976931348623157E+308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10">
+        <v>3.3161907871456142</v>
+      </c>
+      <c r="C10">
+        <v>3.3161907871456142</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>3.3161907871456142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C12">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13">
+        <v>0.10997121336749448</v>
+      </c>
+      <c r="C13">
+        <v>0.10997121336749448</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>0.10997121336749448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C15">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16">
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="C16">
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" t="s">
+        <v>493</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>494</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22">
+        <v>42648</v>
+      </c>
+      <c r="C22">
+        <v>42648</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C23">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24">
+        <v>0.16276967485704383</v>
+      </c>
+      <c r="C24">
+        <v>0.16276901888733139</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E24">
+        <v>0.16276901888733139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>500</v>
+      </c>
+      <c r="B25">
+        <v>0.20543416674806414</v>
+      </c>
+      <c r="C25">
+        <v>0.20553128316863267</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E25">
+        <v>0.20553128316863267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>501</v>
+      </c>
+      <c r="B26">
+        <v>-5.6930143586703347E-4</v>
+      </c>
+      <c r="C26">
+        <v>-5.6930143586703347E-4</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E26">
+        <v>-5.6930143586703347E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>502</v>
+      </c>
+      <c r="B27">
+        <v>816.38481984485099</v>
+      </c>
+      <c r="C27">
+        <v>816.38970366714</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E27">
+        <v>816.38970366714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>503</v>
+      </c>
+      <c r="B28">
+        <v>55.846414299893993</v>
+      </c>
+      <c r="C28">
+        <v>55.846414299893993</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28">
+        <v>55.846414299893993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>504</v>
+      </c>
+      <c r="B29">
+        <v>5.6930143586703347E-4</v>
+      </c>
+      <c r="C29">
+        <v>5.6930143586703347E-4</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29">
+        <v>5.6930143586703347E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B30">
+        <v>0.85719125008922603</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>506</v>
+      </c>
+      <c r="B31">
+        <v>1.0562718217954301</v>
+      </c>
+      <c r="C31">
+        <v>0.85719125008922603</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E31">
+        <v>0.85719125008922603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>507</v>
+      </c>
+      <c r="B32" t="s">
+        <v>508</v>
+      </c>
+      <c r="C32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>509</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>510</v>
+      </c>
+      <c r="B34" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>511</v>
+      </c>
+      <c r="B35" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>512</v>
+      </c>
+      <c r="B36" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D36" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -2090,6 +5675,988 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="3" t="e">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <f t="shared" ref="D4:D54" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>42647</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>42644</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>42647</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>42645</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>42647</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>2.9916897506925206</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D28" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0.99999999999997435</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D29" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>2.9916897506925206</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>2.9916897506925206</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D31" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D32" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>720</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>2.7700831024930748E-3</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>1.5346720789435321E-5</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>2.9834254143646408</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D36" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>718.99999999999989</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D37" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D38" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D39" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D40" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D41" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>42647</v>
+      </c>
+      <c r="C42" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D42" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E42" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D43" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C44" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D44" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C45" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D45" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D46" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D47" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D48" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E48" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D49" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D50" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D51" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C52" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D52" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D53" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D54" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E54" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2135,25 +6702,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -2171,7 +6738,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2189,7 +6756,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -2207,7 +6774,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>25598</v>
@@ -2225,7 +6792,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2243,7 +6810,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2261,7 +6828,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>42005</v>
@@ -2279,7 +6846,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>25570</v>
@@ -2297,7 +6864,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>25570</v>
@@ -2315,7 +6882,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>255</v>
@@ -2336,7 +6903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -2382,43 +6949,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D42" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2436,25 +7003,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>367</v>
@@ -2472,7 +7039,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>109574</v>
@@ -2490,7 +7057,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2508,7 +7075,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>25599</v>
@@ -2526,7 +7093,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -2544,7 +7111,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>25573</v>
@@ -2562,7 +7129,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>25594</v>
@@ -2580,7 +7147,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2598,7 +7165,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -2616,61 +7183,61 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>45735</v>
@@ -2688,7 +7255,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>42725</v>
@@ -2706,7 +7273,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>42725</v>
@@ -2724,7 +7291,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2742,7 +7309,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2760,61 +7327,61 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B27">
         <v>45730</v>
@@ -2832,7 +7399,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B28">
         <v>42713</v>
@@ -2850,7 +7417,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B29">
         <v>42713</v>
@@ -2868,25 +7435,25 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
       <c r="C30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -2904,7 +7471,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -2922,7 +7489,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B33">
         <v>38371</v>
@@ -2940,7 +7507,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B34">
         <v>40247</v>
@@ -2958,7 +7525,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B35" s="4">
         <v>42439</v>
@@ -2971,30 +7538,30 @@
         <v>PASS</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B36">
         <v>42718</v>
       </c>
       <c r="C36">
-        <v>42718</v>
+        <v>42669</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E36">
-        <v>42718</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="B37">
         <v>40282</v>
@@ -3012,35 +7579,35 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B38">
         <v>42718</v>
       </c>
       <c r="C38">
-        <v>42718</v>
+        <v>42669</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E38">
-        <v>42718</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -3048,7 +7615,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -3066,25 +7633,25 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="B41" s="4">
         <v>42720</v>
       </c>
       <c r="C41" s="4">
-        <v>42720</v>
+        <v>42659</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B42" s="4">
         <v>42470</v>
@@ -3097,7 +7664,7 @@
         <v>PASS</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +7672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3151,25 +7718,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D5" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>364</v>
@@ -3187,7 +7754,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>1.0111111111111111</v>
@@ -3208,7 +7775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -3254,43 +7821,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D34" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3308,7 +7875,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -3326,7 +7893,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3344,7 +7911,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3362,7 +7929,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3380,43 +7947,43 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3434,43 +8001,43 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="B15">
         <v>42709</v>
@@ -3488,7 +8055,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B16">
         <v>42703</v>
@@ -3506,7 +8073,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="B17">
         <v>43070</v>
@@ -3524,25 +8091,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3560,272 +8127,272 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +8400,639 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4">
+        <v>0.99999971334842819</v>
+      </c>
+      <c r="C4">
+        <v>0.99999971334842819</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D18" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>0.99999971334842819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5">
+        <v>0.99999971334842819</v>
+      </c>
+      <c r="C5">
+        <v>0.99999971334842819</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>0.99999971334842819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8">
+        <v>3.4142135623730949</v>
+      </c>
+      <c r="C8">
+        <v>3.4142135623730949</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>3.4142135623730949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="C9">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C11">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C12">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13">
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="C13">
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>1.4142135623730949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C16">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3879,43 +9078,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3933,25 +9132,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="B6" s="5">
         <v>42676</v>
       </c>
       <c r="C6" s="5">
-        <v>42677</v>
+        <v>42646</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E6" s="5">
-        <v>42677</v>
+        <v>42646</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3969,25 +9168,25 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="B8">
         <v>-47.519444444444446</v>
       </c>
       <c r="C8">
-        <v>-47.522222222222226</v>
+        <v>-47.43611111111111</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E8">
-        <v>-47.522222222222226</v>
+        <v>-47.43611111111111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="B9" s="5">
         <v>25569</v>
@@ -4001,1432 +9200,6 @@
       </c>
       <c r="E9" s="5">
         <v>25569</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D5" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>IF(B6=C6,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" ref="D7:D25" si="1">IF(B7=C7,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8">
-        <v>456</v>
-      </c>
-      <c r="C8">
-        <v>456</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19">
-        <v>456</v>
-      </c>
-      <c r="C19">
-        <v>456</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E19">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20">
-        <v>789</v>
-      </c>
-      <c r="C20">
-        <v>789</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E20">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21">
-        <v>43544</v>
-      </c>
-      <c r="C21">
-        <v>43544</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E21">
-        <v>43544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22">
-        <v>123</v>
-      </c>
-      <c r="C22">
-        <v>123</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E22">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D24" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>PASS</v>
-      </c>
-      <c r="E25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3">
-        <v>42678</v>
-      </c>
-      <c r="C3">
-        <v>42681</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D35" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="E3">
-        <v>42681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4">
-        <v>42681</v>
-      </c>
-      <c r="C4">
-        <v>42682</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E4">
-        <v>42682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5">
-        <v>42681</v>
-      </c>
-      <c r="C5">
-        <v>42682</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E5">
-        <v>42682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="5">
-        <v>42681</v>
-      </c>
-      <c r="C6" s="5">
-        <v>42682</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E6" s="5">
-        <v>42682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" s="5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" s="5" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D19" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="5">
-        <v>25573</v>
-      </c>
-      <c r="C4" s="6">
-        <v>25573</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E4" s="5">
-        <v>25573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="5">
-        <v>25570</v>
-      </c>
-      <c r="C6" s="5">
-        <v>25570</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6" s="5">
-        <v>25570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="5">
-        <v>25570</v>
-      </c>
-      <c r="C10" s="6">
-        <v>25570</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10" s="5">
-        <v>25570</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="5">
-        <v>25573</v>
-      </c>
-      <c r="C11" s="6">
-        <v>25573</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E11" s="5">
-        <v>25573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E19" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18195" windowHeight="7995" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
@@ -14,25 +14,28 @@
     <sheet name="DayCounters" sheetId="5" r:id="rId5"/>
     <sheet name="Index" sheetId="6" r:id="rId6"/>
     <sheet name="Math" sheetId="7" r:id="rId7"/>
-    <sheet name="Payoffs" sheetId="8" r:id="rId8"/>
-    <sheet name="PiecewiseYieldCurve" sheetId="9" r:id="rId9"/>
-    <sheet name="PricingEngines" sheetId="10" r:id="rId10"/>
-    <sheet name="Processes" sheetId="11" r:id="rId11"/>
-    <sheet name="Quotes" sheetId="12" r:id="rId12"/>
-    <sheet name="RateHelpers" sheetId="13" r:id="rId13"/>
-    <sheet name="Schedules" sheetId="14" r:id="rId14"/>
-    <sheet name="ShortRateModels" sheetId="15" r:id="rId15"/>
-    <sheet name="TermStructures" sheetId="16" r:id="rId16"/>
-    <sheet name="TimeSeries" sheetId="17" r:id="rId17"/>
-    <sheet name="Utilities" sheetId="18" r:id="rId18"/>
-    <sheet name="Volatilities" sheetId="19" r:id="rId19"/>
+    <sheet name="Optimization" sheetId="8" r:id="rId8"/>
+    <sheet name="Payoffs" sheetId="9" r:id="rId9"/>
+    <sheet name="PiecewiseYieldCurve" sheetId="10" r:id="rId10"/>
+    <sheet name="PricingEngines" sheetId="11" r:id="rId11"/>
+    <sheet name="Processes" sheetId="12" r:id="rId12"/>
+    <sheet name="Quotes" sheetId="13" r:id="rId13"/>
+    <sheet name="RateHelpers" sheetId="14" r:id="rId14"/>
+    <sheet name="Schedules" sheetId="15" r:id="rId15"/>
+    <sheet name="ShortRateModels" sheetId="16" r:id="rId16"/>
+    <sheet name="SmileSection" sheetId="17" r:id="rId17"/>
+    <sheet name="SwaptionVolatility" sheetId="18" r:id="rId18"/>
+    <sheet name="TermStructures" sheetId="19" r:id="rId19"/>
+    <sheet name="TimeSeries" sheetId="20" r:id="rId20"/>
+    <sheet name="Utilities" sheetId="21" r:id="rId21"/>
+    <sheet name="Volatilities" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="608">
   <si>
     <t>Group</t>
   </si>
@@ -667,6 +670,72 @@
     <t>math02#0000</t>
   </si>
   <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>qlSphereCylinderOptimizerClosest</t>
+  </si>
+  <si>
+    <t>qlSecondsToString</t>
+  </si>
+  <si>
+    <t>0:0:5</t>
+  </si>
+  <si>
+    <t>qlEndCriteriaMaxIterations</t>
+  </si>
+  <si>
+    <t>qlEndCriteriaMaxStationaryStateIterations</t>
+  </si>
+  <si>
+    <t>qlEndCriteriaFunctionEpsilon</t>
+  </si>
+  <si>
+    <t>qlEndCriteriaGradientNormEpsilon</t>
+  </si>
+  <si>
+    <t>qlEndCriteria</t>
+  </si>
+  <si>
+    <t>opt01#0000</t>
+  </si>
+  <si>
+    <t>qlNoConstraint</t>
+  </si>
+  <si>
+    <t>opt02#0000</t>
+  </si>
+  <si>
+    <t>qlSimplex</t>
+  </si>
+  <si>
+    <t>opt03#0000</t>
+  </si>
+  <si>
+    <t>qlLevenbergMarquardt</t>
+  </si>
+  <si>
+    <t>opt04#0000</t>
+  </si>
+  <si>
+    <t>qlConjugateGradient</t>
+  </si>
+  <si>
+    <t>opt05#0000</t>
+  </si>
+  <si>
+    <t>qlSteepestDescent</t>
+  </si>
+  <si>
+    <t>opt06#0000</t>
+  </si>
+  <si>
+    <t>qlArmijoLineSearch</t>
+  </si>
+  <si>
+    <t>opt07#0000</t>
+  </si>
+  <si>
     <t>Payoffs</t>
   </si>
   <si>
@@ -781,528 +850,582 @@
     <t>qlBlackFormula</t>
   </si>
   <si>
+    <t>qlBlackFormulaCashItmProbability</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaImpliedStdDevApproximation</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaImpliedStdDev</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaStdDevDerivative</t>
+  </si>
+  <si>
+    <t>qlBachelierBlackFormula</t>
+  </si>
+  <si>
+    <t>qlBachelierBlackFormulaImpliedVol</t>
+  </si>
+  <si>
+    <t>qlBlackFormula2</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaCashItmProbability2</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaImpliedStdDevApproximation2</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaImpliedStdDev2</t>
+  </si>
+  <si>
+    <t>qlBlackFormulaStdDevDerivative2</t>
+  </si>
+  <si>
+    <t>qlBachelierBlackFormula2</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorValue</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorDeltaForward</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorDelta</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorElasticityForward</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorElasticity</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorGammaForward</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorGamma</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorTheta</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorThetaPerDay</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorVega</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorRho</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorDividendRho</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorItmCashProbability</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorItmAssetProbability</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorStrikeSensitivity</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorAlpha</t>
+  </si>
+  <si>
+    <t>qlBlackCalculatorBeta</t>
+  </si>
+  <si>
+    <t>qlBlackCalculator2</t>
+  </si>
+  <si>
+    <t>pe01#0000</t>
+  </si>
+  <si>
+    <t>qlBlackCalculator</t>
+  </si>
+  <si>
+    <t>pe02#0000</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorDelta</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorElasticity</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorGamma</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorTheta</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculatorThetaPerDay</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculator2</t>
+  </si>
+  <si>
+    <t>pe03#0000</t>
+  </si>
+  <si>
+    <t>qlBlackScholesCalculator</t>
+  </si>
+  <si>
+    <t>pe04#0000</t>
+  </si>
+  <si>
+    <t>qlPricingEngine</t>
+  </si>
+  <si>
+    <t>pe05#0000</t>
+  </si>
+  <si>
+    <t>qlDiscountingSwapEngine</t>
+  </si>
+  <si>
+    <t>pe06#0000</t>
+  </si>
+  <si>
+    <t>qlBinomialPricingEngine</t>
+  </si>
+  <si>
+    <t>pe07#0000</t>
+  </si>
+  <si>
+    <t>qlBlackSwaptionEngine</t>
+  </si>
+  <si>
+    <t>pe08#0000</t>
+  </si>
+  <si>
+    <t>qlBlackSwaptionEngine2</t>
+  </si>
+  <si>
+    <t>pe09#0000</t>
+  </si>
+  <si>
+    <t>qlBlackCapFloorEngine</t>
+  </si>
+  <si>
+    <t>pe10#0000</t>
+  </si>
+  <si>
+    <t>qlBlackCapFloorEngine2</t>
+  </si>
+  <si>
+    <t>pe11#0000</t>
+  </si>
+  <si>
+    <t>qlBachelierCapFloorEngine</t>
+  </si>
+  <si>
+    <t>pe12#0000</t>
+  </si>
+  <si>
+    <t>qlBachelierCapFloorEngine2</t>
+  </si>
+  <si>
+    <t>pe13#0000</t>
+  </si>
+  <si>
+    <t>qlAnalyticCapFloorEngine</t>
+  </si>
+  <si>
+    <t>pe14#0000</t>
+  </si>
+  <si>
+    <t>qlBondEngine</t>
+  </si>
+  <si>
+    <t>pe15#0000</t>
+  </si>
+  <si>
+    <t>qlJamshidianSwaptionEngine</t>
+  </si>
+  <si>
+    <t>pe16#0000</t>
+  </si>
+  <si>
+    <t>qlTreeSwaptionEngine</t>
+  </si>
+  <si>
+    <t>pe17#0000</t>
+  </si>
+  <si>
+    <t>qlModelG2SwaptionEngine</t>
+  </si>
+  <si>
+    <t>pe18#0000</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>qlGeneralizedBlackScholesProcess</t>
+  </si>
+  <si>
+    <t>proc01#0000</t>
+  </si>
+  <si>
+    <t>Quotes</t>
+  </si>
+  <si>
+    <t>qlQuoteValue</t>
+  </si>
+  <si>
+    <t>qlQuoteIsValid</t>
+  </si>
+  <si>
+    <t>qlSimpleQuoteReset</t>
+  </si>
+  <si>
+    <t>qlSimpleQuoteSetValue</t>
+  </si>
+  <si>
+    <t>qlSimpleQuoteSetTickValue</t>
+  </si>
+  <si>
+    <t>qlSimpleQuoteTickValue</t>
+  </si>
+  <si>
+    <t>qlBucketAnalysis</t>
+  </si>
+  <si>
+    <t>qlBucketAnalysisDelta</t>
+  </si>
+  <si>
+    <t>qlBucketAnalysisDelta2</t>
+  </si>
+  <si>
+    <t>qlSimpleQuote</t>
+  </si>
+  <si>
+    <t>quote01#0000</t>
+  </si>
+  <si>
+    <t>qlForwardValueQuote</t>
+  </si>
+  <si>
+    <t>quote02#0000</t>
+  </si>
+  <si>
+    <t>qlForwardSwapQuote</t>
+  </si>
+  <si>
+    <t>quote03#0000</t>
+  </si>
+  <si>
+    <t>qlImpliedStdDevQuote</t>
+  </si>
+  <si>
+    <t>quote04#0000</t>
+  </si>
+  <si>
+    <t>qlEurodollarFuturesImpliedStdDevQuote</t>
+  </si>
+  <si>
+    <t>quote05#0000</t>
+  </si>
+  <si>
+    <t>qlCompositeQuote</t>
+  </si>
+  <si>
+    <t>quote06#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuote</t>
+  </si>
+  <si>
+    <t>quote07#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuoteVolatility</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuoteMeanReversion</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuoteImmDate</t>
+  </si>
+  <si>
+    <t>qlFuturesConvAdjustmentQuoteFuturesValue</t>
+  </si>
+  <si>
+    <t>qlLastFixingQuote</t>
+  </si>
+  <si>
+    <t>quote08#0000</t>
+  </si>
+  <si>
+    <t>qlLastFixingQuoteReferenceDate</t>
+  </si>
+  <si>
+    <t>qlRelinkableHandleQuote</t>
+  </si>
+  <si>
+    <t>quote09#0000</t>
+  </si>
+  <si>
+    <t>RateHelpers</t>
+  </si>
+  <si>
+    <t>qlRateHelperEarliestDate</t>
+  </si>
+  <si>
+    <t>qlRateHelperLatestRelevantDate</t>
+  </si>
+  <si>
+    <t>qlRateHelperPillarDate</t>
+  </si>
+  <si>
+    <t>qlRateHelperMaturityDate</t>
+  </si>
+  <si>
+    <t>qlRateHelperQuoteName</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>qlRateHelperQuoteIsValid</t>
+  </si>
+  <si>
+    <t>qlRateHelperImpliedQuote</t>
+  </si>
+  <si>
+    <t>qlRateHelperQuoteError</t>
+  </si>
+  <si>
+    <t>qlDepositRateHelper</t>
+  </si>
+  <si>
+    <t>rh01#0000</t>
+  </si>
+  <si>
+    <t>qlDepositRateHelper2</t>
+  </si>
+  <si>
+    <t>rh02#0000</t>
+  </si>
+  <si>
+    <t>qlSwapRateHelper</t>
+  </si>
+  <si>
+    <t>rh03#0000</t>
+  </si>
+  <si>
+    <t>qlSwapRateHelper2</t>
+  </si>
+  <si>
+    <t>rh04#0000</t>
+  </si>
+  <si>
+    <t>qlSwapRateHelperSpread</t>
+  </si>
+  <si>
+    <t>qlOISRateHelper</t>
+  </si>
+  <si>
+    <t>rh05#0000</t>
+  </si>
+  <si>
+    <t>qlDatedOISRateHelper</t>
+  </si>
+  <si>
+    <t>rh06#0000</t>
+  </si>
+  <si>
+    <t>qlFraRateHelper</t>
+  </si>
+  <si>
+    <t>rh07#0000</t>
+  </si>
+  <si>
+    <t>qlFraRateHelper2</t>
+  </si>
+  <si>
+    <t>rh08#0000</t>
+  </si>
+  <si>
+    <t>qlBondHelper</t>
+  </si>
+  <si>
+    <t>rh09#0000</t>
+  </si>
+  <si>
+    <t>qlFixedRateBondHelper</t>
+  </si>
+  <si>
+    <t>rh10#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesRateHelperConvexityAdjustment</t>
+  </si>
+  <si>
+    <t>qlFuturesRateHelper</t>
+  </si>
+  <si>
+    <t>rh11#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesRateHelper2</t>
+  </si>
+  <si>
+    <t>rh12#0000</t>
+  </si>
+  <si>
+    <t>qlFuturesRateHelper3</t>
+  </si>
+  <si>
+    <t>rh13#0000</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelper</t>
+  </si>
+  <si>
+    <t>rh14#0000</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperSpotValue</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperTenor</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperFixingDays</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperCalendar</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperBDC</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperEOM</t>
+  </si>
+  <si>
+    <t>qlFxSwapRateHelperIsBaseCurrencyCollateralCurrency</t>
+  </si>
+  <si>
+    <t>qlRateHelperSelection</t>
+  </si>
+  <si>
+    <t>obj_0000e</t>
+  </si>
+  <si>
+    <t>obj_0004f</t>
+  </si>
+  <si>
+    <t>qlRateHelperRate</t>
+  </si>
+  <si>
+    <t>Schedules</t>
+  </si>
+  <si>
+    <t>qlScheduleSize</t>
+  </si>
+  <si>
+    <t>qlSchedulePreviousDate</t>
+  </si>
+  <si>
+    <t>qlScheduleNextDate</t>
+  </si>
+  <si>
+    <t>qlScheduleDates</t>
+  </si>
+  <si>
+    <t>qlScheduleIsRegular</t>
+  </si>
+  <si>
+    <t>qlScheduleEmpty</t>
+  </si>
+  <si>
+    <t>qlScheduleCalendar</t>
+  </si>
+  <si>
+    <t>qlScheduleStartDate</t>
+  </si>
+  <si>
+    <t>qlScheduleEndDate</t>
+  </si>
+  <si>
+    <t>qlScheduleTenor</t>
+  </si>
+  <si>
+    <t>qlScheduleBDC</t>
+  </si>
+  <si>
+    <t>qlScheduleTerminationDateBDC</t>
+  </si>
+  <si>
+    <t>qlScheduleRule</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>qlScheduleEndOfMonth</t>
+  </si>
+  <si>
+    <t>qlSchedule</t>
+  </si>
+  <si>
+    <t>sched01#0000</t>
+  </si>
+  <si>
+    <t>qlScheduleFromDateVector</t>
+  </si>
+  <si>
+    <t>sched02#0000</t>
+  </si>
+  <si>
+    <t>qlScheduleTruncated</t>
+  </si>
+  <si>
+    <t>sched03#0000</t>
+  </si>
+  <si>
+    <t>ShortRateModels</t>
+  </si>
+  <si>
+    <t>qlHullWhite</t>
+  </si>
+  <si>
     <t>srm01#0000</t>
   </si>
   <si>
-    <t>qlBlackFormulaCashItmProbability</t>
+    <t>qlVasicek</t>
   </si>
   <si>
     <t>srm02#0000</t>
   </si>
   <si>
-    <t>qlBlackFormulaImpliedStdDevApproximation</t>
-  </si>
-  <si>
-    <t>qlBlackFormulaImpliedStdDev</t>
-  </si>
-  <si>
-    <t>qlBlackFormulaStdDevDerivative</t>
-  </si>
-  <si>
-    <t>qlBachelierBlackFormula</t>
-  </si>
-  <si>
-    <t>qlBachelierBlackFormulaImpliedVol</t>
-  </si>
-  <si>
-    <t>qlBlackFormula2</t>
+    <t>qlFuturesConvexityBias</t>
+  </si>
+  <si>
+    <t>qlVasicekA</t>
+  </si>
+  <si>
+    <t>qlVasicekB</t>
+  </si>
+  <si>
+    <t>qlVasicekLambda</t>
+  </si>
+  <si>
+    <t>qlVasicekSigma</t>
+  </si>
+  <si>
+    <t>qlModelG2</t>
   </si>
   <si>
     <t>srm03#0000</t>
   </si>
   <si>
-    <t>qlBlackFormulaCashItmProbability2</t>
-  </si>
-  <si>
-    <t>qlBlackFormulaImpliedStdDevApproximation2</t>
-  </si>
-  <si>
-    <t>qlBlackFormulaImpliedStdDev2</t>
-  </si>
-  <si>
-    <t>qlBlackFormulaStdDevDerivative2</t>
-  </si>
-  <si>
-    <t>qlBachelierBlackFormula2</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorValue</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorDeltaForward</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorDelta</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorElasticityForward</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorElasticity</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorGammaForward</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorGamma</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorTheta</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorThetaPerDay</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorVega</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorRho</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorDividendRho</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorItmCashProbability</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorItmAssetProbability</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorStrikeSensitivity</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorAlpha</t>
-  </si>
-  <si>
-    <t>qlBlackCalculatorBeta</t>
-  </si>
-  <si>
-    <t>qlBlackCalculator2</t>
-  </si>
-  <si>
-    <t>qlBlackCalculator</t>
-  </si>
-  <si>
-    <t>qlBlackScholesCalculatorDelta</t>
-  </si>
-  <si>
-    <t>qlBlackScholesCalculatorElasticity</t>
-  </si>
-  <si>
-    <t>qlBlackScholesCalculatorGamma</t>
-  </si>
-  <si>
-    <t>qlBlackScholesCalculatorTheta</t>
-  </si>
-  <si>
-    <t>qlBlackScholesCalculatorThetaPerDay</t>
-  </si>
-  <si>
-    <t>qlBlackScholesCalculator2</t>
-  </si>
-  <si>
-    <t>qlBlackScholesCalculator</t>
-  </si>
-  <si>
-    <t>qlPricingEngine</t>
-  </si>
-  <si>
-    <t>qlDiscountingSwapEngine</t>
-  </si>
-  <si>
-    <t>qlBinomialPricingEngine</t>
-  </si>
-  <si>
-    <t>qlBlackSwaptionEngine</t>
-  </si>
-  <si>
-    <t>qlBlackSwaptionEngine2</t>
-  </si>
-  <si>
-    <t>qlBlackCapFloorEngine</t>
-  </si>
-  <si>
-    <t>qlBlackCapFloorEngine2</t>
-  </si>
-  <si>
-    <t>qlBachelierCapFloorEngine</t>
-  </si>
-  <si>
-    <t>qlBachelierCapFloorEngine2</t>
-  </si>
-  <si>
-    <t>qlAnalyticCapFloorEngine</t>
-  </si>
-  <si>
-    <t>qlBondEngine</t>
-  </si>
-  <si>
-    <t>qlJamshidianSwaptionEngine</t>
-  </si>
-  <si>
-    <t>qlTreeSwaptionEngine</t>
-  </si>
-  <si>
-    <t>qlModelG2SwaptionEngine</t>
-  </si>
-  <si>
-    <t>Processes</t>
-  </si>
-  <si>
-    <t>qlGeneralizedBlackScholesProcess</t>
-  </si>
-  <si>
-    <t>proc01#0000</t>
-  </si>
-  <si>
-    <t>Quotes</t>
-  </si>
-  <si>
-    <t>qlQuoteValue</t>
-  </si>
-  <si>
-    <t>qlQuoteIsValid</t>
-  </si>
-  <si>
-    <t>qlSimpleQuoteReset</t>
-  </si>
-  <si>
-    <t>qlSimpleQuoteSetValue</t>
-  </si>
-  <si>
-    <t>qlSimpleQuoteSetTickValue</t>
-  </si>
-  <si>
-    <t>qlSimpleQuoteTickValue</t>
-  </si>
-  <si>
-    <t>qlBucketAnalysis</t>
-  </si>
-  <si>
-    <t>qlBucketAnalysisDelta</t>
-  </si>
-  <si>
-    <t>qlBucketAnalysisDelta2</t>
-  </si>
-  <si>
-    <t>qlSimpleQuote</t>
-  </si>
-  <si>
-    <t>quote01#0000</t>
-  </si>
-  <si>
-    <t>qlForwardValueQuote</t>
-  </si>
-  <si>
-    <t>quote02#0000</t>
-  </si>
-  <si>
-    <t>qlForwardSwapQuote</t>
-  </si>
-  <si>
-    <t>quote03#0000</t>
-  </si>
-  <si>
-    <t>qlImpliedStdDevQuote</t>
-  </si>
-  <si>
-    <t>quote04#0000</t>
-  </si>
-  <si>
-    <t>qlEurodollarFuturesImpliedStdDevQuote</t>
-  </si>
-  <si>
-    <t>quote05#0000</t>
-  </si>
-  <si>
-    <t>qlCompositeQuote</t>
-  </si>
-  <si>
-    <t>quote06#0000</t>
-  </si>
-  <si>
-    <t>qlFuturesConvAdjustmentQuote</t>
-  </si>
-  <si>
-    <t>quote07#0000</t>
-  </si>
-  <si>
-    <t>qlFuturesConvAdjustmentQuoteVolatility</t>
-  </si>
-  <si>
-    <t>qlFuturesConvAdjustmentQuoteMeanReversion</t>
-  </si>
-  <si>
-    <t>qlFuturesConvAdjustmentQuoteImmDate</t>
-  </si>
-  <si>
-    <t>qlFuturesConvAdjustmentQuoteFuturesValue</t>
-  </si>
-  <si>
-    <t>qlLastFixingQuote</t>
-  </si>
-  <si>
-    <t>quote08#0000</t>
-  </si>
-  <si>
-    <t>qlLastFixingQuoteReferenceDate</t>
-  </si>
-  <si>
-    <t>qlRelinkableHandleQuote</t>
-  </si>
-  <si>
-    <t>quote09#0000</t>
-  </si>
-  <si>
-    <t>RateHelpers</t>
-  </si>
-  <si>
-    <t>qlRateHelperEarliestDate</t>
-  </si>
-  <si>
-    <t>qlRateHelperLatestRelevantDate</t>
-  </si>
-  <si>
-    <t>qlRateHelperPillarDate</t>
-  </si>
-  <si>
-    <t>qlRateHelperMaturityDate</t>
-  </si>
-  <si>
-    <t>qlRateHelperQuoteName</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>qlRateHelperQuoteIsValid</t>
-  </si>
-  <si>
-    <t>qlRateHelperImpliedQuote</t>
-  </si>
-  <si>
-    <t>qlRateHelperQuoteError</t>
-  </si>
-  <si>
-    <t>qlDepositRateHelper</t>
-  </si>
-  <si>
-    <t>rh01#0000</t>
-  </si>
-  <si>
-    <t>qlDepositRateHelper2</t>
-  </si>
-  <si>
-    <t>rh02#0000</t>
-  </si>
-  <si>
-    <t>qlSwapRateHelper</t>
-  </si>
-  <si>
-    <t>rh03#0000</t>
-  </si>
-  <si>
-    <t>qlSwapRateHelper2</t>
-  </si>
-  <si>
-    <t>rh04#0000</t>
-  </si>
-  <si>
-    <t>qlSwapRateHelperSpread</t>
-  </si>
-  <si>
-    <t>qlOISRateHelper</t>
-  </si>
-  <si>
-    <t>rh05#0000</t>
-  </si>
-  <si>
-    <t>qlDatedOISRateHelper</t>
-  </si>
-  <si>
-    <t>rh06#0000</t>
-  </si>
-  <si>
-    <t>qlFraRateHelper</t>
-  </si>
-  <si>
-    <t>rh07#0000</t>
-  </si>
-  <si>
-    <t>qlFraRateHelper2</t>
-  </si>
-  <si>
-    <t>rh08#0000</t>
-  </si>
-  <si>
-    <t>qlBondHelper</t>
-  </si>
-  <si>
-    <t>rh09#0000</t>
-  </si>
-  <si>
-    <t>qlFixedRateBondHelper</t>
-  </si>
-  <si>
-    <t>rh10#0000</t>
-  </si>
-  <si>
-    <t>qlFuturesRateHelperConvexityAdjustment</t>
-  </si>
-  <si>
-    <t>qlFuturesRateHelper</t>
-  </si>
-  <si>
-    <t>rh11#0000</t>
-  </si>
-  <si>
-    <t>qlFuturesRateHelper2</t>
-  </si>
-  <si>
-    <t>rh12#0000</t>
-  </si>
-  <si>
-    <t>qlFuturesRateHelper3</t>
-  </si>
-  <si>
-    <t>rh13#0000</t>
-  </si>
-  <si>
-    <t>qlFxSwapRateHelper</t>
-  </si>
-  <si>
-    <t>rh14#0000</t>
-  </si>
-  <si>
-    <t>qlFxSwapRateHelperSpotValue</t>
-  </si>
-  <si>
-    <t>qlFxSwapRateHelperTenor</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>qlFxSwapRateHelperFixingDays</t>
-  </si>
-  <si>
-    <t>qlFxSwapRateHelperCalendar</t>
-  </si>
-  <si>
-    <t>qlFxSwapRateHelperBDC</t>
-  </si>
-  <si>
-    <t>qlFxSwapRateHelperEOM</t>
-  </si>
-  <si>
-    <t>qlFxSwapRateHelperIsBaseCurrencyCollateralCurrency</t>
-  </si>
-  <si>
-    <t>qlRateHelperSelection</t>
-  </si>
-  <si>
-    <t>obj_0000e</t>
-  </si>
-  <si>
-    <t>obj_00041</t>
-  </si>
-  <si>
-    <t>qlRateHelperRate</t>
-  </si>
-  <si>
-    <t>Schedules</t>
-  </si>
-  <si>
-    <t>qlScheduleSize</t>
-  </si>
-  <si>
-    <t>qlSchedulePreviousDate</t>
-  </si>
-  <si>
-    <t>qlScheduleNextDate</t>
-  </si>
-  <si>
-    <t>qlScheduleDates</t>
-  </si>
-  <si>
-    <t>qlScheduleIsRegular</t>
-  </si>
-  <si>
-    <t>qlScheduleEmpty</t>
-  </si>
-  <si>
-    <t>qlScheduleCalendar</t>
-  </si>
-  <si>
-    <t>qlScheduleStartDate</t>
-  </si>
-  <si>
-    <t>qlScheduleEndDate</t>
-  </si>
-  <si>
-    <t>qlScheduleTenor</t>
-  </si>
-  <si>
-    <t>qlScheduleBDC</t>
-  </si>
-  <si>
-    <t>qlScheduleTerminationDateBDC</t>
-  </si>
-  <si>
-    <t>qlScheduleRule</t>
-  </si>
-  <si>
-    <t>Backward</t>
-  </si>
-  <si>
-    <t>qlScheduleEndOfMonth</t>
-  </si>
-  <si>
-    <t>qlSchedule</t>
-  </si>
-  <si>
-    <t>sched01#0000</t>
-  </si>
-  <si>
-    <t>qlScheduleFromDateVector</t>
-  </si>
-  <si>
-    <t>sched02#0000</t>
-  </si>
-  <si>
-    <t>qlScheduleTruncated</t>
-  </si>
-  <si>
-    <t>sched03#0000</t>
-  </si>
-  <si>
-    <t>ShortRateModels</t>
-  </si>
-  <si>
-    <t>qlHullWhite</t>
-  </si>
-  <si>
-    <t>qlVasicek</t>
-  </si>
-  <si>
-    <t>qlFuturesConvexityBias</t>
-  </si>
-  <si>
-    <t>qlVasicekA</t>
-  </si>
-  <si>
-    <t>qlVasicekB</t>
-  </si>
-  <si>
-    <t>qlVasicekLambda</t>
-  </si>
-  <si>
-    <t>qlVasicekSigma</t>
-  </si>
-  <si>
-    <t>qlModelG2</t>
-  </si>
-  <si>
     <t>qlModelG2A</t>
   </si>
   <si>
@@ -1316,6 +1439,171 @@
   </si>
   <si>
     <t>qlModelG2rho</t>
+  </si>
+  <si>
+    <t>SmileSection</t>
+  </si>
+  <si>
+    <t>qlSmileSectionVolatility</t>
+  </si>
+  <si>
+    <t>qlSmileSectionVariance</t>
+  </si>
+  <si>
+    <t>qlSmileSectionAtmLevel</t>
+  </si>
+  <si>
+    <t>qlSmileSectionExerciseDate</t>
+  </si>
+  <si>
+    <t>qlSmileSectionDayCounter</t>
+  </si>
+  <si>
+    <t>qlFlatSmileSection</t>
+  </si>
+  <si>
+    <t>ss01#0000</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSection</t>
+  </si>
+  <si>
+    <t>ss02#0000</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSection1</t>
+  </si>
+  <si>
+    <t>ss03#0000</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSectionAlpha</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSectionBeta</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSectionNu</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSectionRho</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSectionError</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSectionMaxError</t>
+  </si>
+  <si>
+    <t>qlSabrInterpolatedSmileSectionEndCriteria</t>
+  </si>
+  <si>
+    <t>qlSabrSmileSection</t>
+  </si>
+  <si>
+    <t>ss04#0000</t>
+  </si>
+  <si>
+    <t>qlInterpolatedSmileSection</t>
+  </si>
+  <si>
+    <t>qlSmileSectionFromSabrVolSurface</t>
+  </si>
+  <si>
+    <t>SwaptionVolatility</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSVolatility</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSVolatility2</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSBlackVariance</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSBlackVariance2</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSMaxSwapTenor</t>
+  </si>
+  <si>
+    <t>100Y</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSBusinessDayConvention</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSOptionDateFromTenor</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSSwapLength</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSSwapLength2</t>
+  </si>
+  <si>
+    <t>qlRelinkableHandleSwaptionVolatilityStructure</t>
+  </si>
+  <si>
+    <t>sv01#0000</t>
+  </si>
+  <si>
+    <t>qlConstantSwaptionVolatility</t>
+  </si>
+  <si>
+    <t>sv02#0000</t>
+  </si>
+  <si>
+    <t>qlSpreadedSwaptionVolatility</t>
+  </si>
+  <si>
+    <t>sv03#0000</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSMatrix</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSMatrixOptionDates</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSMatrixOptionTenors</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSMatrixSwapTenors</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSMatrixLocate</t>
+  </si>
+  <si>
+    <t>qlSwaptionVolCube2</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSatmStrike</t>
+  </si>
+  <si>
+    <t>qlSwaptionVTSatmStrike2</t>
+  </si>
+  <si>
+    <t>qlSwaptionVolCube1</t>
+  </si>
+  <si>
+    <t>qlSparseSabrParameters</t>
+  </si>
+  <si>
+    <t>qlDenseSabrParameters</t>
+  </si>
+  <si>
+    <t>qlMarketVolCube</t>
+  </si>
+  <si>
+    <t>qlVolCubeAtmCalibrated</t>
+  </si>
+  <si>
+    <t>qlSmileSectionByCube</t>
+  </si>
+  <si>
+    <t>qlSmileSectionByCube2</t>
   </si>
   <si>
     <t>TermStructures</t>
@@ -1577,6 +1865,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1614,7 +1905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1624,6 +1915,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1927,9 +2220,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1989,57 +2282,72 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>475</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -2048,6 +2356,181 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42676</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42646</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E6" s="7">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8">
+        <v>-47.519444444444446</v>
+      </c>
+      <c r="C8">
+        <v>-47.43611111111111</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E8">
+        <v>-47.43611111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="7">
+        <v>25569</v>
+      </c>
+      <c r="C9" s="7">
+        <v>25569</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="7">
+        <v>25569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
@@ -2093,10 +2576,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
+        <v>270</v>
+      </c>
+      <c r="B3">
+        <v>0.38292492254802624</v>
       </c>
       <c r="C3" t="e">
         <v>#NAME?</v>
@@ -2111,16 +2594,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" t="s">
-        <v>251</v>
+        <v>271</v>
+      </c>
+      <c r="B4">
+        <v>0.30853753872598688</v>
       </c>
       <c r="C4" t="e">
         <v>#NAME?</v>
       </c>
       <c r="D4" s="3" t="e">
-        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D55" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>#NAME?</v>
       </c>
       <c r="E4" t="e">
@@ -2129,10 +2612,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B5">
-        <v>2.6897035576518178E-3</v>
+        <v>2.5066282746310002</v>
       </c>
       <c r="C5" t="e">
         <v>#NAME?</v>
@@ -2147,10 +2630,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="e">
         <v>#NAME?</v>
@@ -2165,10 +2648,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B7">
-        <v>0.05</v>
+        <v>0.35206532676429952</v>
       </c>
       <c r="C7" t="e">
         <v>#NAME?</v>
@@ -2183,10 +2666,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.3989422804014327</v>
       </c>
       <c r="C8" t="e">
         <v>#NAME?</v>
@@ -2201,10 +2684,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>2.5066282746309976</v>
       </c>
       <c r="C9" t="e">
         <v>#NAME?</v>
@@ -2219,274 +2702,830 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>277</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>278</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12">
-        <v>0.01</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>279</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>280</v>
+      </c>
+      <c r="B13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14">
-        <v>0.01</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>281</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15">
-        <v>-0.75</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>282</v>
+      </c>
+      <c r="B15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="B16">
+        <v>0.38292492254802624</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="B17">
+        <v>0.69146246127401323</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="B18">
+        <v>0.69146246127401323</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="B19">
+        <v>1.8057389857858896</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="B20">
+        <v>1.8057389857858896</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="B21">
+        <v>0.35206532676429947</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="B22">
+        <v>0.35206532676429947</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="B23">
+        <v>-0.17603266338214973</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="B24">
+        <v>-4.8228126954013624E-4</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="B25">
+        <v>0.35206532676429952</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="B26">
+        <v>0.30853753872598699</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="B27">
+        <v>-0.69146246127401323</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="B28">
+        <v>0.30853753872598688</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D28" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <v>0.69146246127401312</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D29" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="B30">
+        <v>-0.30853753872598688</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="B31">
+        <v>0.69146246127401312</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D31" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="B32">
+        <v>-0.30853753872598688</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D32" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="B33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="B34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="B35">
+        <v>0.69146246127401323</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="B36">
+        <v>1.8057389857858896</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D36" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="B37">
+        <v>0.35206532676429947</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D37" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="B38">
+        <v>-0.17603266338214973</v>
+      </c>
+      <c r="C38" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D38" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="B39">
+        <v>-4.8228126954013624E-4</v>
+      </c>
+      <c r="C39" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D39" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="B40" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D40" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="B41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D41" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D42" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E42" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="B43" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D43" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="B44" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D44" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="B45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C45" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D45" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="B46" t="s">
+        <v>322</v>
+      </c>
+      <c r="C46" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D46" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D47" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="B48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D48" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E48" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="B49" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D49" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="B50" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D50" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="B51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D51" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="B52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D52" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="B53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D53" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="B54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C54" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D54" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E54" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>303</v>
+        <v>339</v>
+      </c>
+      <c r="B55" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D55" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2540,20 +3579,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +3600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2607,7 +3646,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -2625,7 +3664,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2643,7 +3682,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2661,7 +3700,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2679,7 +3718,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2697,7 +3736,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -2715,7 +3754,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2724,7 +3763,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2733,7 +3772,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2742,133 +3781,133 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C16" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -2886,7 +3925,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -2904,7 +3943,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -2922,7 +3961,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -2940,25 +3979,25 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -2976,20 +4015,20 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2997,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -3043,7 +4082,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="B3">
         <v>42678</v>
@@ -3061,7 +4100,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="B4">
         <v>42681</v>
@@ -3079,7 +4118,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="B5">
         <v>42681</v>
@@ -3097,37 +4136,37 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="5">
+        <v>381</v>
+      </c>
+      <c r="B6" s="7">
         <v>42681</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>42649</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>42649</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3145,25 +4184,25 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="5" t="e">
+        <v>385</v>
+      </c>
+      <c r="B9" s="7" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="C9" s="5" t="e">
+      <c r="C9" s="7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="D9" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="E9" s="5" t="e">
+      <c r="E9" s="7" t="e">
         <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -3181,79 +4220,79 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="B11" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="C14" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3271,82 +4310,82 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="B17" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="C18" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="C20" t="e">
         <v>#NAME?</v>
@@ -3361,10 +4400,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="C21" t="e">
         <v>#NAME?</v>
@@ -3379,7 +4418,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3397,79 +4436,79 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="B23" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="C23" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="B26" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="C26" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3487,25 +4526,25 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="C28" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E28" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3523,7 +4562,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -3541,7 +4580,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
         <v>162</v>
@@ -3559,7 +4598,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -3577,7 +4616,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -3595,25 +4634,25 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="C34" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E34" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3634,7 +4673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3680,7 +4719,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3698,25 +4737,25 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B4" s="5">
+        <v>431</v>
+      </c>
+      <c r="B4" s="7">
         <v>25573</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>25573</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>25573</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3734,25 +4773,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B6" s="5">
+        <v>433</v>
+      </c>
+      <c r="B6" s="7">
         <v>25570</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>25570</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>25570</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3770,7 +4809,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -3788,61 +4827,61 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B10" s="5">
+        <v>437</v>
+      </c>
+      <c r="B10" s="7">
         <v>25570</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <v>25570</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>25570</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="5">
+        <v>438</v>
+      </c>
+      <c r="B11" s="7">
         <v>25573</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>25573</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>25573</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -3860,7 +4899,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
         <v>162</v>
@@ -3878,7 +4917,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s">
         <v>162</v>
@@ -3896,92 +4935,92 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="C15" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="C17" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="C18" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="C19" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3989,7 +5028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -4035,43 +5074,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>453</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>455</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>455</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="B5">
         <v>2.6897035576518178E-3</v>
@@ -4089,7 +5128,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -4107,7 +5146,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -4125,7 +5164,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4143,7 +5182,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -4161,25 +5200,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -4197,7 +5236,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -4215,7 +5254,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -4233,7 +5272,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="B14">
         <v>0.01</v>
@@ -4251,7 +5290,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="B15">
         <v>-0.75</v>
@@ -4272,7 +5311,915 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D20" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42645</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42645</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" s="7">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>482</v>
+      </c>
+      <c r="B13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>489</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>490</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="3" t="e">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <f t="shared" ref="D4:D29" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6">
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42678</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>511</v>
+      </c>
+      <c r="B18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>514</v>
+      </c>
+      <c r="B21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>516</v>
+      </c>
+      <c r="B23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>521</v>
+      </c>
+      <c r="B28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D28" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>522</v>
+      </c>
+      <c r="B29" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D29" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -4318,25 +6265,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>525</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>525</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>526</v>
       </c>
       <c r="B4">
         <v>42738</v>
@@ -4354,7 +6301,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>527</v>
       </c>
       <c r="B5">
         <v>42736</v>
@@ -4372,7 +6319,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>528</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4390,7 +6337,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>529</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -4408,7 +6355,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>530</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4426,7 +6373,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>531</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4444,7 +6391,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>532</v>
       </c>
       <c r="B10">
         <v>-180</v>
@@ -4462,7 +6409,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>533</v>
       </c>
       <c r="B11">
         <v>-180</v>
@@ -4480,7 +6427,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>534</v>
       </c>
       <c r="B12">
         <v>-252.99872090438052</v>
@@ -4498,151 +6445,151 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>535</v>
       </c>
       <c r="B13" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>537</v>
       </c>
       <c r="B14" t="s">
-        <v>443</v>
+        <v>538</v>
       </c>
       <c r="C14" t="s">
-        <v>443</v>
+        <v>538</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s">
-        <v>445</v>
+        <v>540</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>540</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>541</v>
       </c>
       <c r="B16" t="s">
-        <v>447</v>
+        <v>542</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>542</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s">
-        <v>449</v>
+        <v>544</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>544</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>545</v>
       </c>
       <c r="B18" t="s">
-        <v>451</v>
+        <v>546</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>546</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>453</v>
+        <v>548</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>453</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>549</v>
       </c>
       <c r="B20" t="s">
-        <v>455</v>
+        <v>550</v>
       </c>
       <c r="C20" t="s">
-        <v>455</v>
+        <v>550</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>551</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4660,7 +6607,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>552</v>
       </c>
       <c r="B22">
         <v>42736</v>
@@ -4678,7 +6625,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>553</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4696,7 +6643,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>554</v>
       </c>
       <c r="B24">
         <v>8.3333333333333332E-3</v>
@@ -4714,7 +6661,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>555</v>
       </c>
       <c r="B25">
         <v>42739</v>
@@ -4728,945 +6675,6 @@
       </c>
       <c r="E25">
         <v>42739</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B4">
-        <v>25569</v>
-      </c>
-      <c r="C4">
-        <v>25569</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D11" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E4">
-        <v>25569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B5">
-        <v>25571</v>
-      </c>
-      <c r="C5">
-        <v>25571</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>25571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B8">
-        <v>25569</v>
-      </c>
-      <c r="C8">
-        <v>25569</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8">
-        <v>25569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>469</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>470</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B3">
-        <v>23.948673390030997</v>
-      </c>
-      <c r="C3">
-        <v>23.948673390030997</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3">
-        <v>23.948673390030997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D36" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B5">
-        <v>42648</v>
-      </c>
-      <c r="C5">
-        <v>42648</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>42648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B6">
-        <v>-1.7976931348623157E+308</v>
-      </c>
-      <c r="C6">
-        <v>-1.7976931348623157E+308</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6">
-        <v>-1.7976931348623157E+308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B7">
-        <v>1.7976931348623157E+308</v>
-      </c>
-      <c r="C7">
-        <v>1.7976931348623157E+308</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7">
-        <v>1.7976931348623157E+308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>482</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>483</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B10">
-        <v>3.3161907871456142</v>
-      </c>
-      <c r="C10">
-        <v>3.3161907871456142</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10">
-        <v>3.3161907871456142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>486</v>
-      </c>
-      <c r="B12">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="C12">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12">
-        <v>2.7777777777777779E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13">
-        <v>0.10997121336749448</v>
-      </c>
-      <c r="C13">
-        <v>0.10997121336749448</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13">
-        <v>0.10997121336749448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>488</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B15">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="C15">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15">
-        <v>2.7777777777777779E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16">
-        <v>1.0000000000000011</v>
-      </c>
-      <c r="C16">
-        <v>1.0000000000000011</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16">
-        <v>1.0000000000000011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>491</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>492</v>
-      </c>
-      <c r="B18" t="s">
-        <v>493</v>
-      </c>
-      <c r="C18" t="s">
-        <v>493</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>494</v>
-      </c>
-      <c r="B19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>495</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>496</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>497</v>
-      </c>
-      <c r="B22">
-        <v>42648</v>
-      </c>
-      <c r="C22">
-        <v>42648</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E22">
-        <v>42648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>498</v>
-      </c>
-      <c r="B23">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="C23">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E23">
-        <v>2.7777777777777779E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24">
-        <v>0.16276967485704383</v>
-      </c>
-      <c r="C24">
-        <v>0.16276901888733139</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E24">
-        <v>0.16276901888733139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>500</v>
-      </c>
-      <c r="B25">
-        <v>0.20543416674806414</v>
-      </c>
-      <c r="C25">
-        <v>0.20553128316863267</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E25">
-        <v>0.20553128316863267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>501</v>
-      </c>
-      <c r="B26">
-        <v>-5.6930143586703347E-4</v>
-      </c>
-      <c r="C26">
-        <v>-5.6930143586703347E-4</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E26">
-        <v>-5.6930143586703347E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>502</v>
-      </c>
-      <c r="B27">
-        <v>816.38481984485099</v>
-      </c>
-      <c r="C27">
-        <v>816.38970366714</v>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E27">
-        <v>816.38970366714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>503</v>
-      </c>
-      <c r="B28">
-        <v>55.846414299893993</v>
-      </c>
-      <c r="C28">
-        <v>55.846414299893993</v>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E28">
-        <v>55.846414299893993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>504</v>
-      </c>
-      <c r="B29">
-        <v>5.6930143586703347E-4</v>
-      </c>
-      <c r="C29">
-        <v>5.6930143586703347E-4</v>
-      </c>
-      <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E29">
-        <v>5.6930143586703347E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>505</v>
-      </c>
-      <c r="B30">
-        <v>0.85719125008922603</v>
-      </c>
-      <c r="C30" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D30" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>506</v>
-      </c>
-      <c r="B31">
-        <v>1.0562718217954301</v>
-      </c>
-      <c r="C31">
-        <v>0.85719125008922603</v>
-      </c>
-      <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E31">
-        <v>0.85719125008922603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>507</v>
-      </c>
-      <c r="B32" t="s">
-        <v>508</v>
-      </c>
-      <c r="C32" t="s">
-        <v>508</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E32" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>509</v>
-      </c>
-      <c r="B33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D33" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>510</v>
-      </c>
-      <c r="B34" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C34" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D34" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>511</v>
-      </c>
-      <c r="B35" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D35" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>512</v>
-      </c>
-      <c r="B36" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C36" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D36" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -6656,6 +7664,945 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4">
+        <v>25569</v>
+      </c>
+      <c r="C4">
+        <v>25569</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D11" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5">
+        <v>25571</v>
+      </c>
+      <c r="C5">
+        <v>25571</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>25571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8">
+        <v>25569</v>
+      </c>
+      <c r="C8">
+        <v>25569</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3">
+        <v>23.948673390030997</v>
+      </c>
+      <c r="C3">
+        <v>23.948673390030997</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>23.948673390030997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D36" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5">
+        <v>42648</v>
+      </c>
+      <c r="C5">
+        <v>42648</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6">
+        <v>-1.7976931348623157E+308</v>
+      </c>
+      <c r="C6">
+        <v>-1.7976931348623157E+308</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>-1.7976931348623157E+308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7">
+        <v>1.7976931348623157E+308</v>
+      </c>
+      <c r="C7">
+        <v>1.7976931348623157E+308</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>1.7976931348623157E+308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B10">
+        <v>3.3161907871456142</v>
+      </c>
+      <c r="C10">
+        <v>3.3161907871456142</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>3.3161907871456142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B12">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C12">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13">
+        <v>0.10997121336749448</v>
+      </c>
+      <c r="C13">
+        <v>0.10997121336749448</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>0.10997121336749448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C15">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16">
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="C16">
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B18" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>589</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>590</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>591</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>592</v>
+      </c>
+      <c r="B22">
+        <v>42648</v>
+      </c>
+      <c r="C22">
+        <v>42648</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>593</v>
+      </c>
+      <c r="B23">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C23">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>594</v>
+      </c>
+      <c r="B24">
+        <v>0.16276967485704383</v>
+      </c>
+      <c r="C24">
+        <v>0.16276901888733139</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E24">
+        <v>0.16276901888733139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>595</v>
+      </c>
+      <c r="B25">
+        <v>0.20543416674806414</v>
+      </c>
+      <c r="C25">
+        <v>0.20553128316863267</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E25">
+        <v>0.20553128316863267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B26">
+        <v>-5.6930143586703347E-4</v>
+      </c>
+      <c r="C26">
+        <v>-5.6930143586703347E-4</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E26">
+        <v>-5.6930143586703347E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>597</v>
+      </c>
+      <c r="B27">
+        <v>816.38481984485099</v>
+      </c>
+      <c r="C27">
+        <v>816.38970366714</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E27">
+        <v>816.38970366714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>598</v>
+      </c>
+      <c r="B28">
+        <v>55.846414299893993</v>
+      </c>
+      <c r="C28">
+        <v>55.846414299893993</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28">
+        <v>55.846414299893993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B29">
+        <v>5.6930143586703347E-4</v>
+      </c>
+      <c r="C29">
+        <v>5.6930143586703347E-4</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29">
+        <v>5.6930143586703347E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>600</v>
+      </c>
+      <c r="B30">
+        <v>0.85719125008922603</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>601</v>
+      </c>
+      <c r="B31">
+        <v>1.0562718217954301</v>
+      </c>
+      <c r="C31">
+        <v>0.85719125008922603</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E31">
+        <v>0.85719125008922603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>602</v>
+      </c>
+      <c r="B32" t="s">
+        <v>603</v>
+      </c>
+      <c r="C32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>604</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>605</v>
+      </c>
+      <c r="B34" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>606</v>
+      </c>
+      <c r="B35" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>607</v>
+      </c>
+      <c r="B36" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D36" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
@@ -7441,14 +9388,14 @@
         <v>25569</v>
       </c>
       <c r="C30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8739,9 +10686,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8783,77 +10732,77 @@
       <c r="A3" t="s">
         <v>212</v>
       </c>
-      <c r="B3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" t="s">
-        <v>213</v>
+      <c r="B3">
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="C3">
+        <v>0.3090169943749474</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="E3" t="s">
-        <v>213</v>
+      <c r="E3">
+        <v>0.3090169943749474</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.7870370370370366E-5</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6" t="s">
-        <v>218</v>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8871,160 +10820,146 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9" t="s">
-        <v>222</v>
+      <c r="E9" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -9034,10 +10969,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="A16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9078,79 +11013,79 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="5">
-        <v>42676</v>
-      </c>
-      <c r="C6" s="5">
-        <v>42646</v>
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E6" s="5">
-        <v>42646</v>
+        <v>PASS</v>
+      </c>
+      <c r="E6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9168,38 +11103,160 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B8">
-        <v>-47.519444444444446</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-47.43611111111111</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E8">
-        <v>-47.43611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="5">
-        <v>25569</v>
-      </c>
-      <c r="C9" s="5">
-        <v>25569</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9" s="5">
-        <v>25569</v>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -10,32 +10,33 @@
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
     <sheet name="Bonds" sheetId="2" r:id="rId2"/>
     <sheet name="Calendars" sheetId="3" r:id="rId3"/>
-    <sheet name="Date" sheetId="4" r:id="rId4"/>
-    <sheet name="DayCounters" sheetId="5" r:id="rId5"/>
-    <sheet name="Index" sheetId="6" r:id="rId6"/>
-    <sheet name="Math" sheetId="7" r:id="rId7"/>
-    <sheet name="Optimization" sheetId="8" r:id="rId8"/>
-    <sheet name="Payoffs" sheetId="9" r:id="rId9"/>
-    <sheet name="PiecewiseYieldCurve" sheetId="10" r:id="rId10"/>
-    <sheet name="PricingEngines" sheetId="11" r:id="rId11"/>
-    <sheet name="Processes" sheetId="12" r:id="rId12"/>
-    <sheet name="Quotes" sheetId="13" r:id="rId13"/>
-    <sheet name="RateHelpers" sheetId="14" r:id="rId14"/>
-    <sheet name="Schedules" sheetId="15" r:id="rId15"/>
-    <sheet name="ShortRateModels" sheetId="16" r:id="rId16"/>
-    <sheet name="SmileSection" sheetId="17" r:id="rId17"/>
-    <sheet name="SwaptionVolatility" sheetId="18" r:id="rId18"/>
-    <sheet name="TermStructures" sheetId="19" r:id="rId19"/>
-    <sheet name="TimeSeries" sheetId="20" r:id="rId20"/>
-    <sheet name="Utilities" sheetId="21" r:id="rId21"/>
-    <sheet name="Volatilities" sheetId="22" r:id="rId22"/>
+    <sheet name="CapletVolatility" sheetId="4" r:id="rId4"/>
+    <sheet name="Date" sheetId="5" r:id="rId5"/>
+    <sheet name="DayCounters" sheetId="6" r:id="rId6"/>
+    <sheet name="Index" sheetId="7" r:id="rId7"/>
+    <sheet name="Math" sheetId="8" r:id="rId8"/>
+    <sheet name="Optimization" sheetId="9" r:id="rId9"/>
+    <sheet name="Payoffs" sheetId="10" r:id="rId10"/>
+    <sheet name="PiecewiseYieldCurve" sheetId="11" r:id="rId11"/>
+    <sheet name="PricingEngines" sheetId="12" r:id="rId12"/>
+    <sheet name="Processes" sheetId="13" r:id="rId13"/>
+    <sheet name="Quotes" sheetId="14" r:id="rId14"/>
+    <sheet name="RateHelpers" sheetId="15" r:id="rId15"/>
+    <sheet name="Schedules" sheetId="16" r:id="rId16"/>
+    <sheet name="ShortRateModels" sheetId="17" r:id="rId17"/>
+    <sheet name="SmileSection" sheetId="18" r:id="rId18"/>
+    <sheet name="SwaptionVolatility" sheetId="19" r:id="rId19"/>
+    <sheet name="TermStructures" sheetId="20" r:id="rId20"/>
+    <sheet name="TimeSeries" sheetId="21" r:id="rId21"/>
+    <sheet name="Utilities" sheetId="22" r:id="rId22"/>
+    <sheet name="Volatilities" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="657">
   <si>
     <t>Group</t>
   </si>
@@ -301,6 +302,162 @@
     <t>qlCalendarBusinessDaysBetween</t>
   </si>
   <si>
+    <t>CapletVolatility</t>
+  </si>
+  <si>
+    <t>qlOptionletVTSVolatility</t>
+  </si>
+  <si>
+    <t>qlOptionletVTSVolatility2</t>
+  </si>
+  <si>
+    <t>qlOptionletVTSBlackVariance</t>
+  </si>
+  <si>
+    <t>qlOptionletVTSBlackVariance2</t>
+  </si>
+  <si>
+    <t>qlRelinkableHandleOptionletVolatilityStructure</t>
+  </si>
+  <si>
+    <t>cv01#0000</t>
+  </si>
+  <si>
+    <t>qlConstantOptionletVolatility</t>
+  </si>
+  <si>
+    <t>cv02#0000</t>
+  </si>
+  <si>
+    <t>qlSpreadedOptionletVolatility</t>
+  </si>
+  <si>
+    <t>cv03#0000</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletAdapter</t>
+  </si>
+  <si>
+    <t>cv04#0000</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionlet</t>
+  </si>
+  <si>
+    <t>cv05#0000</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseStrikes</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseOptionletVolatilities</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseOptionletFixingDates</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseOptionletFixingTimes</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseAtmOptionletRates</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseDayCounter</t>
+  </si>
+  <si>
+    <t>Actual/360</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseCalendar</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseSettlementDays</t>
+  </si>
+  <si>
+    <t>qlStrippedOptionletBaseBusinessDayConvention</t>
+  </si>
+  <si>
+    <t>Modified Following</t>
+  </si>
+  <si>
+    <t>qlOptionletStripperOptionletFixingTenors</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>qlOptionletStripperOptionletPaymentDates</t>
+  </si>
+  <si>
+    <t>qlOptionletStripperOptionletAccrualPeriods</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper1CapFloorPrices</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper1CapFloorVolatilities</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper1OptionletPrices</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper1SwitchStrike</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper1</t>
+  </si>
+  <si>
+    <t>cv06#0000</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper2SpreadsVol</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper2AtmCapFloorPrices</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper2AtmCapFloorStrikes</t>
+  </si>
+  <si>
+    <t>qlOptionletStripper2</t>
+  </si>
+  <si>
+    <t>cv07#0000</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVTSVolatility</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVTSVolatility2</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVolCurveOptionTenors</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVolCurveOptionDates</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVolCurve</t>
+  </si>
+  <si>
+    <t>cv08#0000</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVolSurfaceOptionTenors</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVolSurfaceOptionDates</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVolSurfaceStrikes</t>
+  </si>
+  <si>
+    <t>qlCapFloorTermVolSurface</t>
+  </si>
+  <si>
+    <t>cv09#0000</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -454,9 +611,6 @@
     <t>qlDayCounterName</t>
   </si>
   <si>
-    <t>Actual/360</t>
-  </si>
-  <si>
     <t>qlDayCounterDayCount</t>
   </si>
   <si>
@@ -499,9 +653,6 @@
     <t>qlInterestRateIndexTenor</t>
   </si>
   <si>
-    <t>1Y</t>
-  </si>
-  <si>
     <t>qlInterestRateIndexFixingDays</t>
   </si>
   <si>
@@ -523,9 +674,6 @@
     <t>qlIborIndexBusinessDayConv</t>
   </si>
   <si>
-    <t>Modified Following</t>
-  </si>
-  <si>
     <t>qlIborIndexEndOfMonth</t>
   </si>
   <si>
@@ -1318,7 +1466,7 @@
     <t>obj_0000e</t>
   </si>
   <si>
-    <t>obj_0004f</t>
+    <t>obj_0006d</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
@@ -1914,9 +2062,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -2220,7 +2368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2262,92 +2410,97 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>570</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -2356,6 +2509,303 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2401,43 +2851,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2455,7 +2905,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="B6" s="7">
         <v>42676</v>
@@ -2473,7 +2923,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2491,7 +2941,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="B8">
         <v>-47.519444444444446</v>
@@ -2509,7 +2959,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="B9" s="7">
         <v>25569</v>
@@ -2530,7 +2980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
@@ -2576,133 +3026,133 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="B3">
         <v>0.38292492254802624</v>
       </c>
-      <c r="C3" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D3" s="3" t="e">
+      <c r="C3">
+        <v>0.38292492254802624</v>
+      </c>
+      <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NAME?</v>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>0.38292492254802624</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>0.30853753872598688</v>
       </c>
-      <c r="C4" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="3" t="e">
+      <c r="C4">
+        <v>0.30853753872598688</v>
+      </c>
+      <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D55" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NAME?</v>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>0.30853753872598688</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="B5">
         <v>2.5066282746310002</v>
       </c>
-      <c r="C5" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NAME?</v>
+      <c r="C5">
+        <v>2.5066282746310002</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>2.5066282746310002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NAME?</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="B7">
         <v>0.35206532676429952</v>
       </c>
-      <c r="C7" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NAME?</v>
+      <c r="C7">
+        <v>0.35206532676429952</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>0.35206532676429952</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="B8">
         <v>0.3989422804014327</v>
       </c>
-      <c r="C8" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NAME?</v>
+      <c r="C8">
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0.3989422804014327</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="B9">
         <v>2.5066282746309976</v>
       </c>
-      <c r="C9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NAME?</v>
+      <c r="C9">
+        <v>2.5066282746309976</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>2.5066282746309976</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -2720,7 +3170,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -2738,794 +3188,794 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="C12" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D12" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E12" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="C13" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D13" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E13" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
       </c>
       <c r="C14" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D14" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E14" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
       </c>
       <c r="C15" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D15" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E15" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="B16">
         <v>0.38292492254802624</v>
       </c>
-      <c r="C16" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#NAME?</v>
+      <c r="C16">
+        <v>0.38292492254802624</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>0.38292492254802624</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="B17">
         <v>0.69146246127401323</v>
       </c>
-      <c r="C17" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#NAME?</v>
+      <c r="C17">
+        <v>0.69146246127401323</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>0.69146246127401323</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="B18">
         <v>0.69146246127401323</v>
       </c>
-      <c r="C18" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#NAME?</v>
+      <c r="C18">
+        <v>0.69146246127401323</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18">
+        <v>0.69146246127401323</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="B19">
         <v>1.8057389857858896</v>
       </c>
-      <c r="C19" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#NAME?</v>
+      <c r="C19">
+        <v>1.8057389857858896</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19">
+        <v>1.8057389857858896</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="B20">
         <v>1.8057389857858896</v>
       </c>
-      <c r="C20" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NAME?</v>
+      <c r="C20">
+        <v>1.8057389857858896</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20">
+        <v>1.8057389857858896</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B21">
         <v>0.35206532676429947</v>
       </c>
-      <c r="C21" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#NAME?</v>
+      <c r="C21">
+        <v>0.35206532676429947</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>0.35206532676429947</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B22">
         <v>0.35206532676429947</v>
       </c>
-      <c r="C22" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D22" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#NAME?</v>
+      <c r="C22">
+        <v>0.35206532676429947</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>0.35206532676429947</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B23">
         <v>-0.17603266338214973</v>
       </c>
-      <c r="C23" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D23" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#NAME?</v>
+      <c r="C23">
+        <v>-0.17603266338214973</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>-0.17603266338214973</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B24">
         <v>-4.8228126954013624E-4</v>
       </c>
-      <c r="C24" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D24" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#NAME?</v>
+      <c r="C24">
+        <v>-4.8228126954013624E-4</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24">
+        <v>-4.8228126954013624E-4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B25">
         <v>0.35206532676429952</v>
       </c>
-      <c r="C25" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D25" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#NAME?</v>
+      <c r="C25">
+        <v>0.35206532676429952</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25">
+        <v>0.35206532676429952</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="B26">
         <v>0.30853753872598699</v>
       </c>
-      <c r="C26" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D26" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#NAME?</v>
+      <c r="C26">
+        <v>0.30853753872598699</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E26">
+        <v>0.30853753872598699</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B27">
         <v>-0.69146246127401323</v>
       </c>
-      <c r="C27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D27" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#NAME?</v>
+      <c r="C27">
+        <v>-0.69146246127401323</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E27">
+        <v>-0.69146246127401323</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="B28">
         <v>0.30853753872598688</v>
       </c>
-      <c r="C28" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D28" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#NAME?</v>
+      <c r="C28">
+        <v>0.30853753872598688</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28">
+        <v>0.30853753872598688</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="B29">
         <v>0.69146246127401312</v>
       </c>
-      <c r="C29" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D29" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#NAME?</v>
+      <c r="C29">
+        <v>0.69146246127401312</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29">
+        <v>0.69146246127401312</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="B30">
         <v>-0.30853753872598688</v>
       </c>
-      <c r="C30" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D30" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#NAME?</v>
+      <c r="C30">
+        <v>-0.30853753872598688</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E30">
+        <v>-0.30853753872598688</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="B31">
         <v>0.69146246127401312</v>
       </c>
-      <c r="C31" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D31" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E31" t="e">
-        <v>#NAME?</v>
+      <c r="C31">
+        <v>0.69146246127401312</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E31">
+        <v>0.69146246127401312</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="B32">
         <v>-0.30853753872598688</v>
       </c>
-      <c r="C32" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D32" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#NAME?</v>
+      <c r="C32">
+        <v>-0.30853753872598688</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32">
+        <v>-0.30853753872598688</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D33" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#NAME?</v>
+        <v>350</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E33" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D34" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#NAME?</v>
+        <v>352</v>
+      </c>
+      <c r="C34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E34" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="B35">
         <v>0.69146246127401323</v>
       </c>
-      <c r="C35" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D35" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#NAME?</v>
+      <c r="C35">
+        <v>0.69146246127401323</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E35">
+        <v>0.69146246127401323</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="B36">
         <v>1.8057389857858896</v>
       </c>
-      <c r="C36" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D36" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#NAME?</v>
+      <c r="C36">
+        <v>1.8057389857858896</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E36">
+        <v>1.8057389857858896</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="B37">
         <v>0.35206532676429947</v>
       </c>
-      <c r="C37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D37" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E37" t="e">
-        <v>#NAME?</v>
+      <c r="C37">
+        <v>0.35206532676429947</v>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E37">
+        <v>0.35206532676429947</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="B38">
         <v>-0.17603266338214973</v>
       </c>
-      <c r="C38" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D38" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E38" t="e">
-        <v>#NAME?</v>
+      <c r="C38">
+        <v>-0.17603266338214973</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E38">
+        <v>-0.17603266338214973</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="B39">
         <v>-4.8228126954013624E-4</v>
       </c>
-      <c r="C39" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D39" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E39" t="e">
-        <v>#NAME?</v>
+      <c r="C39">
+        <v>-4.8228126954013624E-4</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E39">
+        <v>-4.8228126954013624E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D40" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E40" t="e">
-        <v>#NAME?</v>
+        <v>359</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E40" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
-      </c>
-      <c r="C41" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D41" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#NAME?</v>
+        <v>361</v>
+      </c>
+      <c r="C41" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E41" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s">
-        <v>314</v>
-      </c>
-      <c r="C42" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D42" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E42" t="e">
-        <v>#NAME?</v>
+        <v>363</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E42" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
-      </c>
-      <c r="C43" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D43" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#NAME?</v>
+        <v>365</v>
+      </c>
+      <c r="C43" t="s">
+        <v>365</v>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E43" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s">
-        <v>318</v>
-      </c>
-      <c r="C44" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D44" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E44" t="e">
-        <v>#NAME?</v>
+        <v>367</v>
+      </c>
+      <c r="C44" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E44" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
-      </c>
-      <c r="C45" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D45" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E45" t="e">
-        <v>#NAME?</v>
+        <v>369</v>
+      </c>
+      <c r="C45" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E45" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
-      </c>
-      <c r="C46" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D46" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E46" t="e">
-        <v>#NAME?</v>
+        <v>371</v>
+      </c>
+      <c r="C46" t="s">
+        <v>371</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E46" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D47" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E47" t="e">
-        <v>#NAME?</v>
+        <v>373</v>
+      </c>
+      <c r="C47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E47" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D48" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E48" t="e">
-        <v>#NAME?</v>
+        <v>375</v>
+      </c>
+      <c r="C48" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E48" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
-      </c>
-      <c r="C49" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D49" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E49" t="e">
-        <v>#NAME?</v>
+        <v>377</v>
+      </c>
+      <c r="C49" t="s">
+        <v>377</v>
+      </c>
+      <c r="D49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E49" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
-      </c>
-      <c r="C50" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D50" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E50" t="e">
-        <v>#NAME?</v>
+        <v>379</v>
+      </c>
+      <c r="C50" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E50" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
-      </c>
-      <c r="C51" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D51" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E51" t="e">
-        <v>#NAME?</v>
+        <v>381</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
+      <c r="D51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E51" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s">
-        <v>334</v>
-      </c>
-      <c r="C52" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D52" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E52" t="e">
-        <v>#NAME?</v>
+        <v>383</v>
+      </c>
+      <c r="C52" t="s">
+        <v>383</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E52" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C53" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D53" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E53" t="e">
-        <v>#NAME?</v>
+        <v>385</v>
+      </c>
+      <c r="C53" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E53" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s">
-        <v>338</v>
-      </c>
-      <c r="C54" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D54" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#NAME?</v>
+        <v>387</v>
+      </c>
+      <c r="C54" t="s">
+        <v>387</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E54" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
-      </c>
-      <c r="C55" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D55" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E55" t="e">
-        <v>#NAME?</v>
+        <v>389</v>
+      </c>
+      <c r="C55" t="s">
+        <v>389</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E55" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3533,7 +3983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3579,20 +4029,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3646,7 +4096,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -3664,7 +4114,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3682,7 +4132,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3700,7 +4150,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3718,7 +4168,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3736,7 +4186,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -3754,7 +4204,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3763,7 +4213,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3772,7 +4222,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3781,133 +4231,133 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="C15" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -3925,7 +4375,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -3943,7 +4393,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -3961,7 +4411,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -3979,25 +4429,25 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="B23" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="C23" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -4015,20 +4465,20 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4036,7 +4486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -4082,7 +4532,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="B3">
         <v>42678</v>
@@ -4100,7 +4550,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="B4">
         <v>42681</v>
@@ -4118,7 +4568,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="B5">
         <v>42681</v>
@@ -4136,7 +4586,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="B6" s="7">
         <v>42681</v>
@@ -4154,19 +4604,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4184,7 +4634,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="B9" s="7" t="e">
         <v>#NUM!</v>
@@ -4202,7 +4652,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -4220,79 +4670,79 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4310,82 +4760,82 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="C20" t="e">
         <v>#NAME?</v>
@@ -4400,10 +4850,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="C21" t="e">
         <v>#NAME?</v>
@@ -4418,7 +4868,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4436,79 +4886,79 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="B23" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="C23" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="C24" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="B25" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="C25" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="B26" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4526,25 +4976,25 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="B28" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="C28" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -4562,7 +5012,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -4580,25 +5030,25 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -4616,7 +5066,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -4634,25 +5084,25 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="B34" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="C34" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E34" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4673,7 +5123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4719,7 +5169,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4737,7 +5187,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="B4" s="7">
         <v>25573</v>
@@ -4755,7 +5205,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4773,7 +5223,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="B6" s="7">
         <v>25570</v>
@@ -4791,7 +5241,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4809,7 +5259,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -4827,7 +5277,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -4845,7 +5295,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="B10" s="7">
         <v>25570</v>
@@ -4863,7 +5313,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="B11" s="7">
         <v>25573</v>
@@ -4881,79 +5331,79 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="C15" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -4971,56 +5421,56 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="B19" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="C19" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -5028,7 +5478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -5074,43 +5524,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="B5">
         <v>2.6897035576518178E-3</v>
@@ -5128,7 +5578,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -5146,7 +5596,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -5164,7 +5614,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5182,7 +5632,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -5200,25 +5650,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -5236,7 +5686,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -5254,7 +5704,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -5272,7 +5722,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="B14">
         <v>0.01</v>
@@ -5290,7 +5740,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="B15">
         <v>-0.75</v>
@@ -5311,7 +5761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -5357,7 +5807,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5375,7 +5825,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="B4">
         <v>2.7777777777777779E-3</v>
@@ -5393,7 +5843,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5411,7 +5861,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="B6" s="7">
         <v>42645</v>
@@ -5429,79 +5879,79 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E8" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="B11" s="7" t="e">
         <v>#NUM!</v>
@@ -5519,7 +5969,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -5537,7 +5987,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -5555,7 +6005,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -5573,7 +6023,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -5591,7 +6041,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -5609,7 +6059,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="B17" t="e">
         <v>#NUM!</v>
@@ -5627,25 +6077,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="C18" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -5663,7 +6113,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -5684,7 +6134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -5730,25 +6180,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D3" s="3" t="e">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NAME?</v>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5766,25 +6216,25 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="B5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C5" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NAME?</v>
+      <c r="C5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="B6">
         <v>8.611111111111111E-2</v>
@@ -5802,79 +6252,79 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NAME?</v>
+        <v>546</v>
+      </c>
+      <c r="C7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NAME?</v>
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>499</v>
-      </c>
-      <c r="B9" s="6">
+        <v>548</v>
+      </c>
+      <c r="B9" s="4">
         <v>42678</v>
       </c>
-      <c r="C9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" s="6" t="e">
-        <v>#NAME?</v>
+      <c r="C9" s="8">
+        <v>42678</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42678</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="B10">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C10" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NAME?</v>
+      <c r="C10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="B11">
         <v>8.3333333333333329E-2</v>
@@ -5892,61 +6342,61 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="B12" t="s">
-        <v>503</v>
-      </c>
-      <c r="C12" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NAME?</v>
+        <v>552</v>
+      </c>
+      <c r="C12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NAME?</v>
+        <v>554</v>
+      </c>
+      <c r="C13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="B14" t="s">
-        <v>507</v>
-      </c>
-      <c r="C14" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NAME?</v>
+        <v>556</v>
+      </c>
+      <c r="C14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="B15" t="e">
         <v>#N/A</v>
@@ -5964,7 +6414,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="B16" t="e">
         <v>#N/A</v>
@@ -5982,7 +6432,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="B17" t="e">
         <v>#N/A</v>
@@ -6000,7 +6450,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B18" t="e">
         <v>#N/A</v>
@@ -6018,7 +6468,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -6036,25 +6486,25 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
       </c>
       <c r="C20" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D20" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E20" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -6072,7 +6522,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="B22" t="e">
         <v>#N/A</v>
@@ -6090,25 +6540,25 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
       </c>
       <c r="C23" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D23" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E23" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>517</v>
+        <v>566</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
@@ -6126,7 +6576,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="B25" t="e">
         <v>#N/A</v>
@@ -6144,7 +6594,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="B26" t="e">
         <v>#N/A</v>
@@ -6162,7 +6612,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>520</v>
+        <v>569</v>
       </c>
       <c r="B27" t="e">
         <v>#N/A</v>
@@ -6180,501 +6630,38 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>521</v>
+        <v>570</v>
       </c>
       <c r="B28" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="C28" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D28" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E28" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="B29" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="C29" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D29" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E29" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4">
-        <v>42738</v>
-      </c>
-      <c r="C4">
-        <v>42738</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E4">
-        <v>42738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B5">
-        <v>42736</v>
-      </c>
-      <c r="C5">
-        <v>42736</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>532</v>
-      </c>
-      <c r="B10">
-        <v>-180</v>
-      </c>
-      <c r="C10">
-        <v>-180</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B11">
-        <v>-180</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>534</v>
-      </c>
-      <c r="B12">
-        <v>-252.99872090438052</v>
-      </c>
-      <c r="C12">
-        <v>-252.99872090438052</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12">
-        <v>-252.99872090438052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>535</v>
-      </c>
-      <c r="B13" t="s">
-        <v>536</v>
-      </c>
-      <c r="C13" t="s">
-        <v>536</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>537</v>
-      </c>
-      <c r="B14" t="s">
-        <v>538</v>
-      </c>
-      <c r="C14" t="s">
-        <v>538</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>539</v>
-      </c>
-      <c r="B15" t="s">
-        <v>540</v>
-      </c>
-      <c r="C15" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>541</v>
-      </c>
-      <c r="B16" t="s">
-        <v>542</v>
-      </c>
-      <c r="C16" t="s">
-        <v>542</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>543</v>
-      </c>
-      <c r="B17" t="s">
-        <v>544</v>
-      </c>
-      <c r="C17" t="s">
-        <v>544</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>545</v>
-      </c>
-      <c r="B18" t="s">
-        <v>546</v>
-      </c>
-      <c r="C18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>547</v>
-      </c>
-      <c r="B19" t="s">
-        <v>548</v>
-      </c>
-      <c r="C19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E19" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>549</v>
-      </c>
-      <c r="B20" t="s">
-        <v>550</v>
-      </c>
-      <c r="C20" t="s">
-        <v>550</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E20" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>551</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>552</v>
-      </c>
-      <c r="B22">
-        <v>42736</v>
-      </c>
-      <c r="C22">
-        <v>42736</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E22">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>553</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>554</v>
-      </c>
-      <c r="B24">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="C24">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E24">
-        <v>8.3333333333333332E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>555</v>
-      </c>
-      <c r="B25">
-        <v>42739</v>
-      </c>
-      <c r="C25">
-        <v>42739</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E25">
-        <v>42739</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -7666,6 +7653,469 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4">
+        <v>42738</v>
+      </c>
+      <c r="C4">
+        <v>42738</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5">
+        <v>42736</v>
+      </c>
+      <c r="C5">
+        <v>42736</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B10">
+        <v>-180</v>
+      </c>
+      <c r="C10">
+        <v>-180</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B11">
+        <v>-180</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12">
+        <v>-252.99872090438052</v>
+      </c>
+      <c r="C12">
+        <v>-252.99872090438052</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>-252.99872090438052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B13" t="s">
+        <v>585</v>
+      </c>
+      <c r="C13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B14" t="s">
+        <v>587</v>
+      </c>
+      <c r="C14" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C15" t="s">
+        <v>589</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>590</v>
+      </c>
+      <c r="B16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C16" t="s">
+        <v>591</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>592</v>
+      </c>
+      <c r="B17" t="s">
+        <v>593</v>
+      </c>
+      <c r="C17" t="s">
+        <v>593</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C18" t="s">
+        <v>595</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>596</v>
+      </c>
+      <c r="B19" t="s">
+        <v>597</v>
+      </c>
+      <c r="C19" t="s">
+        <v>597</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>598</v>
+      </c>
+      <c r="B20" t="s">
+        <v>599</v>
+      </c>
+      <c r="C20" t="s">
+        <v>599</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>600</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>601</v>
+      </c>
+      <c r="B22">
+        <v>42736</v>
+      </c>
+      <c r="C22">
+        <v>42736</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>603</v>
+      </c>
+      <c r="B24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>604</v>
+      </c>
+      <c r="B25">
+        <v>42739</v>
+      </c>
+      <c r="C25">
+        <v>42739</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E25">
+        <v>42739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7710,25 +8160,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -7746,7 +8196,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -7764,7 +8214,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>610</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -7782,7 +8232,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -7800,7 +8250,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -7818,7 +8268,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7836,7 +8286,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7854,7 +8304,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -7875,7 +8325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -7921,20 +8371,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="C3" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -7942,13 +8392,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7988,7 +8436,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>620</v>
       </c>
       <c r="B3">
         <v>23.948673390030997</v>
@@ -8006,25 +8454,25 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
       <c r="C4" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D36" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="B5">
         <v>42648</v>
@@ -8042,7 +8490,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="B6">
         <v>-1.7976931348623157E+308</v>
@@ -8060,7 +8508,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="B7">
         <v>1.7976931348623157E+308</v>
@@ -8078,7 +8526,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>626</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -8096,7 +8544,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -8114,7 +8562,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="B10">
         <v>3.3161907871456142</v>
@@ -8132,7 +8580,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -8150,7 +8598,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="B12">
         <v>2.7777777777777779E-3</v>
@@ -8168,7 +8616,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="B13">
         <v>0.10997121336749448</v>
@@ -8186,7 +8634,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -8204,7 +8652,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="B15">
         <v>2.7777777777777779E-3</v>
@@ -8222,7 +8670,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="B16">
         <v>1.0000000000000011</v>
@@ -8240,7 +8688,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8258,25 +8706,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="B18" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
       <c r="C18" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
       <c r="B19" t="e">
         <v>#VALUE!</v>
@@ -8294,43 +8742,43 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>591</v>
+        <v>640</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>592</v>
+        <v>641</v>
       </c>
       <c r="B22">
         <v>42648</v>
@@ -8348,7 +8796,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>593</v>
+        <v>642</v>
       </c>
       <c r="B23">
         <v>2.7777777777777779E-3</v>
@@ -8366,7 +8814,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="B24">
         <v>0.16276967485704383</v>
@@ -8384,7 +8832,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>595</v>
+        <v>644</v>
       </c>
       <c r="B25">
         <v>0.20543416674806414</v>
@@ -8402,7 +8850,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
       <c r="B26">
         <v>-5.6930143586703347E-4</v>
@@ -8420,7 +8868,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="B27">
         <v>816.38481984485099</v>
@@ -8438,7 +8886,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="B28">
         <v>55.846414299893993</v>
@@ -8456,7 +8904,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="B29">
         <v>5.6930143586703347E-4</v>
@@ -8474,7 +8922,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
       <c r="B30">
         <v>0.85719125008922603</v>
@@ -8492,7 +8940,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="B31">
         <v>1.0562718217954301</v>
@@ -8510,25 +8958,25 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>602</v>
+        <v>651</v>
       </c>
       <c r="B32" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
       <c r="C32" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E32" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -8546,7 +8994,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="B34" t="e">
         <v>#VALUE!</v>
@@ -8564,7 +9012,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="B35" t="e">
         <v>#VALUE!</v>
@@ -8582,7 +9030,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="B36" t="e">
         <v>#VALUE!</v>
@@ -8852,6 +9300,757 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <f t="shared" ref="D4:D41" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>42645</v>
+      </c>
+      <c r="C14">
+        <v>42645</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>-5.5555555555555558E-3</v>
+      </c>
+      <c r="C15">
+        <v>-5.5555555555555558E-3</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>-5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D29" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D31" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33">
+        <v>1.0958904109588663E-2</v>
+      </c>
+      <c r="C33">
+        <v>1.0958904109588663E-2</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E33">
+        <v>1.0958904109588663E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36">
+        <v>43012</v>
+      </c>
+      <c r="C36">
+        <v>43012</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E36">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39">
+        <v>43012</v>
+      </c>
+      <c r="C39">
+        <v>43012</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E39">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8896,43 +10095,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D42" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -8950,25 +10149,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B7">
         <v>367</v>
@@ -8986,7 +10185,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B8">
         <v>109574</v>
@@ -9004,7 +10203,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -9022,7 +10221,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>25599</v>
@@ -9040,7 +10239,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -9058,7 +10257,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="B12">
         <v>25573</v>
@@ -9076,7 +10275,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B13">
         <v>25594</v>
@@ -9094,7 +10293,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -9112,7 +10311,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -9130,61 +10329,61 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="B19">
         <v>45735</v>
@@ -9202,7 +10401,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B20">
         <v>42725</v>
@@ -9220,7 +10419,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="B21">
         <v>42725</v>
@@ -9238,7 +10437,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -9256,7 +10455,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -9274,61 +10473,61 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>45730</v>
@@ -9346,7 +10545,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="B28">
         <v>42713</v>
@@ -9364,7 +10563,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="B29">
         <v>42713</v>
@@ -9382,25 +10581,25 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B30">
         <v>25569</v>
       </c>
       <c r="C30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -9418,7 +10617,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -9436,7 +10635,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="B33">
         <v>38371</v>
@@ -9454,7 +10653,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="B34">
         <v>40247</v>
@@ -9472,12 +10671,12 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="4">
+        <v>178</v>
+      </c>
+      <c r="B35" s="5">
         <v>42439</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>42439</v>
       </c>
       <c r="D35" s="3" t="str">
@@ -9485,12 +10684,12 @@
         <v>PASS</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="B36">
         <v>42718</v>
@@ -9508,7 +10707,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B37">
         <v>40282</v>
@@ -9526,7 +10725,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="B38">
         <v>42718</v>
@@ -9544,25 +10743,25 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -9580,12 +10779,12 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="4">
+        <v>185</v>
+      </c>
+      <c r="B41" s="5">
         <v>42720</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>42659</v>
       </c>
       <c r="D41" s="3" t="str">
@@ -9593,17 +10792,17 @@
         <v>FAIL</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="4">
+        <v>187</v>
+      </c>
+      <c r="B42" s="5">
         <v>42470</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>42470</v>
       </c>
       <c r="D42" s="3" t="str">
@@ -9611,7 +10810,7 @@
         <v>PASS</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -9619,7 +10818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9665,25 +10864,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D5" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B4">
         <v>364</v>
@@ -9701,7 +10900,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>1.0111111111111111</v>
@@ -9722,7 +10921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -9768,25 +10967,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -9804,7 +11003,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -9822,7 +11021,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -9840,7 +11039,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -9858,7 +11057,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -9876,7 +11075,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -9894,43 +11093,43 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -9948,7 +11147,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -9966,25 +11165,25 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B15">
         <v>42709</v>
@@ -10002,7 +11201,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>42703</v>
@@ -10020,7 +11219,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B17">
         <v>43070</v>
@@ -10038,25 +11237,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -10074,272 +11273,272 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10347,7 +11546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -10393,7 +11592,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -10411,7 +11610,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="B4">
         <v>0.99999971334842819</v>
@@ -10429,7 +11628,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="B5">
         <v>0.99999971334842819</v>
@@ -10447,7 +11646,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10465,7 +11664,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10483,7 +11682,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="B8">
         <v>3.4142135623730949</v>
@@ -10501,7 +11700,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="B9">
         <v>0.50000000000000011</v>
@@ -10519,25 +11718,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="B11">
         <v>1.4142135623730951</v>
@@ -10555,7 +11754,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="B12">
         <v>1.4142135623730951</v>
@@ -10573,7 +11772,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="B13">
         <v>1.4142135623730949</v>
@@ -10591,7 +11790,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10609,7 +11808,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -10627,7 +11826,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="B16">
         <v>1.4142135623730951</v>
@@ -10645,7 +11844,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -10663,20 +11862,20 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -10684,7 +11883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -10730,7 +11929,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="B3">
         <v>0.3090169943749474</v>
@@ -10748,12 +11947,12 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="5">
+        <v>262</v>
+      </c>
+      <c r="B4" s="6">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="D4" s="3" t="str">
@@ -10761,12 +11960,12 @@
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -10784,7 +11983,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -10802,7 +12001,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -10820,7 +12019,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10838,425 +12037,128 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>220</v>
+        <v>268</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>220</v>
+      <c r="E9" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -13,30 +13,32 @@
     <sheet name="CapletVolatility" sheetId="4" r:id="rId4"/>
     <sheet name="Date" sheetId="5" r:id="rId5"/>
     <sheet name="DayCounters" sheetId="6" r:id="rId6"/>
-    <sheet name="Index" sheetId="7" r:id="rId7"/>
-    <sheet name="Math" sheetId="8" r:id="rId8"/>
-    <sheet name="Optimization" sheetId="9" r:id="rId9"/>
-    <sheet name="Payoffs" sheetId="10" r:id="rId10"/>
-    <sheet name="PiecewiseYieldCurve" sheetId="11" r:id="rId11"/>
-    <sheet name="PricingEngines" sheetId="12" r:id="rId12"/>
-    <sheet name="Processes" sheetId="13" r:id="rId13"/>
-    <sheet name="Quotes" sheetId="14" r:id="rId14"/>
-    <sheet name="RateHelpers" sheetId="15" r:id="rId15"/>
-    <sheet name="Schedules" sheetId="16" r:id="rId16"/>
-    <sheet name="ShortRateModels" sheetId="17" r:id="rId17"/>
-    <sheet name="SmileSection" sheetId="18" r:id="rId18"/>
-    <sheet name="SwaptionVolatility" sheetId="19" r:id="rId19"/>
-    <sheet name="TermStructures" sheetId="20" r:id="rId20"/>
-    <sheet name="TimeSeries" sheetId="21" r:id="rId21"/>
-    <sheet name="Utilities" sheetId="22" r:id="rId22"/>
-    <sheet name="Volatilities" sheetId="23" r:id="rId23"/>
+    <sheet name="Exercise" sheetId="7" r:id="rId7"/>
+    <sheet name="Index" sheetId="8" r:id="rId8"/>
+    <sheet name="Leg" sheetId="9" r:id="rId9"/>
+    <sheet name="Math" sheetId="10" r:id="rId10"/>
+    <sheet name="Optimization" sheetId="11" r:id="rId11"/>
+    <sheet name="Payoffs" sheetId="12" r:id="rId12"/>
+    <sheet name="PiecewiseYieldCurve" sheetId="13" r:id="rId13"/>
+    <sheet name="PricingEngines" sheetId="14" r:id="rId14"/>
+    <sheet name="Processes" sheetId="15" r:id="rId15"/>
+    <sheet name="Quotes" sheetId="16" r:id="rId16"/>
+    <sheet name="RateHelpers" sheetId="17" r:id="rId17"/>
+    <sheet name="Schedules" sheetId="18" r:id="rId18"/>
+    <sheet name="ShortRateModels" sheetId="19" r:id="rId19"/>
+    <sheet name="SmileSection" sheetId="20" r:id="rId20"/>
+    <sheet name="SwaptionVolatility" sheetId="21" r:id="rId21"/>
+    <sheet name="TermStructures" sheetId="22" r:id="rId22"/>
+    <sheet name="TimeSeries" sheetId="23" r:id="rId23"/>
+    <sheet name="Utilities" sheetId="24" r:id="rId24"/>
+    <sheet name="Volatilities" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="723">
   <si>
     <t>Group</t>
   </si>
@@ -617,6 +619,42 @@
     <t>qlDayCounterYearFraction</t>
   </si>
   <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>qlExerciseDates</t>
+  </si>
+  <si>
+    <t>qlExerciseLastDate</t>
+  </si>
+  <si>
+    <t>qlAmericanExercise</t>
+  </si>
+  <si>
+    <t>ex01#0005</t>
+  </si>
+  <si>
+    <t>ex01#0000</t>
+  </si>
+  <si>
+    <t>qlEuropeanExercise</t>
+  </si>
+  <si>
+    <t>ex02#0005</t>
+  </si>
+  <si>
+    <t>ex02#0000</t>
+  </si>
+  <si>
+    <t>qlBermudanExercise</t>
+  </si>
+  <si>
+    <t>ex03#0013</t>
+  </si>
+  <si>
+    <t>ex03#0000</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -761,6 +799,168 @@
     <t>index13#0000</t>
   </si>
   <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>qlLegStartDate</t>
+  </si>
+  <si>
+    <t>qlLegMaturityDate</t>
+  </si>
+  <si>
+    <t>qlLegIsExpired</t>
+  </si>
+  <si>
+    <t>qlLegPreviousCashFlowDate</t>
+  </si>
+  <si>
+    <t>qlLegNextCashFlowDate</t>
+  </si>
+  <si>
+    <t>qlLegPreviousCashFlowAmount</t>
+  </si>
+  <si>
+    <t>qlLegNextCashFlowAmount</t>
+  </si>
+  <si>
+    <t>qlLegPreviousCouponRate</t>
+  </si>
+  <si>
+    <t>qlLegNextCouponRate</t>
+  </si>
+  <si>
+    <t>qlLegNominal</t>
+  </si>
+  <si>
+    <t>qlLegAccrualStartDate</t>
+  </si>
+  <si>
+    <t>qlLegAccrualEndDate</t>
+  </si>
+  <si>
+    <t>qlLegReferencePeriodStart</t>
+  </si>
+  <si>
+    <t>qlLegReferencePeriodEnd</t>
+  </si>
+  <si>
+    <t>qlLegAccrualPeriod</t>
+  </si>
+  <si>
+    <t>qlLegAccrualDays</t>
+  </si>
+  <si>
+    <t>qlLegAccruedPeriod</t>
+  </si>
+  <si>
+    <t>qlLegAccruedDays</t>
+  </si>
+  <si>
+    <t>qlLegAccruedAmount</t>
+  </si>
+  <si>
+    <t>qlLegNPV</t>
+  </si>
+  <si>
+    <t>qlLegBPS</t>
+  </si>
+  <si>
+    <t>qlLegAtmRate</t>
+  </si>
+  <si>
+    <t>qlLegNPVFromYield</t>
+  </si>
+  <si>
+    <t>qlLegBPSFromYield</t>
+  </si>
+  <si>
+    <t>qlLegYield</t>
+  </si>
+  <si>
+    <t>qlLegDuration</t>
+  </si>
+  <si>
+    <t>qlLegConvexity</t>
+  </si>
+  <si>
+    <t>qlLegBasisPointValue</t>
+  </si>
+  <si>
+    <t>qlLegYieldValueBasisPoint</t>
+  </si>
+  <si>
+    <t>qlLegNPVFromZSpread</t>
+  </si>
+  <si>
+    <t>qlLegZSpread</t>
+  </si>
+  <si>
+    <t>qlLegFlowAnalysis</t>
+  </si>
+  <si>
+    <t>qlLegSetCouponPricers</t>
+  </si>
+  <si>
+    <t>qlLeg</t>
+  </si>
+  <si>
+    <t>leg01#0000</t>
+  </si>
+  <si>
+    <t>qlLegFromCapFloor</t>
+  </si>
+  <si>
+    <t>leg02#0000</t>
+  </si>
+  <si>
+    <t>qlLegFromSwap</t>
+  </si>
+  <si>
+    <t>leg03#0000</t>
+  </si>
+  <si>
+    <t>qlMultiPhaseLeg</t>
+  </si>
+  <si>
+    <t>leg04#0000</t>
+  </si>
+  <si>
+    <t>qlInterestRateRate</t>
+  </si>
+  <si>
+    <t>qlInterestRateDayCounter</t>
+  </si>
+  <si>
+    <t>qlInterestRateCompounding</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>qlInterestRateFrequency</t>
+  </si>
+  <si>
+    <t>No-Frequency</t>
+  </si>
+  <si>
+    <t>qlInterestRateDiscountFactor</t>
+  </si>
+  <si>
+    <t>qlInterestRateCompoundFactor</t>
+  </si>
+  <si>
+    <t>qlInterestRateEquivalentRate</t>
+  </si>
+  <si>
+    <t>qlInterestRateImpliedRate</t>
+  </si>
+  <si>
+    <t>qlInterestRate</t>
+  </si>
+  <si>
+    <t>leg05#0000</t>
+  </si>
+  <si>
     <t>Math</t>
   </si>
   <si>
@@ -1466,7 +1666,7 @@
     <t>obj_0000e</t>
   </si>
   <si>
-    <t>obj_0006d</t>
+    <t>obj_0007b</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
@@ -2368,7 +2568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2425,82 +2625,92 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>619</v>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -2509,6 +2719,626 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4">
+        <v>0.99999971334842819</v>
+      </c>
+      <c r="C4">
+        <v>0.99999971334842819</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D18" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>0.99999971334842819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5">
+        <v>0.99999971334842819</v>
+      </c>
+      <c r="C5">
+        <v>0.99999971334842819</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>0.99999971334842819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8">
+        <v>3.4142135623730949</v>
+      </c>
+      <c r="C8">
+        <v>3.4142135623730949</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>3.4142135623730949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="C9">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C11">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C12">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13">
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="C13">
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>1.4142135623730949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C16">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3">
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="C3">
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>0.3090169943749474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -2554,43 +3384,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2608,25 +3438,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2644,7 +3474,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2662,142 +3492,142 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +3635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2851,43 +3681,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2905,7 +3735,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="B6" s="7">
         <v>42676</v>
@@ -2923,7 +3753,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2941,7 +3771,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="B8">
         <v>-47.519444444444446</v>
@@ -2959,7 +3789,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="B9" s="7">
         <v>25569</v>
@@ -2980,7 +3810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
@@ -3026,7 +3856,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="B3">
         <v>0.38292492254802624</v>
@@ -3044,7 +3874,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="B4">
         <v>0.30853753872598688</v>
@@ -3062,7 +3892,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="B5">
         <v>2.5066282746310002</v>
@@ -3080,7 +3910,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3098,7 +3928,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="B7">
         <v>0.35206532676429952</v>
@@ -3116,7 +3946,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="B8">
         <v>0.3989422804014327</v>
@@ -3134,7 +3964,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="B9">
         <v>2.5066282746309976</v>
@@ -3152,7 +3982,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -3170,7 +4000,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -3188,7 +4018,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -3206,7 +4036,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -3224,7 +4054,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -3242,7 +4072,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -3260,7 +4090,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="B16">
         <v>0.38292492254802624</v>
@@ -3278,7 +4108,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="B17">
         <v>0.69146246127401323</v>
@@ -3296,7 +4126,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="B18">
         <v>0.69146246127401323</v>
@@ -3314,7 +4144,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="B19">
         <v>1.8057389857858896</v>
@@ -3332,7 +4162,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="B20">
         <v>1.8057389857858896</v>
@@ -3350,7 +4180,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="B21">
         <v>0.35206532676429947</v>
@@ -3368,7 +4198,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="B22">
         <v>0.35206532676429947</v>
@@ -3386,7 +4216,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="B23">
         <v>-0.17603266338214973</v>
@@ -3404,7 +4234,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="B24">
         <v>-4.8228126954013624E-4</v>
@@ -3422,7 +4252,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="B25">
         <v>0.35206532676429952</v>
@@ -3440,7 +4270,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="B26">
         <v>0.30853753872598699</v>
@@ -3458,7 +4288,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="B27">
         <v>-0.69146246127401323</v>
@@ -3476,7 +4306,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="B28">
         <v>0.30853753872598688</v>
@@ -3494,7 +4324,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="B29">
         <v>0.69146246127401312</v>
@@ -3512,7 +4342,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="B30">
         <v>-0.30853753872598688</v>
@@ -3530,7 +4360,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="B31">
         <v>0.69146246127401312</v>
@@ -3548,7 +4378,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="B32">
         <v>-0.30853753872598688</v>
@@ -3566,43 +4396,43 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="C33" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E33" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="B35">
         <v>0.69146246127401323</v>
@@ -3620,7 +4450,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="B36">
         <v>1.8057389857858896</v>
@@ -3638,7 +4468,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="B37">
         <v>0.35206532676429947</v>
@@ -3656,7 +4486,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="B38">
         <v>-0.17603266338214973</v>
@@ -3674,7 +4504,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="B39">
         <v>-4.8228126954013624E-4</v>
@@ -3692,290 +4522,290 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="C40" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E40" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="B41" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="C41" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E41" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="C42" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E42" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="B43" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="C43" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E43" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="C44" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E44" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="C45" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E45" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="C46" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E46" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="B47" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="C47" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E47" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="C48" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E48" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="C49" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E49" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="C50" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E50" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="C51" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E51" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="C52" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E52" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="C53" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E53" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="C54" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E54" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="C55" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E55" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +4813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4029,20 +4859,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +4880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -4096,7 +4926,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -4114,7 +4944,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4132,7 +4962,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4150,7 +4980,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4168,7 +4998,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4186,7 +5016,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -4204,7 +5034,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4213,7 +5043,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4222,7 +5052,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4231,133 +5061,133 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="C13" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="C15" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="B16" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="C16" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -4375,7 +5205,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -4393,7 +5223,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -4411,7 +5241,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -4429,25 +5259,25 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -4465,20 +5295,20 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +5316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -4532,7 +5362,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="B3">
         <v>42678</v>
@@ -4550,7 +5380,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="B4">
         <v>42681</v>
@@ -4568,7 +5398,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="B5">
         <v>42681</v>
@@ -4586,7 +5416,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="B6" s="7">
         <v>42681</v>
@@ -4604,19 +5434,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E7" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4634,7 +5464,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="B9" s="7" t="e">
         <v>#NUM!</v>
@@ -4652,7 +5482,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -4670,79 +5500,79 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="C11" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="C13" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="C14" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4760,82 +5590,82 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="B19" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="C20" t="e">
         <v>#NAME?</v>
@@ -4850,10 +5680,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="C21" t="e">
         <v>#NAME?</v>
@@ -4868,7 +5698,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4886,79 +5716,79 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="B23" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="B24" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="C24" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="B25" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="C25" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4976,25 +5806,25 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="B28" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="C28" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E28" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -5012,7 +5842,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -5030,7 +5860,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="B31" t="s">
         <v>113</v>
@@ -5048,7 +5878,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -5066,7 +5896,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -5084,25 +5914,25 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="B34" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="C34" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E34" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5123,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -5169,7 +5999,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5187,7 +6017,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="B4" s="7">
         <v>25573</v>
@@ -5205,7 +6035,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5223,7 +6053,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="B6" s="7">
         <v>25570</v>
@@ -5241,7 +6071,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -5259,7 +6089,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -5277,7 +6107,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -5295,7 +6125,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="B10" s="7">
         <v>25570</v>
@@ -5313,7 +6143,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="B11" s="7">
         <v>25573</v>
@@ -5331,7 +6161,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
         <v>142</v>
@@ -5349,7 +6179,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
@@ -5367,7 +6197,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
@@ -5385,92 +6215,92 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="B15" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="C15" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="B17" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="C17" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="B18" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="C18" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="C19" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -5478,7 +6308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -5524,43 +6354,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="B5">
         <v>2.6897035576518178E-3</v>
@@ -5578,7 +6408,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -5596,7 +6426,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -5614,7 +6444,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5632,7 +6462,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -5650,25 +6480,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="C10" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -5686,7 +6516,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -5704,7 +6534,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -5722,7 +6552,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="B14">
         <v>0.01</v>
@@ -5740,7 +6570,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="B15">
         <v>-0.75</v>
@@ -5754,914 +6584,6 @@
       </c>
       <c r="E15">
         <v>-0.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D20" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>519</v>
-      </c>
-      <c r="B4">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="C4">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E4">
-        <v>2.7777777777777779E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B6" s="7">
-        <v>42645</v>
-      </c>
-      <c r="C6" s="7">
-        <v>42645</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6" s="7">
-        <v>42645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>522</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B8" t="s">
-        <v>524</v>
-      </c>
-      <c r="C8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>527</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B11" s="7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" s="7" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>530</v>
-      </c>
-      <c r="B12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>534</v>
-      </c>
-      <c r="B16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>535</v>
-      </c>
-      <c r="B17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>536</v>
-      </c>
-      <c r="B18" t="s">
-        <v>537</v>
-      </c>
-      <c r="C18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>538</v>
-      </c>
-      <c r="B19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>539</v>
-      </c>
-      <c r="B20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>542</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="3" t="e">
-        <f t="shared" ref="D4:D29" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B6">
-        <v>8.611111111111111E-2</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>545</v>
-      </c>
-      <c r="B7" t="s">
-        <v>546</v>
-      </c>
-      <c r="C7" t="s">
-        <v>546</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>548</v>
-      </c>
-      <c r="B9" s="4">
-        <v>42678</v>
-      </c>
-      <c r="C9" s="8">
-        <v>42678</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9" s="4">
-        <v>42678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B11">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>551</v>
-      </c>
-      <c r="B12" t="s">
-        <v>552</v>
-      </c>
-      <c r="C12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>553</v>
-      </c>
-      <c r="B13" t="s">
-        <v>554</v>
-      </c>
-      <c r="C13" t="s">
-        <v>554</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B14" t="s">
-        <v>556</v>
-      </c>
-      <c r="C14" t="s">
-        <v>556</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>557</v>
-      </c>
-      <c r="B15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>558</v>
-      </c>
-      <c r="B16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>560</v>
-      </c>
-      <c r="B18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>561</v>
-      </c>
-      <c r="B19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>562</v>
-      </c>
-      <c r="B20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>563</v>
-      </c>
-      <c r="B21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>564</v>
-      </c>
-      <c r="B22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>565</v>
-      </c>
-      <c r="B23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D23" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>566</v>
-      </c>
-      <c r="B24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>567</v>
-      </c>
-      <c r="B25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>568</v>
-      </c>
-      <c r="B26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>569</v>
-      </c>
-      <c r="B27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>570</v>
-      </c>
-      <c r="B28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>571</v>
-      </c>
-      <c r="B29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -7653,6 +7575,914 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D20" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42645</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42645</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" s="7">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B11" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>597</v>
+      </c>
+      <c r="B13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>599</v>
+      </c>
+      <c r="B15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>600</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C18" t="s">
+        <v>603</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>604</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>605</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <f t="shared" ref="D4:D29" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6">
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B9" s="4">
+        <v>42678</v>
+      </c>
+      <c r="C9" s="8">
+        <v>42678</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>617</v>
+      </c>
+      <c r="B12" t="s">
+        <v>618</v>
+      </c>
+      <c r="C12" t="s">
+        <v>618</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B13" t="s">
+        <v>620</v>
+      </c>
+      <c r="C13" t="s">
+        <v>620</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B14" t="s">
+        <v>622</v>
+      </c>
+      <c r="C14" t="s">
+        <v>622</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>623</v>
+      </c>
+      <c r="B15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>626</v>
+      </c>
+      <c r="B18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>627</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>628</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>629</v>
+      </c>
+      <c r="B21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>630</v>
+      </c>
+      <c r="B22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>631</v>
+      </c>
+      <c r="B23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>634</v>
+      </c>
+      <c r="B26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>635</v>
+      </c>
+      <c r="B27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>636</v>
+      </c>
+      <c r="B28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B29" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7697,25 +8527,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="B4">
         <v>42738</v>
@@ -7733,7 +8563,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="B5">
         <v>42736</v>
@@ -7751,7 +8581,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7769,7 +8599,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -7787,7 +8617,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7805,7 +8635,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7823,7 +8653,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="B10">
         <v>-180</v>
@@ -7841,7 +8671,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="B11">
         <v>-180</v>
@@ -7859,7 +8689,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="B12">
         <v>-252.99872090438052</v>
@@ -7877,151 +8707,151 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="B13" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="C13" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="B14" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="C14" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="B15" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="C15" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="B16" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="C16" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="B17" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="C17" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="B18" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="C18" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
       <c r="C19" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>598</v>
+        <v>664</v>
       </c>
       <c r="B20" t="s">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="C20" t="s">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>599</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8039,7 +8869,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="B22">
         <v>42736</v>
@@ -8057,7 +8887,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>602</v>
+        <v>668</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -8075,7 +8905,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>603</v>
+        <v>669</v>
       </c>
       <c r="B24">
         <v>8.3333333333333332E-3</v>
@@ -8093,7 +8923,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="B25">
         <v>42739</v>
@@ -8114,7 +8944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -8160,25 +8990,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>672</v>
       </c>
       <c r="B3" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -8196,7 +9026,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -8214,7 +9044,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>676</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -8232,7 +9062,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -8250,7 +9080,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>612</v>
+        <v>678</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -8268,7 +9098,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>613</v>
+        <v>679</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -8286,7 +9116,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>614</v>
+        <v>680</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8304,7 +9134,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>615</v>
+        <v>681</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -8325,7 +9155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -8371,20 +9201,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>617</v>
+        <v>683</v>
       </c>
       <c r="B3" t="s">
-        <v>618</v>
+        <v>684</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>684</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>618</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -8392,11 +9222,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8436,7 +9268,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>686</v>
       </c>
       <c r="B3">
         <v>23.948673390030997</v>
@@ -8454,25 +9286,25 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>687</v>
       </c>
       <c r="B4" t="s">
-        <v>622</v>
+        <v>688</v>
       </c>
       <c r="C4" t="s">
-        <v>622</v>
+        <v>688</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D36" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>622</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>689</v>
       </c>
       <c r="B5">
         <v>42648</v>
@@ -8490,7 +9322,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>624</v>
+        <v>690</v>
       </c>
       <c r="B6">
         <v>-1.7976931348623157E+308</v>
@@ -8508,7 +9340,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>691</v>
       </c>
       <c r="B7">
         <v>1.7976931348623157E+308</v>
@@ -8526,7 +9358,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -8544,7 +9376,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -8562,7 +9394,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>628</v>
+        <v>694</v>
       </c>
       <c r="B10">
         <v>3.3161907871456142</v>
@@ -8580,7 +9412,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -8598,7 +9430,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>630</v>
+        <v>696</v>
       </c>
       <c r="B12">
         <v>2.7777777777777779E-3</v>
@@ -8616,7 +9448,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>631</v>
+        <v>697</v>
       </c>
       <c r="B13">
         <v>0.10997121336749448</v>
@@ -8634,7 +9466,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>632</v>
+        <v>698</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -8652,7 +9484,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>633</v>
+        <v>699</v>
       </c>
       <c r="B15">
         <v>2.7777777777777779E-3</v>
@@ -8670,7 +9502,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="B16">
         <v>1.0000000000000011</v>
@@ -8688,7 +9520,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>635</v>
+        <v>701</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8706,25 +9538,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>636</v>
+        <v>702</v>
       </c>
       <c r="B18" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
       <c r="C18" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>638</v>
+        <v>704</v>
       </c>
       <c r="B19" t="e">
         <v>#VALUE!</v>
@@ -8742,7 +9574,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>639</v>
+        <v>705</v>
       </c>
       <c r="B20" t="s">
         <v>142</v>
@@ -8760,7 +9592,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>640</v>
+        <v>706</v>
       </c>
       <c r="B21" t="s">
         <v>142</v>
@@ -8778,7 +9610,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>641</v>
+        <v>707</v>
       </c>
       <c r="B22">
         <v>42648</v>
@@ -8796,7 +9628,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>642</v>
+        <v>708</v>
       </c>
       <c r="B23">
         <v>2.7777777777777779E-3</v>
@@ -8814,7 +9646,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>643</v>
+        <v>709</v>
       </c>
       <c r="B24">
         <v>0.16276967485704383</v>
@@ -8832,7 +9664,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>644</v>
+        <v>710</v>
       </c>
       <c r="B25">
         <v>0.20543416674806414</v>
@@ -8850,7 +9682,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>645</v>
+        <v>711</v>
       </c>
       <c r="B26">
         <v>-5.6930143586703347E-4</v>
@@ -8868,7 +9700,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>646</v>
+        <v>712</v>
       </c>
       <c r="B27">
         <v>816.38481984485099</v>
@@ -8886,7 +9718,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="B28">
         <v>55.846414299893993</v>
@@ -8904,7 +9736,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>648</v>
+        <v>714</v>
       </c>
       <c r="B29">
         <v>5.6930143586703347E-4</v>
@@ -8922,7 +9754,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>649</v>
+        <v>715</v>
       </c>
       <c r="B30">
         <v>0.85719125008922603</v>
@@ -8940,7 +9772,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>650</v>
+        <v>716</v>
       </c>
       <c r="B31">
         <v>1.0562718217954301</v>
@@ -8958,25 +9790,25 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>651</v>
+        <v>717</v>
       </c>
       <c r="B32" t="s">
-        <v>652</v>
+        <v>718</v>
       </c>
       <c r="C32" t="s">
-        <v>652</v>
+        <v>718</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E32" t="s">
-        <v>652</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>653</v>
+        <v>719</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -8994,7 +9826,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>654</v>
+        <v>720</v>
       </c>
       <c r="B34" t="e">
         <v>#VALUE!</v>
@@ -9012,7 +9844,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>655</v>
+        <v>721</v>
       </c>
       <c r="B35" t="e">
         <v>#VALUE!</v>
@@ -9030,7 +9862,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>656</v>
+        <v>722</v>
       </c>
       <c r="B36" t="e">
         <v>#VALUE!</v>
@@ -10923,6 +11755,145 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42645</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42645</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42648</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42648</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D7" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" s="4">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10967,25 +11938,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -11003,7 +11974,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -11021,7 +11992,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -11039,7 +12010,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -11057,7 +12028,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -11075,7 +12046,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -11093,25 +12064,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
@@ -11129,7 +12100,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -11147,7 +12118,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -11165,7 +12136,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
@@ -11183,7 +12154,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B15">
         <v>42709</v>
@@ -11201,7 +12172,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B16">
         <v>42703</v>
@@ -11219,7 +12190,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B17">
         <v>43070</v>
@@ -11237,7 +12208,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -11255,7 +12226,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -11273,133 +12244,133 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E21" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
         <v>115</v>
@@ -11417,7 +12388,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s">
         <v>113</v>
@@ -11435,447 +12406,110 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4">
-        <v>0.99999971334842819</v>
-      </c>
-      <c r="C4">
-        <v>0.99999971334842819</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D18" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E4">
-        <v>0.99999971334842819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5">
-        <v>0.99999971334842819</v>
-      </c>
-      <c r="C5">
-        <v>0.99999971334842819</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>0.99999971334842819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8">
-        <v>3.4142135623730949</v>
-      </c>
-      <c r="C8">
-        <v>3.4142135623730949</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8">
-        <v>3.4142135623730949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9">
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="C9">
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9">
-        <v>0.50000000000000011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="C11">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E11">
-        <v>1.4142135623730951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>252</v>
-      </c>
-      <c r="B12">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="C12">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12">
-        <v>1.4142135623730951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13">
-        <v>1.4142135623730949</v>
-      </c>
-      <c r="C13">
-        <v>1.4142135623730949</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13">
-        <v>1.4142135623730949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="C16">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16">
-        <v>1.4142135623730951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -11885,11 +12519,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11929,236 +12561,830 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B3">
-        <v>0.3090169943749474</v>
+        <v>42645</v>
       </c>
       <c r="C3">
-        <v>0.3090169943749474</v>
+        <v>42645</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f t="shared" ref="D3:D48" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3">
-        <v>0.3090169943749474</v>
+        <v>42645</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5.7870370370370366E-5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5.7870370370370366E-5</v>
+        <v>255</v>
+      </c>
+      <c r="B4">
+        <v>42647</v>
+      </c>
+      <c r="C4">
+        <v>42647</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E4" t="s">
-        <v>263</v>
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>42647</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>256</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>42645</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>42645</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>42645</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" t="s">
-        <v>269</v>
+        <v>260</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>269</v>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" t="s">
-        <v>271</v>
+        <v>261</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E10" t="s">
-        <v>271</v>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E11" t="s">
-        <v>273</v>
+        <v>262</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" t="s">
-        <v>275</v>
+        <v>263</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E12" t="s">
-        <v>275</v>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" t="s">
-        <v>277</v>
+        <v>264</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E13" t="s">
-        <v>277</v>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" t="s">
-        <v>279</v>
+        <v>265</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E14" t="s">
-        <v>279</v>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27">
+        <v>-183.89722455577379</v>
+      </c>
+      <c r="C27">
+        <v>-183.89722455577379</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E27">
+        <v>-183.89722455577379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28">
+        <v>4.5537340619307881E-4</v>
+      </c>
+      <c r="C28">
+        <v>4.5537340619307838E-4</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E28">
+        <v>4.5537340619307838E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>280</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B29">
+        <v>7.6102932637914364E-5</v>
+      </c>
+      <c r="C29">
+        <v>7.6102932637914364E-5</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29">
+        <v>7.6102932637914364E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>281</v>
       </c>
-      <c r="C15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15" t="s">
-        <v>281</v>
+      <c r="B30">
+        <v>-1.3594485829067323E-7</v>
+      </c>
+      <c r="C30">
+        <v>-1.3594485829067323E-7</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E30">
+        <v>-1.3594485829067323E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31">
+        <v>-7.3559230485996778</v>
+      </c>
+      <c r="C31">
+        <v>-7.3559230485996778</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E31">
+        <v>-7.3559230485996778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D32" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D37" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D38" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="C44">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E44">
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45">
+        <v>1.0277777777777777</v>
+      </c>
+      <c r="C45">
+        <v>1.0277777777777777</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E45">
+        <v>1.0277777777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46">
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="C46">
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E46">
+        <v>4.9999999999999822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47">
+        <v>720</v>
+      </c>
+      <c r="C47">
+        <v>720</v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E47">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E48" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -4,41 +4,45 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18195" windowHeight="7995" tabRatio="876"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTests" sheetId="1" r:id="rId1"/>
     <sheet name="Bonds" sheetId="2" r:id="rId2"/>
     <sheet name="Calendars" sheetId="3" r:id="rId3"/>
     <sheet name="CapletVolatility" sheetId="4" r:id="rId4"/>
-    <sheet name="Date" sheetId="5" r:id="rId5"/>
-    <sheet name="DayCounters" sheetId="6" r:id="rId6"/>
-    <sheet name="Exercise" sheetId="7" r:id="rId7"/>
-    <sheet name="Index" sheetId="8" r:id="rId8"/>
-    <sheet name="Leg" sheetId="9" r:id="rId9"/>
-    <sheet name="Math" sheetId="10" r:id="rId10"/>
-    <sheet name="Optimization" sheetId="11" r:id="rId11"/>
-    <sheet name="Payoffs" sheetId="12" r:id="rId12"/>
-    <sheet name="PiecewiseYieldCurve" sheetId="13" r:id="rId13"/>
-    <sheet name="PricingEngines" sheetId="14" r:id="rId14"/>
-    <sheet name="Processes" sheetId="15" r:id="rId15"/>
-    <sheet name="Quotes" sheetId="16" r:id="rId16"/>
-    <sheet name="RateHelpers" sheetId="17" r:id="rId17"/>
-    <sheet name="Schedules" sheetId="18" r:id="rId18"/>
-    <sheet name="ShortRateModels" sheetId="19" r:id="rId19"/>
-    <sheet name="SmileSection" sheetId="20" r:id="rId20"/>
-    <sheet name="SwaptionVolatility" sheetId="21" r:id="rId21"/>
-    <sheet name="TermStructures" sheetId="22" r:id="rId22"/>
-    <sheet name="TimeSeries" sheetId="23" r:id="rId23"/>
-    <sheet name="Utilities" sheetId="24" r:id="rId24"/>
-    <sheet name="Volatilities" sheetId="25" r:id="rId25"/>
+    <sheet name="CouponVectors" sheetId="5" r:id="rId5"/>
+    <sheet name="Date" sheetId="6" r:id="rId6"/>
+    <sheet name="DayCounters" sheetId="7" r:id="rId7"/>
+    <sheet name="Exercise" sheetId="8" r:id="rId8"/>
+    <sheet name="Index" sheetId="9" r:id="rId9"/>
+    <sheet name="Instruments" sheetId="10" r:id="rId10"/>
+    <sheet name="Leg" sheetId="11" r:id="rId11"/>
+    <sheet name="Math" sheetId="12" r:id="rId12"/>
+    <sheet name="Optimization" sheetId="13" r:id="rId13"/>
+    <sheet name="Payoffs" sheetId="14" r:id="rId14"/>
+    <sheet name="PiecewiseYieldCurve" sheetId="15" r:id="rId15"/>
+    <sheet name="PricingEngines" sheetId="16" r:id="rId16"/>
+    <sheet name="Processes" sheetId="17" r:id="rId17"/>
+    <sheet name="Quotes" sheetId="18" r:id="rId18"/>
+    <sheet name="RateHelpers" sheetId="19" r:id="rId19"/>
+    <sheet name="Schedules" sheetId="20" r:id="rId20"/>
+    <sheet name="ShortRateModels" sheetId="21" r:id="rId21"/>
+    <sheet name="SmileSection" sheetId="22" r:id="rId22"/>
+    <sheet name="Swap" sheetId="23" r:id="rId23"/>
+    <sheet name="SwaptionVolatility" sheetId="24" r:id="rId24"/>
+    <sheet name="TermStructures" sheetId="25" r:id="rId25"/>
+    <sheet name="TimeSeries" sheetId="26" r:id="rId26"/>
+    <sheet name="Utilities" sheetId="27" r:id="rId27"/>
+    <sheet name="VanillaSwap" sheetId="28" r:id="rId28"/>
+    <sheet name="Volatilities" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="785">
   <si>
     <t>Group</t>
   </si>
@@ -460,6 +464,57 @@
     <t>cv09#0000</t>
   </si>
   <si>
+    <t>CouponVectors</t>
+  </si>
+  <si>
+    <t>qlFixedRateLeg</t>
+  </si>
+  <si>
+    <t>qlFixedRateLeg2</t>
+  </si>
+  <si>
+    <t>qlIborLeg</t>
+  </si>
+  <si>
+    <t>qlDigitalIborLeg</t>
+  </si>
+  <si>
+    <t>qlCmsLeg</t>
+  </si>
+  <si>
+    <t>qlDigitalCmsLeg</t>
+  </si>
+  <si>
+    <t>qlRangeAccrualLeg</t>
+  </si>
+  <si>
+    <t>qlCmsZeroLeg</t>
+  </si>
+  <si>
+    <t>qlIborCouponPricer</t>
+  </si>
+  <si>
+    <t>qlCmsCouponPricer</t>
+  </si>
+  <si>
+    <t>cv10#0000</t>
+  </si>
+  <si>
+    <t>qlConundrumPricerByNumericalIntegration</t>
+  </si>
+  <si>
+    <t>cv11#0000</t>
+  </si>
+  <si>
+    <t>qlConundrumPricerByNumericalIntegrationUpperLimit</t>
+  </si>
+  <si>
+    <t>qlDigitalReplication</t>
+  </si>
+  <si>
+    <t>cv12#0000</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -799,6 +854,27 @@
     <t>index13#0000</t>
   </si>
   <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>qlInstrumentNPV</t>
+  </si>
+  <si>
+    <t>qlInstrumentErrorEstimate</t>
+  </si>
+  <si>
+    <t>qlInstrumentValuationDate</t>
+  </si>
+  <si>
+    <t>qlInstrumentResults</t>
+  </si>
+  <si>
+    <t>qlInstrumentIsExpired</t>
+  </si>
+  <si>
+    <t>qlInstrumentSetPricingEngine</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
@@ -1666,7 +1742,7 @@
     <t>obj_0000e</t>
   </si>
   <si>
-    <t>obj_0007b</t>
+    <t>obj_00094</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
@@ -1858,6 +1934,36 @@
     <t>qlSmileSectionFromSabrVolSurface</t>
   </si>
   <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>qlSwap</t>
+  </si>
+  <si>
+    <t>sw01#0000</t>
+  </si>
+  <si>
+    <t>qlMakeCms</t>
+  </si>
+  <si>
+    <t>sw02#0000</t>
+  </si>
+  <si>
+    <t>qlSwapLegBPS</t>
+  </si>
+  <si>
+    <t>qlSwapLegNPV</t>
+  </si>
+  <si>
+    <t>qlSwapStartDate</t>
+  </si>
+  <si>
+    <t>qlSwapMaturityDate</t>
+  </si>
+  <si>
+    <t>qlSwapLegAnalysis</t>
+  </si>
+  <si>
     <t>SwaptionVolatility</t>
   </si>
   <si>
@@ -2095,6 +2201,93 @@
     <t>1.8.2</t>
   </si>
   <si>
+    <t>VanillaSwap</t>
+  </si>
+  <si>
+    <t>qlVanillaSwap</t>
+  </si>
+  <si>
+    <t>vs01#0000</t>
+  </si>
+  <si>
+    <t>qlMakeVanillaSwap</t>
+  </si>
+  <si>
+    <t>vs02#0000</t>
+  </si>
+  <si>
+    <t>qlMakeIMMSwap</t>
+  </si>
+  <si>
+    <t>vs03#0000</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFromSwapIndex</t>
+  </si>
+  <si>
+    <t>vs04#0000</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFromSwapRateHelper</t>
+  </si>
+  <si>
+    <t>vs05#0000</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFixedLegBPS</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFixedLegNPV</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFairRate</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFloatingLegBPS</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFloatingLegNPV</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFairSpread</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapType</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapNominal</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFixedRate</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFixedDayCount</t>
+  </si>
+  <si>
+    <t>30/360 (Bond Basis)</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapSpread</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFloatingDayCount</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapPaymentConvention</t>
+  </si>
+  <si>
+    <t>Following</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFixedLegAnalysis</t>
+  </si>
+  <si>
+    <t>qlVanillaSwapFloatingLegAnalysis</t>
+  </si>
+  <si>
     <t>Volatilities</t>
   </si>
   <si>
@@ -2102,9 +2295,6 @@
   </si>
   <si>
     <t>qlVolatilityTermStructureBusinessDayConvention</t>
-  </si>
-  <si>
-    <t>Following</t>
   </si>
   <si>
     <t>qlVolatilityTermStructureOptionDateFromTenor</t>
@@ -2568,7 +2758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2615,102 +2805,122 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>544</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>671</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>682</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>685</v>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -2719,6 +2929,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3">
+        <v>932273.96426601196</v>
+      </c>
+      <c r="C3">
+        <v>932273.96426601196</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D8" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>932273.96426601196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5">
+        <v>42646</v>
+      </c>
+      <c r="C5">
+        <v>42646</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3">
+        <v>42645</v>
+      </c>
+      <c r="C3">
+        <v>42645</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D48" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4">
+        <v>42647</v>
+      </c>
+      <c r="C4">
+        <v>42647</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7">
+        <v>42645</v>
+      </c>
+      <c r="C7">
+        <v>42645</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27">
+        <v>-183.89722455577379</v>
+      </c>
+      <c r="C27">
+        <v>-183.89722455577379</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E27">
+        <v>-183.89722455577379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28">
+        <v>4.5537340619307881E-4</v>
+      </c>
+      <c r="C28">
+        <v>4.5537340619307838E-4</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E28">
+        <v>4.5537340619307838E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29">
+        <v>7.6102932637914364E-5</v>
+      </c>
+      <c r="C29">
+        <v>7.6102932637914364E-5</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E29">
+        <v>7.6102932637914364E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30">
+        <v>-1.3594485829067323E-7</v>
+      </c>
+      <c r="C30">
+        <v>-1.3594485829067323E-7</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E30">
+        <v>-1.3594485829067323E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31">
+        <v>-7.3559230485996778</v>
+      </c>
+      <c r="C31">
+        <v>-7.3559230485996778</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E31">
+        <v>-7.3559230485996778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D32" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D37" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>315</v>
+      </c>
+      <c r="B38" t="s">
+        <v>316</v>
+      </c>
+      <c r="C38" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D38" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" t="s">
+        <v>324</v>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="C44">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E44">
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45">
+        <v>1.0277777777777777</v>
+      </c>
+      <c r="C45">
+        <v>1.0277777777777777</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E45">
+        <v>1.0277777777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46">
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="C46">
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E46">
+        <v>4.9999999999999822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47">
+        <v>720</v>
+      </c>
+      <c r="C47">
+        <v>720</v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E47">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2764,7 +4008,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -2782,7 +4026,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B4">
         <v>0.99999971334842819</v>
@@ -2800,7 +4044,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B5">
         <v>0.99999971334842819</v>
@@ -2818,7 +4062,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2836,7 +4080,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2854,7 +4098,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B8">
         <v>3.4142135623730949</v>
@@ -2872,7 +4116,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="B9">
         <v>0.50000000000000011</v>
@@ -2890,25 +4134,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B11">
         <v>1.4142135623730951</v>
@@ -2926,7 +4170,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="B12">
         <v>1.4142135623730951</v>
@@ -2944,7 +4188,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="B13">
         <v>1.4142135623730949</v>
@@ -2962,7 +4206,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2980,7 +4224,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2998,7 +4242,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="B16">
         <v>1.4142135623730951</v>
@@ -3016,7 +4260,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3034,20 +4278,20 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3055,7 +4299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3101,7 +4345,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B3">
         <v>0.3090169943749474</v>
@@ -3119,7 +4363,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="B4" s="6">
         <v>5.7870370370370366E-5</v>
@@ -3132,12 +4376,12 @@
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -3155,7 +4399,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3173,7 +4417,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3191,7 +4435,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3209,128 +4453,128 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3384,43 +4628,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3438,25 +4682,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3474,7 +4718,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3492,142 +4736,142 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E9" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="C14" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +4879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3681,43 +4925,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3735,7 +4979,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B6" s="7">
         <v>42676</v>
@@ -3753,7 +4997,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3771,7 +5015,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="B8">
         <v>-47.519444444444446</v>
@@ -3789,7 +5033,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B9" s="7">
         <v>25569</v>
@@ -3810,7 +5054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
@@ -3856,7 +5100,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B3">
         <v>0.38292492254802624</v>
@@ -3874,7 +5118,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B4">
         <v>0.30853753872598688</v>
@@ -3892,7 +5136,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B5">
         <v>2.5066282746310002</v>
@@ -3910,7 +5154,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3928,7 +5172,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B7">
         <v>0.35206532676429952</v>
@@ -3946,7 +5190,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B8">
         <v>0.3989422804014327</v>
@@ -3964,7 +5208,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="B9">
         <v>2.5066282746309976</v>
@@ -3982,7 +5226,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -4000,7 +5244,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -4018,7 +5262,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -4036,7 +5280,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -4054,7 +5298,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -4072,7 +5316,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -4090,7 +5334,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B16">
         <v>0.38292492254802624</v>
@@ -4108,7 +5352,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B17">
         <v>0.69146246127401323</v>
@@ -4126,7 +5370,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B18">
         <v>0.69146246127401323</v>
@@ -4144,7 +5388,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B19">
         <v>1.8057389857858896</v>
@@ -4162,7 +5406,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="B20">
         <v>1.8057389857858896</v>
@@ -4180,7 +5424,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B21">
         <v>0.35206532676429947</v>
@@ -4198,7 +5442,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="B22">
         <v>0.35206532676429947</v>
@@ -4216,7 +5460,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B23">
         <v>-0.17603266338214973</v>
@@ -4234,7 +5478,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B24">
         <v>-4.8228126954013624E-4</v>
@@ -4252,7 +5496,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="B25">
         <v>0.35206532676429952</v>
@@ -4270,7 +5514,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B26">
         <v>0.30853753872598699</v>
@@ -4288,7 +5532,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B27">
         <v>-0.69146246127401323</v>
@@ -4306,7 +5550,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B28">
         <v>0.30853753872598688</v>
@@ -4324,7 +5568,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B29">
         <v>0.69146246127401312</v>
@@ -4342,7 +5586,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B30">
         <v>-0.30853753872598688</v>
@@ -4360,7 +5604,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B31">
         <v>0.69146246127401312</v>
@@ -4378,7 +5622,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="B32">
         <v>-0.30853753872598688</v>
@@ -4396,43 +5640,43 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="B33" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="C33" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E33" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="B34" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E34" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="B35">
         <v>0.69146246127401323</v>
@@ -4450,7 +5694,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="B36">
         <v>1.8057389857858896</v>
@@ -4468,7 +5712,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B37">
         <v>0.35206532676429947</v>
@@ -4486,7 +5730,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="B38">
         <v>-0.17603266338214973</v>
@@ -4504,7 +5748,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="B39">
         <v>-4.8228126954013624E-4</v>
@@ -4522,290 +5766,290 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="B40" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="C40" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E40" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="C41" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E41" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B42" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="C42" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="B43" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="C43" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E43" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="B44" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C44" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E44" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="C45" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E45" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="B46" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="C46" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E46" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="B47" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="C47" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E47" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E48" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="B49" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="C49" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E49" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="B50" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="C50" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E50" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="B51" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="C51" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E51" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="C52" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E52" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="B53" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E53" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="B54" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E54" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B55" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E55" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +6057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4859,20 +6103,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +6124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -4926,7 +6170,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -4944,7 +6188,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4962,7 +6206,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4980,7 +6224,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4998,7 +6242,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -5016,7 +6260,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -5034,7 +6278,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5043,7 +6287,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5052,7 +6296,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5061,133 +6305,133 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="B12" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="C14" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="B15" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="B16" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="C16" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="B18" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="C18" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -5205,7 +6449,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -5223,7 +6467,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -5241,7 +6485,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -5259,25 +6503,25 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="B23" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C23" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -5295,20 +6539,20 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="B25" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="C25" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5316,7 +6560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -5362,7 +6606,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="B3">
         <v>42678</v>
@@ -5380,7 +6624,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="B4">
         <v>42681</v>
@@ -5398,7 +6642,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B5">
         <v>42681</v>
@@ -5416,7 +6660,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B6" s="7">
         <v>42681</v>
@@ -5434,19 +6678,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E7" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5464,7 +6708,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="B9" s="7" t="e">
         <v>#NUM!</v>
@@ -5482,7 +6726,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -5500,79 +6744,79 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="B11" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E11" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="C13" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="B14" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="C14" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5590,82 +6834,82 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="C17" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C18" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="B19" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="C19" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="C20" t="e">
         <v>#NAME?</v>
@@ -5680,10 +6924,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="C21" t="e">
         <v>#NAME?</v>
@@ -5698,7 +6942,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5716,79 +6960,79 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="B23" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="C23" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="B24" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="B25" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C25" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="B26" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="C26" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5806,25 +7050,25 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="B28" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="C28" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E28" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -5842,7 +7086,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -5860,7 +7104,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="B31" t="s">
         <v>113</v>
@@ -5878,7 +7122,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -5896,7 +7140,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -5914,25 +7158,25 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="B34" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C34" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E34" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5946,644 +7190,6 @@
       </c>
       <c r="E35">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D19" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B4" s="7">
-        <v>25573</v>
-      </c>
-      <c r="C4" s="8">
-        <v>25573</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E4" s="7">
-        <v>25573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B6" s="7">
-        <v>25570</v>
-      </c>
-      <c r="C6" s="7">
-        <v>25570</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6" s="7">
-        <v>25570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B10" s="7">
-        <v>25570</v>
-      </c>
-      <c r="C10" s="8">
-        <v>25570</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10" s="7">
-        <v>25570</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B11" s="7">
-        <v>25573</v>
-      </c>
-      <c r="C11" s="8">
-        <v>25573</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E11" s="7">
-        <v>25573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>554</v>
-      </c>
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>555</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>556</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>557</v>
-      </c>
-      <c r="B15" t="s">
-        <v>558</v>
-      </c>
-      <c r="C15" t="s">
-        <v>558</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>559</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>560</v>
-      </c>
-      <c r="B17" t="s">
-        <v>561</v>
-      </c>
-      <c r="C17" t="s">
-        <v>561</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>562</v>
-      </c>
-      <c r="B18" t="s">
-        <v>563</v>
-      </c>
-      <c r="C18" t="s">
-        <v>563</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>564</v>
-      </c>
-      <c r="B19" t="s">
-        <v>565</v>
-      </c>
-      <c r="C19" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E19" t="s">
-        <v>565</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B5">
-        <v>2.6897035576518178E-3</v>
-      </c>
-      <c r="C5">
-        <v>2.6897035576518178E-3</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5">
-        <v>2.6897035576518178E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B7">
-        <v>0.05</v>
-      </c>
-      <c r="C7">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>574</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>575</v>
-      </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C10" t="s">
-        <v>577</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>578</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>579</v>
-      </c>
-      <c r="B12">
-        <v>0.01</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>580</v>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>581</v>
-      </c>
-      <c r="B14">
-        <v>0.01</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B15">
-        <v>-0.75</v>
-      </c>
-      <c r="C15">
-        <v>-0.75</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15">
-        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -7575,6 +8181,644 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D19" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4" s="7">
+        <v>25573</v>
+      </c>
+      <c r="C4" s="8">
+        <v>25573</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" s="7">
+        <v>25573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B6" s="7">
+        <v>25570</v>
+      </c>
+      <c r="C6" s="7">
+        <v>25570</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" s="7">
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="7">
+        <v>25570</v>
+      </c>
+      <c r="C10" s="8">
+        <v>25570</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" s="7">
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="7">
+        <v>25573</v>
+      </c>
+      <c r="C11" s="8">
+        <v>25573</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" s="7">
+        <v>25573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C15" t="s">
+        <v>582</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>584</v>
+      </c>
+      <c r="B17" t="s">
+        <v>585</v>
+      </c>
+      <c r="C17" t="s">
+        <v>585</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>586</v>
+      </c>
+      <c r="B18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" t="s">
+        <v>587</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>588</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" t="s">
+        <v>589</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D15" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5">
+        <v>2.6897035576518178E-3</v>
+      </c>
+      <c r="C5">
+        <v>2.6897035576518178E-3</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>2.6897035576518178E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" t="s">
+        <v>601</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>606</v>
+      </c>
+      <c r="B15">
+        <v>-0.75</v>
+      </c>
+      <c r="C15">
+        <v>-0.75</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>-0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7619,7 +8863,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7637,7 +8881,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="B4">
         <v>2.7777777777777779E-3</v>
@@ -7655,7 +8899,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7673,7 +8917,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B6" s="7">
         <v>42645</v>
@@ -7691,7 +8935,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
@@ -7709,61 +8953,61 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="B8" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="C8" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E8" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="C10" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="B11" s="7" t="e">
         <v>#NUM!</v>
@@ -7781,7 +9025,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -7799,7 +9043,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -7817,7 +9061,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -7835,7 +9079,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -7853,7 +9097,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -7871,7 +9115,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="B17" t="e">
         <v>#NUM!</v>
@@ -7889,25 +9133,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="B18" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="C18" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -7925,7 +9169,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -7946,7 +9190,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D9" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6">
+        <v>-4.9591843073892612</v>
+      </c>
+      <c r="C6">
+        <v>-4.9591843073892612</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6">
+        <v>-4.9591843073892612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7">
+        <v>42645</v>
+      </c>
+      <c r="C7">
+        <v>42645</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8">
+        <v>42647</v>
+      </c>
+      <c r="C8">
+        <v>42647</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -7992,7 +9411,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8010,7 +9429,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8028,7 +9447,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="B5">
         <v>7.4999999999999997E-2</v>
@@ -8046,7 +9465,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="B6">
         <v>8.611111111111111E-2</v>
@@ -8064,25 +9483,25 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="B7" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E7" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="B8" t="s">
         <v>113</v>
@@ -8100,7 +9519,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="B9" s="4">
         <v>42678</v>
@@ -8118,7 +9537,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="B10">
         <v>8.3333333333333329E-2</v>
@@ -8136,7 +9555,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="B11">
         <v>8.3333333333333329E-2</v>
@@ -8154,61 +9573,61 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="B12" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="C12" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E12" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="B13" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="C13" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="B14" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="C14" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="B15" t="e">
         <v>#N/A</v>
@@ -8226,7 +9645,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="B16" t="e">
         <v>#N/A</v>
@@ -8244,7 +9663,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="B17" t="e">
         <v>#N/A</v>
@@ -8262,7 +9681,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="B18" t="e">
         <v>#N/A</v>
@@ -8280,7 +9699,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -8298,7 +9717,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -8316,7 +9735,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -8334,7 +9753,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="B22" t="e">
         <v>#N/A</v>
@@ -8352,7 +9771,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
@@ -8370,7 +9789,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
@@ -8388,7 +9807,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="B25" t="e">
         <v>#N/A</v>
@@ -8406,7 +9825,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="B26" t="e">
         <v>#N/A</v>
@@ -8424,7 +9843,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="B27" t="e">
         <v>#N/A</v>
@@ -8442,7 +9861,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="B28" t="e">
         <v>#VALUE!</v>
@@ -8460,7 +9879,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="B29" t="e">
         <v>#VALUE!</v>
@@ -8481,7 +9900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -8527,25 +9946,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="B3" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="C3" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D25" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="B4">
         <v>42738</v>
@@ -8563,7 +9982,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="B5">
         <v>42736</v>
@@ -8581,7 +10000,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8599,7 +10018,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -8617,7 +10036,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8635,7 +10054,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -8653,7 +10072,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="B10">
         <v>-180</v>
@@ -8671,7 +10090,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="B11">
         <v>-180</v>
@@ -8689,7 +10108,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="B12">
         <v>-252.99872090438052</v>
@@ -8707,151 +10126,151 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="B13" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="C13" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E13" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="B14" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="C14" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="B15" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="C15" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E15" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="B16" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="C16" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="B17" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="C17" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="B18" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="C18" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="B19" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="C19" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E19" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="B20" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="C20" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8869,7 +10288,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="B22">
         <v>42736</v>
@@ -8887,7 +10306,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -8905,7 +10324,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="B24">
         <v>8.3333333333333332E-3</v>
@@ -8923,7 +10342,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="B25">
         <v>42739</v>
@@ -8944,7 +10363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -8990,25 +10409,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="C3" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -9026,7 +10445,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -9044,7 +10463,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -9062,7 +10481,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -9080,7 +10499,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -9098,7 +10517,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -9116,7 +10535,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -9134,7 +10553,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -9155,7 +10574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -9201,20 +10620,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="B3" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="C3" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -9222,7 +10641,416 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D22" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B8">
+        <v>-0.67739587129550227</v>
+      </c>
+      <c r="C8">
+        <v>-0.67739587129550227</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8">
+        <v>-0.67739587129550227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9">
+        <v>-33869.793564775115</v>
+      </c>
+      <c r="C9">
+        <v>-33869.793564775115</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9">
+        <v>-33869.793564775115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B10">
+        <v>142.62616569880501</v>
+      </c>
+      <c r="C10">
+        <v>142.62616569880501</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10">
+        <v>142.62616569880501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B11">
+        <v>4.477796795487806</v>
+      </c>
+      <c r="C11">
+        <v>4.477796795487806</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11">
+        <v>4.477796795487806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B12">
+        <v>966143.7578307871</v>
+      </c>
+      <c r="C12">
+        <v>966143.7578307871</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12">
+        <v>966143.7578307871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13">
+        <v>-20.819925665350592</v>
+      </c>
+      <c r="C13">
+        <v>-20.819925665350592</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13">
+        <v>-20.819925665350592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" t="s">
+        <v>737</v>
+      </c>
+      <c r="C14" t="s">
+        <v>737</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>738</v>
+      </c>
+      <c r="B15">
+        <v>1000000</v>
+      </c>
+      <c r="C15">
+        <v>1000000</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>739</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>740</v>
+      </c>
+      <c r="B17" t="s">
+        <v>741</v>
+      </c>
+      <c r="C17" t="s">
+        <v>741</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E17" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>742</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>744</v>
+      </c>
+      <c r="B20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>746</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>747</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -9268,7 +11096,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>686</v>
+        <v>749</v>
       </c>
       <c r="B3">
         <v>23.948673390030997</v>
@@ -9286,25 +11114,25 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>750</v>
       </c>
       <c r="B4" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="C4" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D36" si="0">IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>689</v>
+        <v>751</v>
       </c>
       <c r="B5">
         <v>42648</v>
@@ -9322,7 +11150,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>752</v>
       </c>
       <c r="B6">
         <v>-1.7976931348623157E+308</v>
@@ -9340,7 +11168,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>691</v>
+        <v>753</v>
       </c>
       <c r="B7">
         <v>1.7976931348623157E+308</v>
@@ -9358,7 +11186,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>692</v>
+        <v>754</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -9376,7 +11204,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>693</v>
+        <v>755</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -9394,7 +11222,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>694</v>
+        <v>756</v>
       </c>
       <c r="B10">
         <v>3.3161907871456142</v>
@@ -9412,7 +11240,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>695</v>
+        <v>757</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -9430,7 +11258,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>696</v>
+        <v>758</v>
       </c>
       <c r="B12">
         <v>2.7777777777777779E-3</v>
@@ -9448,7 +11276,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>697</v>
+        <v>759</v>
       </c>
       <c r="B13">
         <v>0.10997121336749448</v>
@@ -9466,7 +11294,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>698</v>
+        <v>760</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -9484,7 +11312,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>699</v>
+        <v>761</v>
       </c>
       <c r="B15">
         <v>2.7777777777777779E-3</v>
@@ -9502,7 +11330,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>700</v>
+        <v>762</v>
       </c>
       <c r="B16">
         <v>1.0000000000000011</v>
@@ -9520,7 +11348,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>701</v>
+        <v>763</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -9538,25 +11366,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>702</v>
+        <v>764</v>
       </c>
       <c r="B18" t="s">
-        <v>703</v>
+        <v>765</v>
       </c>
       <c r="C18" t="s">
-        <v>703</v>
+        <v>765</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>703</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
       <c r="B19" t="e">
         <v>#VALUE!</v>
@@ -9574,43 +11402,43 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>705</v>
+        <v>767</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>706</v>
+        <v>768</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>707</v>
+        <v>769</v>
       </c>
       <c r="B22">
         <v>42648</v>
@@ -9628,7 +11456,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>708</v>
+        <v>770</v>
       </c>
       <c r="B23">
         <v>2.7777777777777779E-3</v>
@@ -9646,7 +11474,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>709</v>
+        <v>771</v>
       </c>
       <c r="B24">
         <v>0.16276967485704383</v>
@@ -9664,7 +11492,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>710</v>
+        <v>772</v>
       </c>
       <c r="B25">
         <v>0.20543416674806414</v>
@@ -9682,7 +11510,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>711</v>
+        <v>773</v>
       </c>
       <c r="B26">
         <v>-5.6930143586703347E-4</v>
@@ -9700,61 +11528,61 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>712</v>
+        <v>774</v>
       </c>
       <c r="B27">
         <v>816.38481984485099</v>
       </c>
       <c r="C27">
-        <v>816.38970366714</v>
+        <v>816.38481984485099</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E27">
-        <v>816.38970366714</v>
+        <v>816.38481984485099</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>713</v>
+        <v>775</v>
       </c>
       <c r="B28">
         <v>55.846414299893993</v>
       </c>
       <c r="C28">
-        <v>55.846414299893993</v>
+        <v>55.847011488224858</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E28">
-        <v>55.846414299893993</v>
+        <v>55.847011488224858</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>714</v>
+        <v>776</v>
       </c>
       <c r="B29">
         <v>5.6930143586703347E-4</v>
       </c>
       <c r="C29">
-        <v>5.6930143586703347E-4</v>
+        <v>1.1139404844395559E-3</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E29">
-        <v>5.6930143586703347E-4</v>
+        <v>1.1139404844395559E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>715</v>
+        <v>777</v>
       </c>
       <c r="B30">
         <v>0.85719125008922603</v>
@@ -9772,7 +11600,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>716</v>
+        <v>778</v>
       </c>
       <c r="B31">
         <v>1.0562718217954301</v>
@@ -9790,25 +11618,25 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>717</v>
+        <v>779</v>
       </c>
       <c r="B32" t="s">
-        <v>718</v>
+        <v>780</v>
       </c>
       <c r="C32" t="s">
-        <v>718</v>
+        <v>780</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E32" t="s">
-        <v>718</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>719</v>
+        <v>781</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -9826,7 +11654,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>720</v>
+        <v>782</v>
       </c>
       <c r="B34" t="e">
         <v>#VALUE!</v>
@@ -9844,7 +11672,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>721</v>
+        <v>783</v>
       </c>
       <c r="B35" t="e">
         <v>#VALUE!</v>
@@ -9862,7 +11690,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>722</v>
+        <v>784</v>
       </c>
       <c r="B36" t="e">
         <v>#VALUE!</v>
@@ -10883,6 +12711,289 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" s="3" t="e">
+        <f t="shared" ref="D3:D15" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10927,43 +13038,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D42" si="0">IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -10981,25 +13092,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B7">
         <v>367</v>
@@ -11017,7 +13128,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>109574</v>
@@ -11035,7 +13146,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -11053,7 +13164,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B10">
         <v>25599</v>
@@ -11071,7 +13182,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -11089,7 +13200,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B12">
         <v>25573</v>
@@ -11107,7 +13218,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B13">
         <v>25594</v>
@@ -11125,7 +13236,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -11143,7 +13254,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -11161,61 +13272,61 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>45735</v>
@@ -11233,7 +13344,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B20">
         <v>42725</v>
@@ -11251,7 +13362,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B21">
         <v>42725</v>
@@ -11269,7 +13380,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -11287,7 +13398,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -11305,61 +13416,61 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B27">
         <v>45730</v>
@@ -11377,7 +13488,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B28">
         <v>42713</v>
@@ -11395,7 +13506,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="B29">
         <v>42713</v>
@@ -11413,7 +13524,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B30">
         <v>25569</v>
@@ -11431,7 +13542,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -11449,7 +13560,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -11467,7 +13578,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B33">
         <v>38371</v>
@@ -11485,7 +13596,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B34">
         <v>40247</v>
@@ -11503,7 +13614,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B35" s="5">
         <v>42439</v>
@@ -11516,12 +13627,12 @@
         <v>PASS</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B36">
         <v>42718</v>
@@ -11539,7 +13650,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B37">
         <v>40282</v>
@@ -11557,7 +13668,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B38">
         <v>42718</v>
@@ -11575,7 +13686,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -11593,7 +13704,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -11611,7 +13722,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B41" s="5">
         <v>42720</v>
@@ -11624,12 +13735,12 @@
         <v>FAIL</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B42" s="5">
         <v>42470</v>
@@ -11642,7 +13753,7 @@
         <v>PASS</v>
       </c>
       <c r="E42" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -11650,7 +13761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -11696,7 +13807,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>109</v>
@@ -11714,7 +13825,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B4">
         <v>364</v>
@@ -11732,7 +13843,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B5">
         <v>1.0111111111111111</v>
@@ -11753,7 +13864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -11799,7 +13910,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4">
         <v>42645</v>
@@ -11817,7 +13928,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B4" s="4">
         <v>42648</v>
@@ -11835,56 +13946,56 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -11892,7 +14003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -11938,25 +14049,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -11974,7 +14085,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -11992,7 +14103,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -12010,7 +14121,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -12028,7 +14139,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -12046,7 +14157,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -12064,25 +14175,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
@@ -12100,7 +14211,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -12118,7 +14229,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -12136,7 +14247,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
@@ -12154,7 +14265,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B15">
         <v>42709</v>
@@ -12172,7 +14283,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B16">
         <v>42703</v>
@@ -12190,7 +14301,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B17">
         <v>43070</v>
@@ -12208,7 +14319,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -12226,7 +14337,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -12244,133 +14355,133 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E24" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
         <v>115</v>
@@ -12388,7 +14499,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
         <v>113</v>
@@ -12406,985 +14517,110 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E33" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3">
-        <v>42645</v>
-      </c>
-      <c r="C3">
-        <v>42645</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D48" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="E3">
-        <v>42645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4">
-        <v>42647</v>
-      </c>
-      <c r="C4">
-        <v>42647</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E4">
-        <v>42647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7">
-        <v>42645</v>
-      </c>
-      <c r="C7">
-        <v>42645</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E7">
-        <v>42645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
         <v>269</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>272</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>276</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D25" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D26" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>278</v>
-      </c>
-      <c r="B27">
-        <v>-183.89722455577379</v>
-      </c>
-      <c r="C27">
-        <v>-183.89722455577379</v>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E27">
-        <v>-183.89722455577379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28">
-        <v>4.5537340619307881E-4</v>
-      </c>
-      <c r="C28">
-        <v>4.5537340619307838E-4</v>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E28">
-        <v>4.5537340619307838E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>280</v>
-      </c>
-      <c r="B29">
-        <v>7.6102932637914364E-5</v>
-      </c>
-      <c r="C29">
-        <v>7.6102932637914364E-5</v>
-      </c>
-      <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E29">
-        <v>7.6102932637914364E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30">
-        <v>-1.3594485829067323E-7</v>
-      </c>
-      <c r="C30">
-        <v>-1.3594485829067323E-7</v>
-      </c>
-      <c r="D30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E30">
-        <v>-1.3594485829067323E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31">
-        <v>-7.3559230485996778</v>
-      </c>
-      <c r="C31">
-        <v>-7.3559230485996778</v>
-      </c>
-      <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E31">
-        <v>-7.3559230485996778</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D32" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D33" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>286</v>
-      </c>
-      <c r="B35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D35" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" t="s">
-        <v>288</v>
-      </c>
-      <c r="D36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D37" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E37" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B38" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="D38" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E38" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>293</v>
-      </c>
-      <c r="B39" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" t="s">
-        <v>294</v>
-      </c>
-      <c r="D39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>295</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>296</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>297</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E42" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>299</v>
-      </c>
-      <c r="B43" t="s">
-        <v>300</v>
-      </c>
-      <c r="C43" t="s">
-        <v>300</v>
-      </c>
-      <c r="D43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B44">
-        <v>0.97297297297297303</v>
-      </c>
-      <c r="C44">
-        <v>0.97297297297297303</v>
-      </c>
-      <c r="D44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E44">
-        <v>0.97297297297297303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>302</v>
-      </c>
-      <c r="B45">
-        <v>1.0277777777777777</v>
-      </c>
-      <c r="C45">
-        <v>1.0277777777777777</v>
-      </c>
-      <c r="D45" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E45">
-        <v>1.0277777777777777</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46">
-        <v>4.9999999999999822</v>
-      </c>
-      <c r="C46">
-        <v>4.9999999999999822</v>
-      </c>
-      <c r="D46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E46">
-        <v>4.9999999999999822</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47">
-        <v>720</v>
-      </c>
-      <c r="C47">
-        <v>720</v>
-      </c>
-      <c r="D47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E47">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>305</v>
-      </c>
-      <c r="B48" t="s">
-        <v>306</v>
-      </c>
-      <c r="C48" t="s">
-        <v>306</v>
-      </c>
-      <c r="D48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E48" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="815">
   <si>
     <t>Group</t>
   </si>
@@ -393,6 +393,9 @@
     <t>qlBondMaturityLookup</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>qlBondMaturitySort</t>
   </si>
   <si>
@@ -1728,9 +1731,6 @@
     <t>qlRateHelperQuoteName</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>qlRateHelperQuoteIsValid</t>
   </si>
   <si>
@@ -1860,7 +1860,7 @@
     <t>obj_000a0</t>
   </si>
   <si>
-    <t>obj_00096</t>
+    <t>obj_0009f</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Bonds!D3:D54,"ERROR")</f>
@@ -2969,11 +2969,11 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Bonds!D3:D54,"FAIL")</f>
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Bonds!D3:D54,"PASS")</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <f>SUM(C4:D4)</f>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="F4" s="7">
         <f>D4/E4</f>
-        <v>0</v>
+        <v>0.91836734693877553</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Calendars!D3:D13,"ERROR")</f>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <f>COUNTIF(CapletVolatility!D3:D41,"ERROR")</f>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7">
         <f>COUNTIF(CouponVectors!D3:D15,"ERROR")</f>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Date!D3:D42,"ERROR")</f>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B9">
         <f>COUNTIF(DayCounters!D3:D5,"ERROR")</f>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Exercise!D3:D7,"ERROR")</f>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Index!D3:D34,"ERROR")</f>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Instruments!D3:D8,"ERROR")</f>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B13">
         <f>COUNTIF(Leg!D3:D48,"ERROR")</f>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B14">
         <f>COUNTIF(Math!D3:D18,"ERROR")</f>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Optimization!D3:D15,"ERROR")</f>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B16">
         <f>COUNTIF(Payoffs!D3:D16,"ERROR")</f>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B17">
         <f>COUNTIF(PiecewiseYieldCurve!D3:D9,"ERROR")</f>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B18">
         <f>COUNTIF(PricingEngines!D3:D55,"ERROR")</f>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B19">
         <f>COUNTIF(Processes!D3,"ERROR")</f>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B20">
         <f>COUNTIF(Quotes!D3:D25,"ERROR")</f>
@@ -3669,11 +3669,11 @@
       </c>
       <c r="C32" s="1">
         <f>SUM(C2:C31)</f>
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
         <f>SUM(D2:D31)</f>
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="E32" s="1">
         <f>SUM(E2:E31)</f>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F32" s="8">
         <f>D32/E32</f>
-        <v>0.87547892720306508</v>
+        <v>0.96168582375478928</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B3" s="3">
         <v>42645</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B4" s="3">
         <v>42648</v>
@@ -3768,53 +3768,53 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3866,24 +3866,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3985,41 +3985,41 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -4053,24 +4053,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B15">
         <v>42709</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B16">
         <v>42703</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B17">
         <v>43070</v>
@@ -4121,24 +4121,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4155,257 +4155,257 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B3">
         <v>932273.96426601196</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B4" t="e">
         <v>#NUM!</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B5">
         <v>42646</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3">
         <v>42645</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B4">
         <v>42647</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B7">
         <v>42645</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B27">
         <v>-183.89722455577379</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B28">
         <v>4.5537340619307881E-4</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B29">
         <v>7.6102932637914364E-5</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B30">
         <v>-1.3594485829067323E-7</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B31">
         <v>-7.3559230485996778</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B35" t="e">
         <v>#N/A</v>
@@ -5167,27 +5167,27 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" t="e">
         <v>#NAME?</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C38" t="e">
         <v>#NAME?</v>
@@ -5218,24 +5218,24 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -5252,58 +5252,58 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B44">
         <v>0.97297297297297303</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B45">
         <v>1.0277777777777777</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46">
         <v>4.9999999999999822</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B47">
         <v>720</v>
@@ -5371,19 +5371,19 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B4">
         <v>0.99999971334842819</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B5">
         <v>0.99999971334842819</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B8">
         <v>3.4142135623730949</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B9">
         <v>0.50000000000000011</v>
@@ -5554,24 +5554,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B11">
         <v>1.4142135623730951</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B12">
         <v>1.4142135623730951</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B13">
         <v>1.4142135623730949</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B16">
         <v>1.4142135623730951</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5690,19 +5690,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B3">
         <v>0.3090169943749474</v>
@@ -5771,24 +5771,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B4" s="5">
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5856,121 +5856,121 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -6022,41 +6022,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6073,24 +6073,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6124,138 +6124,138 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -6307,41 +6307,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B6" s="6">
         <v>42646</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B8">
         <v>-47.43611111111111</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B9" s="6">
         <v>25569</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B3">
         <v>0.38292492254802624</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B4">
         <v>0.30853753872598688</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B5">
         <v>2.5066282746310002</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B7">
         <v>0.35206532676429952</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B8">
         <v>0.3989422804014327</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B9">
         <v>2.5066282746309976</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B16">
         <v>0.38292492254802624</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B17">
         <v>0.69146246127401323</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B18">
         <v>0.69146246127401323</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B19">
         <v>1.8057389857858896</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B20">
         <v>1.8057389857858896</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B21">
         <v>0.35206532676429947</v>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B22">
         <v>0.35206532676429947</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B23">
         <v>-0.17603266338214973</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B24">
         <v>-4.8228126954013624E-4</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B25">
         <v>0.35206532676429952</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B26">
         <v>0.30853753872598699</v>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B27">
         <v>-0.69146246127401323</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B28">
         <v>0.30853753872598688</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B29">
         <v>0.69146246127401312</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B30">
         <v>-0.30853753872598688</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B31">
         <v>0.69146246127401312</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B32">
         <v>-0.30853753872598688</v>
@@ -6983,41 +6983,41 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B34" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C34" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B35">
         <v>0.69146246127401323</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B36">
         <v>1.8057389857858896</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B37">
         <v>0.35206532676429947</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B38">
         <v>-0.17603266338214973</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B39">
         <v>-4.8228126954013624E-4</v>
@@ -7102,274 +7102,274 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B40" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C40" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B41" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C41" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B43" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C43" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B44" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C44" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B45" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C45" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B46" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C46" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B47" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C47" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B50" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C50" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B53" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C53" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B55" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C55" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -7421,19 +7421,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -7744,126 +7744,126 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -7931,24 +7931,24 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B24">
         <v>42644</v>
@@ -7965,19 +7965,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C25" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B3">
         <v>42648</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B4">
         <v>42649</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B5">
         <v>42649</v>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B6" s="6">
         <v>42649</v>
@@ -8097,16 +8097,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>550</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8505,16 +8505,16 @@
         <v>589</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8790,16 +8790,16 @@
         <v>606</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8807,16 +8807,16 @@
         <v>607</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8824,16 +8824,16 @@
         <v>608</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9309,16 +9309,16 @@
         <v>640</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9845,16 +9845,16 @@
         <v>675</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11508,16 +11508,16 @@
         <v>772</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -11912,16 +11912,16 @@
         <v>796</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -11929,16 +11929,16 @@
         <v>797</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12250,14 +12250,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="e">
-        <v>#NAME?</v>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12267,14 +12267,14 @@
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="e">
-        <v>#NAME?</v>
+      <c r="C4" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12284,14 +12284,14 @@
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" t="e">
-        <v>#NAME?</v>
+      <c r="C5">
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12301,14 +12301,14 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="e">
-        <v>#NAME?</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12318,14 +12318,14 @@
       <c r="B7">
         <v>42647</v>
       </c>
-      <c r="C7" t="e">
-        <v>#NAME?</v>
+      <c r="C7">
+        <v>42647</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>42647</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12335,14 +12335,14 @@
       <c r="B8">
         <v>42644</v>
       </c>
-      <c r="C8" t="e">
-        <v>#NAME?</v>
+      <c r="C8">
+        <v>42644</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>42644</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12352,14 +12352,14 @@
       <c r="B9" t="b">
         <v>0</v>
       </c>
-      <c r="C9" t="e">
-        <v>#NAME?</v>
+      <c r="C9" t="b">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12369,14 +12369,14 @@
       <c r="B10">
         <v>42647</v>
       </c>
-      <c r="C10" t="e">
-        <v>#NAME?</v>
+      <c r="C10">
+        <v>42647</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>42647</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12386,14 +12386,14 @@
       <c r="B11">
         <v>42645</v>
       </c>
-      <c r="C11" t="e">
-        <v>#NAME?</v>
+      <c r="C11">
+        <v>42645</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>42645</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12403,14 +12403,14 @@
       <c r="B12">
         <v>42647</v>
       </c>
-      <c r="C12" t="e">
-        <v>#NAME?</v>
+      <c r="C12">
+        <v>42647</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>42647</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12420,14 +12420,14 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" t="e">
-        <v>#NAME?</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12437,14 +12437,14 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="e">
-        <v>#NAME?</v>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -12454,14 +12454,14 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="e">
-        <v>#NAME?</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12472,13 +12472,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12489,13 +12489,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12505,14 +12505,14 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" t="e">
-        <v>#NAME?</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12522,14 +12522,14 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" t="e">
-        <v>#NAME?</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12539,14 +12539,14 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" t="e">
-        <v>#NAME?</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -12556,14 +12556,14 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" t="e">
-        <v>#NAME?</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12573,14 +12573,14 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" t="e">
-        <v>#NAME?</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -12590,14 +12590,14 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" t="e">
-        <v>#NAME?</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -12607,14 +12607,14 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="e">
-        <v>#NAME?</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -12624,14 +12624,14 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" t="e">
-        <v>#NAME?</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -12641,14 +12641,14 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" t="e">
-        <v>#NAME?</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -12658,14 +12658,14 @@
       <c r="B27">
         <v>2.9916897506925206</v>
       </c>
-      <c r="C27" t="e">
-        <v>#NAME?</v>
+      <c r="C27">
+        <v>2.9916897506925206</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>2.9916897506925206</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -12675,14 +12675,14 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="e">
-        <v>#NAME?</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -12693,13 +12693,13 @@
         <v>0.99999999999997435</v>
       </c>
       <c r="C29" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="e">
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -12709,14 +12709,14 @@
       <c r="B30">
         <v>2.9916897506925206</v>
       </c>
-      <c r="C30" t="e">
-        <v>#NAME?</v>
+      <c r="C30">
+        <v>2.9916897506925206</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>2.9916897506925206</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -12726,14 +12726,14 @@
       <c r="B31">
         <v>2.9916897506925206</v>
       </c>
-      <c r="C31" t="e">
-        <v>#NAME?</v>
+      <c r="C31">
+        <v>2.9916897506925206</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>2.9916897506925206</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -12743,14 +12743,14 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" t="e">
-        <v>#NAME?</v>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -12760,14 +12760,14 @@
       <c r="B33">
         <v>720</v>
       </c>
-      <c r="C33" t="e">
-        <v>#NAME?</v>
+      <c r="C33">
+        <v>720</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -12777,14 +12777,14 @@
       <c r="B34">
         <v>2.7700831024930748E-3</v>
       </c>
-      <c r="C34" t="e">
-        <v>#NAME?</v>
+      <c r="C34">
+        <v>2.7700831024930748E-3</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>2.7700831024930748E-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -12794,14 +12794,14 @@
       <c r="B35">
         <v>1.5346720789435321E-5</v>
       </c>
-      <c r="C35" t="e">
-        <v>#NAME?</v>
+      <c r="C35">
+        <v>1.5346720789435321E-5</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>1.5346720789435321E-5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -12811,14 +12811,14 @@
       <c r="B36">
         <v>2.9834254143646408</v>
       </c>
-      <c r="C36" t="e">
-        <v>#NAME?</v>
+      <c r="C36">
+        <v>2.9834254143646408</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>2.9834254143646408</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -12828,14 +12828,14 @@
       <c r="B37">
         <v>718.99999999999989</v>
       </c>
-      <c r="C37" t="e">
-        <v>#NAME?</v>
+      <c r="C37">
+        <v>718.99999999999989</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>718.99999999999989</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -12845,14 +12845,14 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="e">
-        <v>#NAME?</v>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -12862,14 +12862,14 @@
       <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="e">
-        <v>#NAME?</v>
+      <c r="C39" t="s">
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -12879,14 +12879,14 @@
       <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" t="e">
-        <v>#NAME?</v>
+      <c r="C40" t="s">
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -12896,14 +12896,14 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" t="e">
-        <v>#NAME?</v>
+      <c r="C41">
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -12913,14 +12913,14 @@
       <c r="B42">
         <v>42647</v>
       </c>
-      <c r="C42" t="e">
-        <v>#NAME?</v>
+      <c r="C42">
+        <v>42647</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>42647</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -12930,14 +12930,14 @@
       <c r="B43" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="e">
-        <v>#NAME?</v>
+      <c r="C43" t="s">
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -12948,13 +12948,13 @@
         <v>#NUM!</v>
       </c>
       <c r="C44" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
       </c>
       <c r="E44" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -12965,13 +12965,13 @@
         <v>#NUM!</v>
       </c>
       <c r="C45" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
       </c>
       <c r="E45" t="e">
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -12981,14 +12981,14 @@
       <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="C46" t="e">
-        <v>#NAME?</v>
+      <c r="C46" t="s">
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -13015,14 +13015,14 @@
       <c r="B48" t="s">
         <v>96</v>
       </c>
-      <c r="C48" t="e">
-        <v>#NAME?</v>
+      <c r="C48" t="s">
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13032,14 +13032,14 @@
       <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="C49" t="e">
-        <v>#NAME?</v>
+      <c r="C49" t="s">
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -13049,14 +13049,14 @@
       <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="C50" t="e">
-        <v>#NAME?</v>
+      <c r="C50" t="s">
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -13066,14 +13066,14 @@
       <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="e">
-        <v>#NAME?</v>
+      <c r="C51" t="s">
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -13084,44 +13084,47 @@
         <v>#N/A</v>
       </c>
       <c r="C52" t="e">
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="D52" t="s">
         <v>26</v>
       </c>
       <c r="E52" t="e">
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="C53" t="e">
-        <v>#NAME?</v>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" t="e">
-        <v>#NAME?</v>
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -13173,7 +13176,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -13190,7 +13193,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -13207,7 +13210,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -13224,7 +13227,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -13241,7 +13244,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>25598</v>
@@ -13258,7 +13261,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -13292,7 +13295,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>42005</v>
@@ -13309,7 +13312,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11">
         <v>25570</v>
@@ -13326,7 +13329,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12">
         <v>25570</v>
@@ -13343,7 +13346,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13">
         <v>255</v>
@@ -13407,7 +13410,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -13424,7 +13427,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -13441,7 +13444,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>1.1111111111111112E-2</v>
@@ -13458,7 +13461,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>1.0138888888888888</v>
@@ -13475,92 +13478,92 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -13577,7 +13580,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -13594,7 +13597,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14">
         <v>42645</v>
@@ -13611,7 +13614,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15">
         <v>-5.5555555555555558E-3</v>
@@ -13628,7 +13631,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -13645,24 +13648,24 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -13679,7 +13682,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -13696,41 +13699,41 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" t="e">
         <v>#NUM!</v>
@@ -13747,7 +13750,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
@@ -13764,7 +13767,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -13781,7 +13784,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" t="e">
         <v>#NUM!</v>
@@ -13798,7 +13801,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" t="e">
         <v>#NUM!</v>
@@ -13815,7 +13818,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" t="e">
         <v>#NUM!</v>
@@ -13832,24 +13835,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" t="e">
         <v>#NUM!</v>
@@ -13866,7 +13869,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" t="e">
         <v>#NUM!</v>
@@ -13883,7 +13886,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B31" t="e">
         <v>#NUM!</v>
@@ -13900,24 +13903,24 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B33">
         <v>1.0958904109588663E-2</v>
@@ -13934,7 +13937,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -13951,24 +13954,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B36">
         <v>43012</v>
@@ -13985,41 +13988,41 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B39">
         <v>43012</v>
@@ -14036,7 +14039,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -14053,19 +14056,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -14117,7 +14120,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" t="e">
         <v>#NUM!</v>
@@ -14134,7 +14137,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B4" t="e">
         <v>#NUM!</v>
@@ -14151,7 +14154,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B5" t="e">
         <v>#NUM!</v>
@@ -14168,7 +14171,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -14185,7 +14188,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B7" t="e">
         <v>#NUM!</v>
@@ -14202,7 +14205,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B8" t="e">
         <v>#N/A</v>
@@ -14219,7 +14222,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B9" t="e">
         <v>#NUM!</v>
@@ -14236,7 +14239,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -14253,7 +14256,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -14270,41 +14273,41 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14321,19 +14324,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -14385,41 +14388,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -14436,24 +14439,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7">
         <v>367</v>
@@ -14470,7 +14473,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B8">
         <v>109574</v>
@@ -14487,7 +14490,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -14504,7 +14507,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>25599</v>
@@ -14521,7 +14524,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -14538,7 +14541,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B12">
         <v>25573</v>
@@ -14555,7 +14558,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13">
         <v>25594</v>
@@ -14572,7 +14575,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -14589,7 +14592,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -14606,58 +14609,58 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
         <v>209</v>
       </c>
-      <c r="B18" t="s">
-        <v>208</v>
-      </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19">
         <v>45735</v>
@@ -14674,7 +14677,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20">
         <v>42725</v>
@@ -14691,7 +14694,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21">
         <v>42725</v>
@@ -14708,7 +14711,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -14725,7 +14728,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -14742,58 +14745,58 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27">
         <v>45730</v>
@@ -14810,7 +14813,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B28">
         <v>42713</v>
@@ -14827,7 +14830,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B29">
         <v>42713</v>
@@ -14844,7 +14847,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B30">
         <v>25569</v>
@@ -14861,7 +14864,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -14878,7 +14881,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -14895,7 +14898,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B33">
         <v>38371</v>
@@ -14912,7 +14915,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34">
         <v>40247</v>
@@ -14929,24 +14932,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B35" s="4">
         <v>42439</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36">
         <v>42669</v>
@@ -14963,7 +14966,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37">
         <v>40282</v>
@@ -14980,7 +14983,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B38">
         <v>42669</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -15014,7 +15017,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -15031,36 +15034,36 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B41" s="4">
         <v>42659</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B42" s="4">
         <v>42470</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -15112,24 +15115,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B4">
         <v>364</v>
@@ -15146,7 +15149,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B5">
         <v>1.0111111111111111</v>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="817">
   <si>
     <t>Group</t>
   </si>
@@ -120,21 +120,33 @@
     <t>qlAssetSwap</t>
   </si>
   <si>
+    <t>as01#0000</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>qlAssetSwap2</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>as02#0000</t>
   </si>
   <si>
     <t>qlAssetSwapBondLegAnalysis</t>
   </si>
   <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
     <t>qlAssetSwapFloatingLegAnalysis</t>
   </si>
   <si>
     <t>qlAssetSwapFairSpread</t>
   </si>
   <si>
+    <t>ERROR</t>
+  </si>
+  <si>
     <t>qlAssetSwapFloatingLegBPS</t>
   </si>
   <si>
@@ -156,9 +168,6 @@
     <t>qlGaussianLHPLossmodel</t>
   </si>
   <si>
-    <t>ERROR</t>
-  </si>
-  <si>
     <t>qlIHGaussPoolLossModel</t>
   </si>
   <si>
@@ -342,9 +351,6 @@
     <t>qlBondFlowAnalysis</t>
   </si>
   <si>
-    <t>Payment Date</t>
-  </si>
-  <si>
     <t>qlBondSetCouponPricer</t>
   </si>
   <si>
@@ -1860,7 +1866,7 @@
     <t>obj_000a0</t>
   </si>
   <si>
-    <t>obj_0009f</t>
+    <t>obj_000a7</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
@@ -2911,32 +2917,32 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <f>COUNTIF(AssetSwap!D3:D12,"ERROR")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>COUNTIF(AssetSwap!D3:D12,"FAIL")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>COUNTIF(AssetSwap!D3:D12,"PASS")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <f>SUM(C2:D2)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7">
         <f>D2/E2</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <f>COUNTIF(BasketLossModels!D3:D15,"ERROR")</f>
@@ -2961,7 +2967,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Bonds!D3:D54,"ERROR")</f>
@@ -2986,7 +2992,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Calendars!D3:D13,"ERROR")</f>
@@ -3011,7 +3017,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B6">
         <f>COUNTIF(CapletVolatility!D3:D41,"ERROR")</f>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B7">
         <f>COUNTIF(CouponVectors!D3:D15,"ERROR")</f>
@@ -3061,7 +3067,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Date!D3:D42,"ERROR")</f>
@@ -3069,11 +3075,11 @@
       </c>
       <c r="C8">
         <f>COUNTIF(Date!D3:D42,"FAIL")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f>COUNTIF(Date!D3:D42,"PASS")</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <f>SUM(C8:D8)</f>
@@ -3081,12 +3087,12 @@
       </c>
       <c r="F8" s="7">
         <f>D8/E8</f>
-        <v>0.92500000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B9">
         <f>COUNTIF(DayCounters!D3:D5,"ERROR")</f>
@@ -3111,7 +3117,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Exercise!D3:D7,"ERROR")</f>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Index!D3:D34,"ERROR")</f>
@@ -3161,7 +3167,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Instruments!D3:D8,"ERROR")</f>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B13">
         <f>COUNTIF(Leg!D3:D48,"ERROR")</f>
@@ -3211,7 +3217,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B14">
         <f>COUNTIF(Math!D3:D18,"ERROR")</f>
@@ -3236,7 +3242,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Optimization!D3:D15,"ERROR")</f>
@@ -3261,7 +3267,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B16">
         <f>COUNTIF(Payoffs!D3:D16,"ERROR")</f>
@@ -3286,7 +3292,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B17">
         <f>COUNTIF(PiecewiseYieldCurve!D3:D9,"ERROR")</f>
@@ -3311,7 +3317,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B18">
         <f>COUNTIF(PricingEngines!D3:D55,"ERROR")</f>
@@ -3336,7 +3342,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B19">
         <f>COUNTIF(Processes!D3,"ERROR")</f>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B20">
         <f>COUNTIF(Quotes!D3:D25,"ERROR")</f>
@@ -3386,7 +3392,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B21">
         <f>COUNTIF(RateHelpers!D3:D35,"ERROR")</f>
@@ -3411,7 +3417,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B22">
         <f>COUNTIF(Schedules!D3:D19,"ERROR")</f>
@@ -3436,7 +3442,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B23">
         <f>COUNTIF(ShortRateModels!D3:D15,"ERROR")</f>
@@ -3461,7 +3467,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B24">
         <f>COUNTIF(SmileSection!D3:D20,"ERROR")</f>
@@ -3486,7 +3492,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B25">
         <f>COUNTIF(Swap!D3:D9,"ERROR")</f>
@@ -3511,7 +3517,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B26">
         <f>COUNTIF(SwaptionVolatility!D3:D29,"ERROR")</f>
@@ -3536,7 +3542,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B27">
         <f>COUNTIF(TermStructures!D3:D25,"ERROR")</f>
@@ -3561,7 +3567,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B28">
         <f>COUNTIF(TimeSeries!D3:D11,"ERROR")</f>
@@ -3586,7 +3592,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B29">
         <f>COUNTIF(Utilities!D3,"ERROR")</f>
@@ -3611,7 +3617,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B30">
         <f>COUNTIF(VanillaSwap!D3:D22,"ERROR")</f>
@@ -3636,7 +3642,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B31">
         <f>COUNTIF(Volatilities!D3:D36,"ERROR")</f>
@@ -3665,7 +3671,7 @@
       </c>
       <c r="B32" s="1">
         <f>SUM(B2:B31)</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1">
         <f>SUM(C2:C31)</f>
@@ -3673,15 +3679,15 @@
       </c>
       <c r="D32" s="1">
         <f>SUM(D2:D31)</f>
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E32" s="1">
         <f>SUM(E2:E31)</f>
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F32" s="8">
         <f>D32/E32</f>
-        <v>0.96168582375478928</v>
+        <v>0.96138996138996136</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +3740,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3">
         <v>42645</v>
@@ -3751,7 +3757,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B4" s="3">
         <v>42648</v>
@@ -3768,53 +3774,53 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3866,41 +3872,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3917,7 +3923,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -3926,7 +3932,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
@@ -3934,7 +3940,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3951,7 +3957,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3968,7 +3974,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3985,41 +3991,41 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4036,41 +4042,41 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B15">
         <v>42709</v>
@@ -4087,7 +4093,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B16">
         <v>42703</v>
@@ -4104,7 +4110,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B17">
         <v>43070</v>
@@ -4121,24 +4127,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4155,257 +4161,257 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4457,7 +4463,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B3">
         <v>932273.96426601196</v>
@@ -4474,7 +4480,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B4" t="e">
         <v>#NUM!</v>
@@ -4483,7 +4489,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
@@ -4491,7 +4497,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B5">
         <v>42646</v>
@@ -4508,7 +4514,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -4517,7 +4523,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
@@ -4525,7 +4531,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -4542,7 +4548,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4606,7 +4612,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B3">
         <v>42645</v>
@@ -4623,7 +4629,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B4">
         <v>42647</v>
@@ -4640,7 +4646,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -4657,7 +4663,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4674,7 +4680,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B7">
         <v>42645</v>
@@ -4691,7 +4697,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4708,7 +4714,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4725,7 +4731,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4742,7 +4748,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -4751,7 +4757,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
@@ -4759,7 +4765,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4776,7 +4782,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4810,7 +4816,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4827,7 +4833,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4844,7 +4850,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4861,7 +4867,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4878,7 +4884,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4895,7 +4901,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4912,7 +4918,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4929,7 +4935,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -4946,7 +4952,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4963,7 +4969,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4980,7 +4986,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -4997,7 +5003,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5014,7 +5020,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B27">
         <v>-183.89722455577379</v>
@@ -5031,7 +5037,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B28">
         <v>4.5537340619307881E-4</v>
@@ -5048,7 +5054,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B29">
         <v>7.6102932637914364E-5</v>
@@ -5065,7 +5071,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B30">
         <v>-1.3594485829067323E-7</v>
@@ -5082,7 +5088,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B31">
         <v>-7.3559230485996778</v>
@@ -5099,7 +5105,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -5116,7 +5122,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -5125,7 +5131,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E33" t="e">
         <v>#NUM!</v>
@@ -5133,24 +5139,24 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B35" t="e">
         <v>#N/A</v>
@@ -5159,7 +5165,7 @@
         <v>#N/A</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E35" t="e">
         <v>#N/A</v>
@@ -5167,27 +5173,27 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C36" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C37" t="e">
         <v>#NAME?</v>
@@ -5201,10 +5207,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C38" t="e">
         <v>#NAME?</v>
@@ -5218,24 +5224,24 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -5252,58 +5258,58 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C43" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B44">
         <v>0.97297297297297303</v>
@@ -5320,7 +5326,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B45">
         <v>1.0277777777777777</v>
@@ -5337,7 +5343,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B46">
         <v>4.9999999999999822</v>
@@ -5354,7 +5360,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B47">
         <v>720</v>
@@ -5371,19 +5377,19 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5435,7 +5441,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -5452,7 +5458,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B4">
         <v>0.99999971334842819</v>
@@ -5469,7 +5475,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5">
         <v>0.99999971334842819</v>
@@ -5486,7 +5492,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5503,7 +5509,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5520,7 +5526,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B8">
         <v>3.4142135623730949</v>
@@ -5537,7 +5543,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B9">
         <v>0.50000000000000011</v>
@@ -5554,24 +5560,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B11">
         <v>1.4142135623730951</v>
@@ -5588,7 +5594,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B12">
         <v>1.4142135623730951</v>
@@ -5605,7 +5611,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B13">
         <v>1.4142135623730949</v>
@@ -5622,7 +5628,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5639,7 +5645,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -5656,7 +5662,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B16">
         <v>1.4142135623730951</v>
@@ -5673,7 +5679,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5690,19 +5696,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5754,7 +5760,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B3">
         <v>0.3090169943749474</v>
@@ -5771,24 +5777,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B4" s="5">
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5805,7 +5811,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5822,7 +5828,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5839,7 +5845,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5856,121 +5862,121 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6022,41 +6028,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6073,24 +6079,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6107,7 +6113,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6124,138 +6130,138 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -6307,41 +6313,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6358,7 +6364,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B6" s="6">
         <v>42646</v>
@@ -6375,7 +6381,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B8">
         <v>-47.43611111111111</v>
@@ -6409,7 +6415,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B9" s="6">
         <v>25569</v>
@@ -6473,7 +6479,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B3">
         <v>0.38292492254802624</v>
@@ -6490,7 +6496,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B4">
         <v>0.30853753872598688</v>
@@ -6507,7 +6513,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B5">
         <v>2.5066282746310002</v>
@@ -6524,7 +6530,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6541,7 +6547,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B7">
         <v>0.35206532676429952</v>
@@ -6558,7 +6564,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B8">
         <v>0.3989422804014327</v>
@@ -6575,7 +6581,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B9">
         <v>2.5066282746309976</v>
@@ -6592,7 +6598,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -6601,7 +6607,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" t="e">
         <v>#NAME?</v>
@@ -6609,7 +6615,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -6618,7 +6624,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" t="e">
         <v>#NAME?</v>
@@ -6626,7 +6632,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -6635,7 +6641,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
@@ -6643,7 +6649,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -6652,7 +6658,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
@@ -6660,7 +6666,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -6669,7 +6675,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" t="e">
         <v>#NUM!</v>
@@ -6677,7 +6683,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -6686,7 +6692,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" t="e">
         <v>#NUM!</v>
@@ -6694,7 +6700,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B16">
         <v>0.38292492254802624</v>
@@ -6711,7 +6717,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B17">
         <v>0.69146246127401323</v>
@@ -6728,7 +6734,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B18">
         <v>0.69146246127401323</v>
@@ -6745,7 +6751,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B19">
         <v>1.8057389857858896</v>
@@ -6762,7 +6768,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B20">
         <v>1.8057389857858896</v>
@@ -6779,7 +6785,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B21">
         <v>0.35206532676429947</v>
@@ -6796,7 +6802,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B22">
         <v>0.35206532676429947</v>
@@ -6813,7 +6819,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B23">
         <v>-0.17603266338214973</v>
@@ -6830,7 +6836,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B24">
         <v>-4.8228126954013624E-4</v>
@@ -6847,7 +6853,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B25">
         <v>0.35206532676429952</v>
@@ -6864,7 +6870,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B26">
         <v>0.30853753872598699</v>
@@ -6881,7 +6887,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B27">
         <v>-0.69146246127401323</v>
@@ -6898,7 +6904,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B28">
         <v>0.30853753872598688</v>
@@ -6915,7 +6921,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B29">
         <v>0.69146246127401312</v>
@@ -6932,7 +6938,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B30">
         <v>-0.30853753872598688</v>
@@ -6949,7 +6955,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B31">
         <v>0.69146246127401312</v>
@@ -6966,7 +6972,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B32">
         <v>-0.30853753872598688</v>
@@ -6983,41 +6989,41 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B33" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C33" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B34" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C34" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B35">
         <v>0.69146246127401323</v>
@@ -7034,7 +7040,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B36">
         <v>1.8057389857858896</v>
@@ -7051,7 +7057,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B37">
         <v>0.35206532676429947</v>
@@ -7068,7 +7074,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B38">
         <v>-0.17603266338214973</v>
@@ -7085,7 +7091,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B39">
         <v>-4.8228126954013624E-4</v>
@@ -7102,274 +7108,274 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B40" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C40" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C41" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B42" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C42" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B43" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C43" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B44" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C44" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B45" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C45" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B46" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C46" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B47" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C47" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B48" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C48" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B49" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C49" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B50" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C50" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B51" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C51" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B52" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C52" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B53" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C53" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B54" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C54" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B55" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C55" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7421,19 +7427,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -7487,86 +7493,170 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="e">
-        <v>#NAME?</v>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7618,7 +7708,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -7635,7 +7725,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -7652,7 +7742,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -7669,7 +7759,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7686,7 +7776,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -7703,7 +7793,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -7720,7 +7810,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -7728,7 +7818,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -7736,7 +7826,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -7744,126 +7834,126 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C14" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C17" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B18" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C18" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -7880,7 +7970,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -7897,7 +7987,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -7914,7 +8004,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -7931,24 +8021,24 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B23" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C23" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B24">
         <v>42644</v>
@@ -7965,19 +8055,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B25" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C25" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -8029,7 +8119,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B3">
         <v>42648</v>
@@ -8046,7 +8136,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B4">
         <v>42649</v>
@@ -8063,7 +8153,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B5">
         <v>42649</v>
@@ -8080,7 +8170,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B6" s="6">
         <v>42649</v>
@@ -8097,21 +8187,21 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -8128,7 +8218,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B9" s="6" t="e">
         <v>#NUM!</v>
@@ -8137,7 +8227,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="e">
         <v>#NUM!</v>
@@ -8145,7 +8235,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -8154,7 +8244,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
@@ -8162,75 +8252,75 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B12" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C12" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B14" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C14" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8247,78 +8337,78 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C18" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B20" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C20" t="e">
         <v>#NAME?</v>
@@ -8332,10 +8422,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B21" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C21" t="e">
         <v>#NAME?</v>
@@ -8349,7 +8439,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -8366,75 +8456,75 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B23" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C23" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B25" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C25" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B26" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C26" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -8451,24 +8541,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B28" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C28" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -8485,41 +8575,41 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -8536,7 +8626,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -8553,24 +8643,24 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B34" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C34" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8634,7 +8724,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8651,7 +8741,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B4" s="6">
         <v>25573</v>
@@ -8668,7 +8758,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8685,7 +8775,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B6" s="6">
         <v>25570</v>
@@ -8702,7 +8792,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -8719,7 +8809,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -8736,24 +8826,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B10" s="6">
         <v>25570</v>
@@ -8770,7 +8860,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B11" s="6">
         <v>25573</v>
@@ -8787,75 +8877,75 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B15" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C15" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -8872,53 +8962,53 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B17" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B18" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C18" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B19" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -8970,41 +9060,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B5">
         <v>2.6897035576518178E-3</v>
@@ -9021,7 +9111,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -9038,7 +9128,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -9055,7 +9145,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9072,7 +9162,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -9089,24 +9179,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -9123,7 +9213,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -9140,7 +9230,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -9157,7 +9247,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B14">
         <v>0.01</v>
@@ -9174,7 +9264,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B15">
         <v>-0.75</v>
@@ -9238,7 +9328,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9255,7 +9345,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B4">
         <v>2.7777777777777779E-3</v>
@@ -9272,7 +9362,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -9289,7 +9379,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B6" s="6">
         <v>42645</v>
@@ -9306,75 +9396,75 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C8" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B11" s="6" t="e">
         <v>#NUM!</v>
@@ -9383,7 +9473,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6" t="e">
         <v>#NUM!</v>
@@ -9391,7 +9481,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -9400,7 +9490,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
@@ -9408,7 +9498,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -9417,7 +9507,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
@@ -9425,7 +9515,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -9434,7 +9524,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" t="e">
         <v>#NUM!</v>
@@ -9442,7 +9532,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -9451,7 +9541,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" t="e">
         <v>#NUM!</v>
@@ -9459,7 +9549,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -9468,7 +9558,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" t="e">
         <v>#NUM!</v>
@@ -9476,7 +9566,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B17" t="e">
         <v>#NUM!</v>
@@ -9485,7 +9575,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" t="e">
         <v>#NUM!</v>
@@ -9493,24 +9583,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B18" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C18" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -9519,7 +9609,7 @@
         <v>#N/A</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" t="e">
         <v>#N/A</v>
@@ -9527,7 +9617,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -9536,7 +9626,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20" t="e">
         <v>#NUM!</v>
@@ -9591,41 +9681,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9642,7 +9732,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B6">
         <v>-4.9591843073892612</v>
@@ -9659,7 +9749,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B7">
         <v>42645</v>
@@ -9676,7 +9766,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B8">
         <v>42647</v>
@@ -9693,19 +9783,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -9757,7 +9847,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9774,7 +9864,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9791,7 +9881,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B5">
         <v>7.4999999999999997E-2</v>
@@ -9808,7 +9898,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B6">
         <v>8.611111111111111E-2</v>
@@ -9825,41 +9915,41 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B9" s="3">
         <v>42678</v>
@@ -9876,7 +9966,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B10">
         <v>8.3333333333333329E-2</v>
@@ -9893,7 +9983,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B11">
         <v>8.3333333333333329E-2</v>
@@ -9910,58 +10000,58 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B12" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C12" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B13" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C13" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B14" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C14" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B15" t="e">
         <v>#N/A</v>
@@ -9970,7 +10060,7 @@
         <v>#N/A</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
@@ -9978,7 +10068,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B16" t="e">
         <v>#N/A</v>
@@ -9987,7 +10077,7 @@
         <v>#N/A</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" t="e">
         <v>#N/A</v>
@@ -9995,7 +10085,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B17" t="e">
         <v>#N/A</v>
@@ -10004,7 +10094,7 @@
         <v>#N/A</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" t="e">
         <v>#N/A</v>
@@ -10012,7 +10102,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B18" t="e">
         <v>#N/A</v>
@@ -10021,7 +10111,7 @@
         <v>#N/A</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" t="e">
         <v>#N/A</v>
@@ -10029,7 +10119,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -10038,7 +10128,7 @@
         <v>#N/A</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" t="e">
         <v>#N/A</v>
@@ -10046,7 +10136,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -10055,7 +10145,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20" t="e">
         <v>#NUM!</v>
@@ -10063,7 +10153,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -10072,7 +10162,7 @@
         <v>#N/A</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E21" t="e">
         <v>#N/A</v>
@@ -10080,7 +10170,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B22" t="e">
         <v>#N/A</v>
@@ -10089,7 +10179,7 @@
         <v>#N/A</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22" t="e">
         <v>#N/A</v>
@@ -10097,7 +10187,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
@@ -10106,7 +10196,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E23" t="e">
         <v>#NUM!</v>
@@ -10114,7 +10204,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
@@ -10123,7 +10213,7 @@
         <v>#N/A</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" t="e">
         <v>#N/A</v>
@@ -10131,7 +10221,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B25" t="e">
         <v>#N/A</v>
@@ -10140,7 +10230,7 @@
         <v>#N/A</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E25" t="e">
         <v>#N/A</v>
@@ -10148,7 +10238,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B26" t="e">
         <v>#N/A</v>
@@ -10157,7 +10247,7 @@
         <v>#N/A</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E26" t="e">
         <v>#N/A</v>
@@ -10165,7 +10255,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B27" t="e">
         <v>#N/A</v>
@@ -10174,7 +10264,7 @@
         <v>#N/A</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27" t="e">
         <v>#N/A</v>
@@ -10182,7 +10272,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B28" t="e">
         <v>#VALUE!</v>
@@ -10191,7 +10281,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E28" t="e">
         <v>#VALUE!</v>
@@ -10199,7 +10289,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B29" t="e">
         <v>#VALUE!</v>
@@ -10208,7 +10298,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" t="e">
         <v>#VALUE!</v>
@@ -10263,24 +10353,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B4">
         <v>42738</v>
@@ -10297,7 +10387,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B5">
         <v>42736</v>
@@ -10314,7 +10404,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10331,24 +10421,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -10365,7 +10455,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -10382,7 +10472,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B10">
         <v>-180</v>
@@ -10399,7 +10489,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B11">
         <v>-180</v>
@@ -10416,7 +10506,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B12">
         <v>-252.99872090438052</v>
@@ -10433,143 +10523,143 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C13" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B14" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C14" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B15" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C15" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B16" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C16" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B17" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C17" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B19" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C19" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B20" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C20" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10586,7 +10676,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B22">
         <v>42736</v>
@@ -10603,7 +10693,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -10620,7 +10710,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B24">
         <v>8.3333333333333332E-3</v>
@@ -10637,7 +10727,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B25">
         <v>42739</v>
@@ -10701,24 +10791,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -10735,7 +10825,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -10752,7 +10842,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -10769,7 +10859,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -10786,7 +10876,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -10803,7 +10893,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -10820,7 +10910,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -10837,7 +10927,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -10846,7 +10936,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" t="e">
         <v>#NAME?</v>
@@ -10901,19 +10991,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -10965,7 +11055,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" t="e">
         <v>#N/A</v>
@@ -10974,7 +11064,7 @@
         <v>#N/A</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" t="e">
         <v>#N/A</v>
@@ -10982,7 +11072,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="e">
         <v>#N/A</v>
@@ -10991,7 +11081,7 @@
         <v>#N/A</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" t="e">
         <v>#N/A</v>
@@ -10999,7 +11089,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" t="e">
         <v>#N/A</v>
@@ -11008,7 +11098,7 @@
         <v>#N/A</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
@@ -11016,24 +11106,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" t="e">
         <v>#VALUE!</v>
@@ -11042,7 +11132,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" t="e">
         <v>#VALUE!</v>
@@ -11050,7 +11140,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -11059,7 +11149,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
@@ -11067,24 +11157,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" t="e">
         <v>#VALUE!</v>
@@ -11093,7 +11183,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" t="e">
         <v>#VALUE!</v>
@@ -11101,7 +11191,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="e">
         <v>#VALUE!</v>
@@ -11110,7 +11200,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" t="e">
         <v>#VALUE!</v>
@@ -11118,7 +11208,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" t="e">
         <v>#VALUE!</v>
@@ -11127,7 +11217,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" t="e">
         <v>#VALUE!</v>
@@ -11135,24 +11225,24 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" t="e">
         <v>#VALUE!</v>
@@ -11161,7 +11251,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" t="e">
         <v>#VALUE!</v>
@@ -11169,19 +11259,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -11233,92 +11323,92 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B5" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C5" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B8">
         <v>-0.67739587129550227</v>
@@ -11335,7 +11425,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B9">
         <v>-33869.793564775115</v>
@@ -11352,7 +11442,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B10">
         <v>142.62616569880501</v>
@@ -11369,7 +11459,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B11">
         <v>4.477796795487806</v>
@@ -11386,7 +11476,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B12">
         <v>966143.7578307871</v>
@@ -11403,7 +11493,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B13">
         <v>-20.819925665350592</v>
@@ -11420,24 +11510,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B14" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C14" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B15">
         <v>1000000</v>
@@ -11454,7 +11544,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -11471,24 +11561,24 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B17" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C17" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -11505,70 +11595,70 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C20" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -11620,7 +11710,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B3">
         <v>23.948673390030997</v>
@@ -11637,24 +11727,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B5">
         <v>42648</v>
@@ -11671,7 +11761,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B6">
         <v>-1.7976931348623157E+308</v>
@@ -11688,7 +11778,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B7">
         <v>1.7976931348623157E+308</v>
@@ -11705,7 +11795,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -11714,7 +11804,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
@@ -11722,7 +11812,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -11739,7 +11829,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B10">
         <v>3.3161907871456142</v>
@@ -11756,7 +11846,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -11765,7 +11855,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
@@ -11773,7 +11863,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B12">
         <v>2.7777777777777779E-3</v>
@@ -11790,7 +11880,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B13">
         <v>0.10997121336749448</v>
@@ -11807,7 +11897,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -11824,7 +11914,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B15">
         <v>2.7777777777777779E-3</v>
@@ -11841,7 +11931,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B16">
         <v>1.0000000000000011</v>
@@ -11858,7 +11948,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11875,24 +11965,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B18" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C18" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B19" t="e">
         <v>#VALUE!</v>
@@ -11901,7 +11991,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" t="e">
         <v>#VALUE!</v>
@@ -11909,41 +11999,41 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B22">
         <v>42648</v>
@@ -11960,7 +12050,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B23">
         <v>2.7777777777777779E-3</v>
@@ -11977,7 +12067,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B24">
         <v>0.16276901888733139</v>
@@ -11994,7 +12084,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B25">
         <v>0.20553128316863267</v>
@@ -12011,7 +12101,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B26">
         <v>-5.6930143586703347E-4</v>
@@ -12028,7 +12118,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B27">
         <v>816.38970366714</v>
@@ -12045,7 +12135,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B28">
         <v>55.846414299893993</v>
@@ -12062,7 +12152,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B29">
         <v>5.6930143586703347E-4</v>
@@ -12079,7 +12169,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B30">
         <v>0.85719125008922603</v>
@@ -12096,7 +12186,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B31">
         <v>1.0563094653822682</v>
@@ -12113,24 +12203,24 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B32" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C32" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -12139,7 +12229,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E33" t="e">
         <v>#NUM!</v>
@@ -12147,7 +12237,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B34" t="e">
         <v>#VALUE!</v>
@@ -12156,7 +12246,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E34" t="e">
         <v>#NAME?</v>
@@ -12164,7 +12254,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B35" t="e">
         <v>#VALUE!</v>
@@ -12173,7 +12263,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E35" t="e">
         <v>#NAME?</v>
@@ -12181,7 +12271,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B36" t="e">
         <v>#VALUE!</v>
@@ -12190,7 +12280,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E36" t="e">
         <v>#NAME?</v>
@@ -12245,7 +12335,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12262,24 +12352,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -12296,7 +12386,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12313,7 +12403,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>42647</v>
@@ -12330,7 +12420,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>42644</v>
@@ -12347,7 +12437,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -12364,7 +12454,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>42647</v>
@@ -12381,7 +12471,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>42645</v>
@@ -12398,7 +12488,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>42647</v>
@@ -12415,7 +12505,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12432,7 +12522,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -12449,7 +12539,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12466,7 +12556,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -12483,7 +12573,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12500,7 +12590,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12517,7 +12607,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12534,7 +12624,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12551,7 +12641,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12568,7 +12658,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12585,7 +12675,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12602,7 +12692,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12619,7 +12709,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -12636,7 +12726,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -12653,7 +12743,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>2.9916897506925206</v>
@@ -12670,7 +12760,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12687,7 +12777,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>0.99999999999997435</v>
@@ -12704,7 +12794,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>2.9916897506925206</v>
@@ -12721,7 +12811,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>2.9916897506925206</v>
@@ -12738,7 +12828,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12755,7 +12845,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>720</v>
@@ -12772,7 +12862,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>2.7700831024930748E-3</v>
@@ -12789,7 +12879,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35">
         <v>1.5346720789435321E-5</v>
@@ -12806,7 +12896,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <v>2.9834254143646408</v>
@@ -12823,7 +12913,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B37">
         <v>718.99999999999989</v>
@@ -12840,7 +12930,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12857,41 +12947,41 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -12908,7 +12998,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B42">
         <v>42647</v>
@@ -12925,24 +13015,24 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" t="e">
         <v>#NUM!</v>
@@ -12951,7 +13041,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E44" t="e">
         <v>#NUM!</v>
@@ -12959,7 +13049,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" t="e">
         <v>#NUM!</v>
@@ -12968,7 +13058,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E45" t="e">
         <v>#NUM!</v>
@@ -12976,27 +13066,27 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" t="e">
         <v>#NAME?</v>
@@ -13010,75 +13100,75 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" t="e">
         <v>#N/A</v>
@@ -13087,7 +13177,7 @@
         <v>#N/A</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E52" t="e">
         <v>#N/A</v>
@@ -13095,36 +13185,36 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -13176,24 +13266,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -13210,7 +13300,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -13227,7 +13317,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -13244,7 +13334,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>25598</v>
@@ -13261,7 +13351,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -13278,7 +13368,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -13295,7 +13385,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10">
         <v>42005</v>
@@ -13312,7 +13402,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>25570</v>
@@ -13329,7 +13419,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <v>25570</v>
@@ -13346,7 +13436,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>255</v>
@@ -13410,7 +13500,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -13427,7 +13517,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -13444,7 +13534,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>1.1111111111111112E-2</v>
@@ -13461,7 +13551,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>1.0138888888888888</v>
@@ -13478,92 +13568,92 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -13580,7 +13670,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -13597,7 +13687,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>42645</v>
@@ -13614,7 +13704,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>-5.5555555555555558E-3</v>
@@ -13631,7 +13721,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -13640,7 +13730,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" t="e">
         <v>#NUM!</v>
@@ -13648,41 +13738,41 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -13699,41 +13789,41 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" t="e">
         <v>#NUM!</v>
@@ -13742,7 +13832,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22" t="e">
         <v>#NUM!</v>
@@ -13750,7 +13840,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
@@ -13759,7 +13849,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E23" t="e">
         <v>#NUM!</v>
@@ -13767,7 +13857,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -13776,7 +13866,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" t="e">
         <v>#NUM!</v>
@@ -13784,7 +13874,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25" t="e">
         <v>#NUM!</v>
@@ -13793,7 +13883,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E25" t="e">
         <v>#NUM!</v>
@@ -13801,7 +13891,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B26" t="e">
         <v>#NUM!</v>
@@ -13810,7 +13900,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E26" t="e">
         <v>#NUM!</v>
@@ -13818,7 +13908,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B27" t="e">
         <v>#NUM!</v>
@@ -13827,7 +13917,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27" t="e">
         <v>#NUM!</v>
@@ -13835,24 +13925,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B29" t="e">
         <v>#NUM!</v>
@@ -13861,7 +13951,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" t="e">
         <v>#NUM!</v>
@@ -13869,7 +13959,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B30" t="e">
         <v>#NUM!</v>
@@ -13878,7 +13968,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E30" t="e">
         <v>#NUM!</v>
@@ -13886,7 +13976,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B31" t="e">
         <v>#NUM!</v>
@@ -13895,7 +13985,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E31" t="e">
         <v>#NUM!</v>
@@ -13903,24 +13993,24 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B33">
         <v>1.0958904109588663E-2</v>
@@ -13937,7 +14027,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -13954,24 +14044,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B36">
         <v>43012</v>
@@ -13988,41 +14078,41 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B39">
         <v>43012</v>
@@ -14039,7 +14129,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -14056,19 +14146,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -14120,7 +14210,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="e">
         <v>#NUM!</v>
@@ -14129,7 +14219,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
@@ -14137,7 +14227,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="e">
         <v>#NUM!</v>
@@ -14146,7 +14236,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" t="e">
         <v>#NAME?</v>
@@ -14154,7 +14244,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" t="e">
         <v>#NUM!</v>
@@ -14163,7 +14253,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
@@ -14171,7 +14261,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -14180,7 +14270,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
@@ -14188,7 +14278,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" t="e">
         <v>#NUM!</v>
@@ -14197,7 +14287,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
@@ -14205,7 +14295,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="e">
         <v>#N/A</v>
@@ -14214,7 +14304,7 @@
         <v>#N/A</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="e">
         <v>#N/A</v>
@@ -14222,7 +14312,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" t="e">
         <v>#NUM!</v>
@@ -14231,7 +14321,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
@@ -14239,7 +14329,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -14248,7 +14338,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
@@ -14256,7 +14346,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -14265,7 +14355,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
@@ -14273,41 +14363,41 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14324,19 +14414,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -14388,41 +14478,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -14439,24 +14529,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B7">
         <v>367</v>
@@ -14473,7 +14563,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B8">
         <v>109574</v>
@@ -14490,7 +14580,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -14507,7 +14597,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>25599</v>
@@ -14524,7 +14614,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -14541,7 +14631,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B12">
         <v>25573</v>
@@ -14558,7 +14648,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B13">
         <v>25594</v>
@@ -14575,7 +14665,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -14592,7 +14682,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -14609,58 +14699,58 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B19">
         <v>45735</v>
@@ -14677,7 +14767,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B20">
         <v>42725</v>
@@ -14694,7 +14784,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B21">
         <v>42725</v>
@@ -14711,7 +14801,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -14728,7 +14818,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -14745,58 +14835,58 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B27">
         <v>45730</v>
@@ -14813,7 +14903,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B28">
         <v>42713</v>
@@ -14830,7 +14920,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B29">
         <v>42713</v>
@@ -14847,24 +14937,24 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B30">
         <v>25569</v>
       </c>
       <c r="C30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -14881,7 +14971,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -14898,7 +14988,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B33">
         <v>38371</v>
@@ -14915,7 +15005,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B34">
         <v>40247</v>
@@ -14932,24 +15022,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B35" s="4">
         <v>42439</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B36">
         <v>42669</v>
@@ -14966,7 +15056,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B37">
         <v>40282</v>
@@ -14983,7 +15073,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B38">
         <v>42669</v>
@@ -15000,7 +15090,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -15017,7 +15107,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -15034,36 +15124,36 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B41" s="4">
         <v>42659</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B42" s="4">
         <v>42470</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -15115,24 +15205,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B4">
         <v>364</v>
@@ -15149,7 +15239,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B5">
         <v>1.0111111111111111</v>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -29,20 +29,21 @@
     <sheet name="Optimization" sheetId="20" r:id="rId20"/>
     <sheet name="Payoffs" sheetId="21" r:id="rId21"/>
     <sheet name="PiecewiseYieldCurve" sheetId="22" r:id="rId22"/>
-    <sheet name="PricingEngines" sheetId="23" r:id="rId23"/>
-    <sheet name="Processes" sheetId="24" r:id="rId24"/>
-    <sheet name="Quotes" sheetId="25" r:id="rId25"/>
-    <sheet name="RateHelpers" sheetId="26" r:id="rId26"/>
-    <sheet name="Schedules" sheetId="27" r:id="rId27"/>
-    <sheet name="ShortRateModels" sheetId="28" r:id="rId28"/>
-    <sheet name="SmileSection" sheetId="29" r:id="rId29"/>
-    <sheet name="Swap" sheetId="30" r:id="rId30"/>
-    <sheet name="SwaptionVolatility" sheetId="31" r:id="rId31"/>
-    <sheet name="TermStructures" sheetId="32" r:id="rId32"/>
-    <sheet name="TimeSeries" sheetId="33" r:id="rId33"/>
-    <sheet name="Utilities" sheetId="34" r:id="rId34"/>
-    <sheet name="VanillaSwap" sheetId="35" r:id="rId35"/>
-    <sheet name="Volatilities" sheetId="36" r:id="rId36"/>
+    <sheet name="Prices" sheetId="23" r:id="rId23"/>
+    <sheet name="PricingEngines" sheetId="24" r:id="rId24"/>
+    <sheet name="Processes" sheetId="25" r:id="rId25"/>
+    <sheet name="Quotes" sheetId="26" r:id="rId26"/>
+    <sheet name="RateHelpers" sheetId="27" r:id="rId27"/>
+    <sheet name="Schedules" sheetId="28" r:id="rId28"/>
+    <sheet name="ShortRateModels" sheetId="29" r:id="rId29"/>
+    <sheet name="SmileSection" sheetId="30" r:id="rId30"/>
+    <sheet name="Swap" sheetId="31" r:id="rId31"/>
+    <sheet name="SwaptionVolatility" sheetId="32" r:id="rId32"/>
+    <sheet name="TermStructures" sheetId="33" r:id="rId33"/>
+    <sheet name="TimeSeries" sheetId="34" r:id="rId34"/>
+    <sheet name="Utilities" sheetId="35" r:id="rId35"/>
+    <sheet name="VanillaSwap" sheetId="36" r:id="rId36"/>
+    <sheet name="Volatilities" sheetId="37" r:id="rId37"/>
   </sheets>
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="1">AssetSwap!$A$3:$E$12</definedName>
@@ -66,27 +67,28 @@
     <definedName name="UNIT_TEST" localSheetId="19">Optimization!$A$3:$E$15</definedName>
     <definedName name="UNIT_TEST" localSheetId="20">Payoffs!$A$3:$E$16</definedName>
     <definedName name="UNIT_TEST" localSheetId="21">PiecewiseYieldCurve!$A$3:$E$9</definedName>
-    <definedName name="UNIT_TEST" localSheetId="22">PricingEngines!$A$3:$E$55</definedName>
-    <definedName name="UNIT_TEST" localSheetId="23">Processes!$A$3:$E$3</definedName>
-    <definedName name="UNIT_TEST" localSheetId="24">Quotes!$A$3:$E$25</definedName>
-    <definedName name="UNIT_TEST" localSheetId="25">RateHelpers!$A$3:$E$35</definedName>
-    <definedName name="UNIT_TEST" localSheetId="26">Schedules!$A$3:$E$19</definedName>
-    <definedName name="UNIT_TEST" localSheetId="27">ShortRateModels!$A$3:$E$15</definedName>
-    <definedName name="UNIT_TEST" localSheetId="28">SmileSection!$A$3:$E$20</definedName>
-    <definedName name="UNIT_TEST" localSheetId="29">Swap!$A$3:$E$9</definedName>
-    <definedName name="UNIT_TEST" localSheetId="30">SwaptionVolatility!$A$3:$E$29</definedName>
-    <definedName name="UNIT_TEST" localSheetId="31">TermStructures!$A$3:$E$25</definedName>
-    <definedName name="UNIT_TEST" localSheetId="32">TimeSeries!$A$3:$E$11</definedName>
-    <definedName name="UNIT_TEST" localSheetId="33">Utilities!$A$3:$E$3</definedName>
-    <definedName name="UNIT_TEST" localSheetId="34">VanillaSwap!$A$3:$E$22</definedName>
-    <definedName name="UNIT_TEST" localSheetId="35">Volatilities!$A$3:$E$36</definedName>
+    <definedName name="UNIT_TEST" localSheetId="22">Prices!$A$3:$E$4</definedName>
+    <definedName name="UNIT_TEST" localSheetId="23">PricingEngines!$A$3:$E$55</definedName>
+    <definedName name="UNIT_TEST" localSheetId="24">Processes!$A$3:$E$3</definedName>
+    <definedName name="UNIT_TEST" localSheetId="25">Quotes!$A$3:$E$25</definedName>
+    <definedName name="UNIT_TEST" localSheetId="26">RateHelpers!$A$3:$E$35</definedName>
+    <definedName name="UNIT_TEST" localSheetId="27">Schedules!$A$3:$E$19</definedName>
+    <definedName name="UNIT_TEST" localSheetId="28">ShortRateModels!$A$3:$E$15</definedName>
+    <definedName name="UNIT_TEST" localSheetId="29">SmileSection!$A$3:$E$20</definedName>
+    <definedName name="UNIT_TEST" localSheetId="30">Swap!$A$3:$E$9</definedName>
+    <definedName name="UNIT_TEST" localSheetId="31">SwaptionVolatility!$A$3:$E$29</definedName>
+    <definedName name="UNIT_TEST" localSheetId="32">TermStructures!$A$3:$E$25</definedName>
+    <definedName name="UNIT_TEST" localSheetId="33">TimeSeries!$A$3:$E$11</definedName>
+    <definedName name="UNIT_TEST" localSheetId="34">Utilities!$A$3:$E$3</definedName>
+    <definedName name="UNIT_TEST" localSheetId="35">VanillaSwap!$A$3:$E$22</definedName>
+    <definedName name="UNIT_TEST" localSheetId="36">Volatilities!$A$3:$E$36</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="938">
   <si>
     <t>Group</t>
   </si>
@@ -1762,6 +1764,15 @@
     <t>PiecewiseYieldCurve</t>
   </si>
   <si>
+    <t>qlMidEquivalent</t>
+  </si>
+  <si>
+    <t>qlMidSafe</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
     <t>qlBlackFormula</t>
   </si>
   <si>
@@ -2230,7 +2241,7 @@
     <t>obj_000a0</t>
   </si>
   <si>
-    <t>obj_000d5</t>
+    <t>obj_000d6</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
@@ -3250,7 +3261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3806,23 +3817,23 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>629</v>
+        <v>560</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(PricingEngines!D3:D55,"ERROR")</f>
-        <v>6</v>
+        <f>COUNTIF(Prices!D3:D4,"ERROR")</f>
+        <v>0</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(PricingEngines!D3:D55,"FAIL")</f>
+        <f>COUNTIF(Prices!D3:D4,"FAIL")</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>COUNTIF(PricingEngines!D3:D55,"PASS")</f>
-        <v>47</v>
+        <f>COUNTIF(Prices!D3:D4,"PASS")</f>
+        <v>2</v>
       </c>
       <c r="E23">
         <f>SUM(C23:D23)</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7">
         <f>D23/E23</f>
@@ -3834,20 +3845,20 @@
         <v>632</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(Processes!D3,"ERROR")</f>
-        <v>0</v>
+        <f>COUNTIF(PricingEngines!D3:D55,"ERROR")</f>
+        <v>6</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(Processes!D3,"FAIL")</f>
+        <f>COUNTIF(PricingEngines!D3:D55,"FAIL")</f>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>COUNTIF(Processes!D3,"PASS")</f>
-        <v>1</v>
+        <f>COUNTIF(PricingEngines!D3:D55,"PASS")</f>
+        <v>47</v>
       </c>
       <c r="E24">
         <f>SUM(C24:D24)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F24" s="7">
         <f>D24/E24</f>
@@ -3856,327 +3867,352 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="B25">
+        <f>COUNTIF(Processes!D3,"ERROR")</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(Processes!D3,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>COUNTIF(Processes!D3,"PASS")</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>SUM(C25:D25)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <f>D25/E25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>668</v>
+      </c>
+      <c r="B26">
         <f>COUNTIF(Quotes!D3:D25,"ERROR")</f>
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f>COUNTIF(Quotes!D3:D25,"FAIL")</f>
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f>COUNTIF(Quotes!D3:D25,"PASS")</f>
         <v>22</v>
       </c>
-      <c r="E25">
-        <f>SUM(C25:D25)</f>
+      <c r="E26">
+        <f>SUM(C26:D26)</f>
         <v>23</v>
       </c>
-      <c r="F25" s="7">
-        <f>D25/E25</f>
+      <c r="F26" s="7">
+        <f>D26/E26</f>
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>716</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>719</v>
+      </c>
+      <c r="B27">
         <f>COUNTIF(RateHelpers!D3:D35,"ERROR")</f>
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <f>COUNTIF(RateHelpers!D3:D35,"FAIL")</f>
         <v>4</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f>COUNTIF(RateHelpers!D3:D35,"PASS")</f>
         <v>27</v>
       </c>
-      <c r="E26">
-        <f>SUM(C26:D26)</f>
-        <v>31</v>
-      </c>
-      <c r="F26" s="7">
-        <f>D26/E26</f>
-        <v>0.87096774193548387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>738</v>
-      </c>
-      <c r="B27">
-        <f>COUNTIF(Schedules!D3:D19,"ERROR")</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <f>COUNTIF(Schedules!D3:D19,"FAIL")</f>
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f>COUNTIF(Schedules!D3:D19,"PASS")</f>
-        <v>16</v>
-      </c>
       <c r="E27">
         <f>SUM(C27:D27)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7">
         <f>D27/E27</f>
-        <v>0.94117647058823528</v>
+        <v>0.87096774193548387</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="B28">
+        <f>COUNTIF(Schedules!D3:D19,"ERROR")</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(Schedules!D3:D19,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIF(Schedules!D3:D19,"PASS")</f>
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <f>SUM(C28:D28)</f>
+        <v>17</v>
+      </c>
+      <c r="F28" s="7">
+        <f>D28/E28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>758</v>
+      </c>
+      <c r="B29">
         <f>COUNTIF(ShortRateModels!D3:D15,"ERROR")</f>
         <v>0</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f>COUNTIF(ShortRateModels!D3:D15,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f>COUNTIF(ShortRateModels!D3:D15,"PASS")</f>
         <v>13</v>
       </c>
-      <c r="E28">
-        <f>SUM(C28:D28)</f>
+      <c r="E29">
+        <f>SUM(C29:D29)</f>
         <v>13</v>
       </c>
-      <c r="F28" s="7">
-        <f>D28/E28</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>778</v>
-      </c>
-      <c r="B29">
+      <c r="F29" s="7">
+        <f>D29/E29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>781</v>
+      </c>
+      <c r="B30">
         <f>COUNTIF(SmileSection!D3:D20,"ERROR")</f>
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <f>COUNTIF(SmileSection!D3:D20,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <f>COUNTIF(SmileSection!D3:D20,"PASS")</f>
         <v>9</v>
       </c>
-      <c r="E29">
-        <f>SUM(C29:D29)</f>
+      <c r="E30">
+        <f>SUM(C30:D30)</f>
         <v>9</v>
       </c>
-      <c r="F29" s="7">
-        <f>D29/E29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>788</v>
-      </c>
-      <c r="B30">
+      <c r="F30" s="7">
+        <f>D30/E30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>791</v>
+      </c>
+      <c r="B31">
         <f>COUNTIF(Swap!D3:D9,"ERROR")</f>
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <f>COUNTIF(Swap!D3:D9,"FAIL")</f>
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <f>COUNTIF(Swap!D3:D9,"PASS")</f>
         <v>6</v>
       </c>
-      <c r="E30">
-        <f>SUM(C30:D30)</f>
+      <c r="E31">
+        <f>SUM(C31:D31)</f>
         <v>7</v>
       </c>
-      <c r="F30" s="7">
-        <f>D30/E30</f>
+      <c r="F31" s="7">
+        <f>D31/E31</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>820</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>823</v>
+      </c>
+      <c r="B32">
         <f>COUNTIF(SwaptionVolatility!D3:D29,"ERROR")</f>
         <v>15</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <f>COUNTIF(SwaptionVolatility!D3:D29,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f>COUNTIF(SwaptionVolatility!D3:D29,"PASS")</f>
         <v>12</v>
       </c>
-      <c r="E31">
-        <f>SUM(C31:D31)</f>
+      <c r="E32">
+        <f>SUM(C32:D32)</f>
         <v>12</v>
       </c>
-      <c r="F31" s="7">
-        <f>D31/E31</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>853</v>
-      </c>
-      <c r="B32">
+      <c r="F32" s="7">
+        <f>D32/E32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>856</v>
+      </c>
+      <c r="B33">
         <f>COUNTIF(TermStructures!D3:D25,"ERROR")</f>
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <f>COUNTIF(TermStructures!D3:D25,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f>COUNTIF(TermStructures!D3:D25,"PASS")</f>
         <v>23</v>
       </c>
-      <c r="E32">
-        <f>SUM(C32:D32)</f>
+      <c r="E33">
+        <f>SUM(C33:D33)</f>
         <v>23</v>
       </c>
-      <c r="F32" s="7">
-        <f>D32/E32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>864</v>
-      </c>
-      <c r="B33">
+      <c r="F33" s="7">
+        <f>D33/E33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>867</v>
+      </c>
+      <c r="B34">
         <f>COUNTIF(TimeSeries!D3:D11,"ERROR")</f>
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f>COUNTIF(TimeSeries!D3:D11,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f>COUNTIF(TimeSeries!D3:D11,"PASS")</f>
         <v>8</v>
       </c>
-      <c r="E33">
-        <f>SUM(C33:D33)</f>
-        <v>8</v>
-      </c>
-      <c r="F33" s="7">
-        <f>D33/E33</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>868</v>
-      </c>
-      <c r="B34">
-        <f>COUNTIF(Utilities!D3,"ERROR")</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f>COUNTIF(Utilities!D3,"FAIL")</f>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f>COUNTIF(Utilities!D3,"PASS")</f>
-        <v>0</v>
-      </c>
       <c r="E34">
         <f>SUM(C34:D34)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F34" s="7">
         <f>D34/E34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
       <c r="B35">
+        <f>COUNTIF(Utilities!D3,"ERROR")</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIF(Utilities!D3,"FAIL")</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f>COUNTIF(Utilities!D3,"PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>SUM(C35:D35)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <f>D35/E35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>900</v>
+      </c>
+      <c r="B36">
         <f>COUNTIF(VanillaSwap!D3:D22,"ERROR")</f>
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f>COUNTIF(VanillaSwap!D3:D22,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f>COUNTIF(VanillaSwap!D3:D22,"PASS")</f>
         <v>20</v>
       </c>
-      <c r="E35">
-        <f>SUM(C35:D35)</f>
+      <c r="E36">
+        <f>SUM(C36:D36)</f>
         <v>20</v>
       </c>
-      <c r="F35" s="7">
-        <f>D35/E35</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>934</v>
-      </c>
-      <c r="B36">
+      <c r="F36" s="7">
+        <f>D36/E36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>937</v>
+      </c>
+      <c r="B37">
         <f>COUNTIF(Volatilities!D3:D36,"ERROR")</f>
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <f>COUNTIF(Volatilities!D3:D36,"FAIL")</f>
-        <v>1</v>
-      </c>
-      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="D37">
         <f>COUNTIF(Volatilities!D3:D36,"PASS")</f>
-        <v>26</v>
-      </c>
-      <c r="E36">
-        <f>SUM(C36:D36)</f>
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <f>SUM(C37:D37)</f>
         <v>27</v>
       </c>
-      <c r="F36" s="7">
-        <f>D36/E36</f>
-        <v>0.96296296296296291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="F37" s="7">
+        <f>D37/E37</f>
+        <v>0.81481481481481477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1">
-        <f>SUM(B2:B36)</f>
+      <c r="B38" s="1">
+        <f>SUM(B2:B37)</f>
         <v>108</v>
       </c>
-      <c r="C37" s="1">
-        <f>SUM(C2:C36)</f>
-        <v>22</v>
-      </c>
-      <c r="D37" s="1">
-        <f>SUM(D2:D36)</f>
-        <v>565</v>
-      </c>
-      <c r="E37" s="1">
-        <f>SUM(E2:E36)</f>
-        <v>587</v>
-      </c>
-      <c r="F37" s="8">
-        <f>D37/E37</f>
-        <v>0.96252129471890968</v>
+      <c r="C38" s="1">
+        <f>SUM(C2:C37)</f>
+        <v>25</v>
+      </c>
+      <c r="D38" s="1">
+        <f>SUM(D2:D37)</f>
+        <v>564</v>
+      </c>
+      <c r="E38" s="1">
+        <f>SUM(E2:E37)</f>
+        <v>589</v>
+      </c>
+      <c r="F38" s="8">
+        <f>D38/E38</f>
+        <v>0.95755517826825132</v>
       </c>
     </row>
   </sheetData>
@@ -8636,6 +8672,87 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8678,7 +8795,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B3">
         <v>0.38292492254802624</v>
@@ -8695,7 +8812,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B4">
         <v>0.30853753872598688</v>
@@ -8712,7 +8829,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B5">
         <v>2.5066282746310002</v>
@@ -8729,7 +8846,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8746,7 +8863,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B7">
         <v>0.35206532676429952</v>
@@ -8763,7 +8880,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B8">
         <v>0.3989422804014327</v>
@@ -8780,7 +8897,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B9">
         <v>2.5066282746309976</v>
@@ -8797,7 +8914,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -8814,7 +8931,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -8831,7 +8948,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -8848,7 +8965,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -8865,7 +8982,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -8882,7 +8999,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -8899,7 +9016,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B16">
         <v>0.38292492254802624</v>
@@ -8916,7 +9033,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B17">
         <v>0.69146246127401323</v>
@@ -8933,7 +9050,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B18">
         <v>0.69146246127401323</v>
@@ -8950,7 +9067,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B19">
         <v>1.8057389857858896</v>
@@ -8967,7 +9084,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B20">
         <v>1.8057389857858896</v>
@@ -8984,7 +9101,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B21">
         <v>0.35206532676429947</v>
@@ -9001,7 +9118,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B22">
         <v>0.35206532676429947</v>
@@ -9018,7 +9135,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B23">
         <v>-0.17603266338214973</v>
@@ -9035,7 +9152,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B24">
         <v>-4.8228126954013624E-4</v>
@@ -9052,7 +9169,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B25">
         <v>0.35206532676429952</v>
@@ -9069,7 +9186,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B26">
         <v>0.30853753872598699</v>
@@ -9086,7 +9203,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B27">
         <v>-0.69146246127401323</v>
@@ -9103,7 +9220,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B28">
         <v>0.30853753872598688</v>
@@ -9120,7 +9237,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B29">
         <v>0.69146246127401312</v>
@@ -9137,7 +9254,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B30">
         <v>-0.30853753872598688</v>
@@ -9154,7 +9271,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B31">
         <v>0.69146246127401312</v>
@@ -9171,7 +9288,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B32">
         <v>-0.30853753872598688</v>
@@ -9188,41 +9305,41 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C33" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B34" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C34" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B35">
         <v>0.69146246127401323</v>
@@ -9239,7 +9356,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B36">
         <v>1.8057389857858896</v>
@@ -9256,7 +9373,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B37">
         <v>0.35206532676429947</v>
@@ -9273,7 +9390,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B38">
         <v>-0.17603266338214973</v>
@@ -9290,7 +9407,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B39">
         <v>-4.8228126954013624E-4</v>
@@ -9307,274 +9424,274 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B40" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C40" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B41" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C41" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B42" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C42" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B43" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C43" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B44" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C44" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B45" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C45" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B46" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C46" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B47" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C47" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B48" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C48" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B49" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C49" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B50" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C50" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B51" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C51" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B52" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C52" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B53" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C53" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B54" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C54" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B55" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C55" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -9582,7 +9699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -9626,19 +9743,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -9646,7 +9763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -9690,7 +9807,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -9707,7 +9824,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -9724,7 +9841,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -9741,7 +9858,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9758,7 +9875,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -9775,7 +9892,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -9792,7 +9909,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -9800,7 +9917,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -9808,7 +9925,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -9816,126 +9933,126 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B12" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C12" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B13" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C13" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B14" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C14" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B15" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C15" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B16" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C16" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B17" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C17" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B18" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C18" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -9952,7 +10069,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -9969,7 +10086,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -9986,7 +10103,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -10003,24 +10120,24 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B23" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C23" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B24">
         <v>42644</v>
@@ -10037,19 +10154,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B25" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C25" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -10057,7 +10174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -10101,7 +10218,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B3">
         <v>42648</v>
@@ -10118,7 +10235,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B4">
         <v>42649</v>
@@ -10135,7 +10252,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B5">
         <v>42649</v>
@@ -10152,7 +10269,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B6" s="6">
         <v>42649</v>
@@ -10169,7 +10286,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
@@ -10183,7 +10300,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10200,7 +10317,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B9" s="6" t="e">
         <v>#NUM!</v>
@@ -10217,7 +10334,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -10234,75 +10351,75 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B11" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C11" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B12" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C12" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B13" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C13" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B14" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C14" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10319,78 +10436,78 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B16" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C16" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B17" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C17" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B18" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C18" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B19" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C19" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B20" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C20" t="e">
         <v>#NAME?</v>
@@ -10404,10 +10521,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B21" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C21" t="e">
         <v>#NAME?</v>
@@ -10421,7 +10538,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -10438,75 +10555,75 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B23" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C23" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B24" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C24" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B25" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C25" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B26" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C26" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -10523,24 +10640,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B28" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C28" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -10557,7 +10674,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
@@ -10574,7 +10691,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B31" t="s">
         <v>147</v>
@@ -10591,7 +10708,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -10608,7 +10725,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -10625,24 +10742,24 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B34" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C34" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -10662,7 +10779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -10706,7 +10823,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -10723,7 +10840,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B4" s="6">
         <v>25573</v>
@@ -10740,7 +10857,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10757,7 +10874,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B6" s="6">
         <v>25570</v>
@@ -10774,7 +10891,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -10791,7 +10908,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -10808,7 +10925,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>49</v>
@@ -10825,7 +10942,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B10" s="6">
         <v>25570</v>
@@ -10842,7 +10959,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B11" s="6">
         <v>25573</v>
@@ -10859,7 +10976,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B12" t="s">
         <v>231</v>
@@ -10876,7 +10993,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B13" t="s">
         <v>147</v>
@@ -10893,7 +11010,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B14" t="s">
         <v>147</v>
@@ -10910,87 +11027,87 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B15" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C15" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B18" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C18" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B19" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C19" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -10998,7 +11115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -11042,41 +11159,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C4" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B5">
         <v>2.6897035576518178E-3</v>
@@ -11093,7 +11210,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -11110,7 +11227,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -11127,7 +11244,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11144,7 +11261,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -11161,24 +11278,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B10" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C10" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -11195,7 +11312,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -11212,7 +11329,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -11229,7 +11346,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B14">
         <v>0.01</v>
@@ -11246,7 +11363,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B15">
         <v>-0.75</v>
@@ -11259,359 +11376,6 @@
       </c>
       <c r="E15">
         <v>-0.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>756</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>757</v>
-      </c>
-      <c r="B4">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="C4">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>2.7777777777777779E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>759</v>
-      </c>
-      <c r="B6" s="6">
-        <v>42645</v>
-      </c>
-      <c r="C6" s="6">
-        <v>42645</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6">
-        <v>42645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>760</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" t="s">
-        <v>762</v>
-      </c>
-      <c r="C8" t="s">
-        <v>762</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>763</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>765</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>767</v>
-      </c>
-      <c r="B11" s="6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" s="6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>768</v>
-      </c>
-      <c r="B12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>769</v>
-      </c>
-      <c r="B13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>770</v>
-      </c>
-      <c r="B14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>771</v>
-      </c>
-      <c r="B15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>772</v>
-      </c>
-      <c r="B16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>773</v>
-      </c>
-      <c r="B17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>774</v>
-      </c>
-      <c r="B18" t="s">
-        <v>775</v>
-      </c>
-      <c r="C18" t="s">
-        <v>775</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>776</v>
-      </c>
-      <c r="B19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>777</v>
-      </c>
-      <c r="B20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -11889,6 +11653,359 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42645</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42645</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>764</v>
+      </c>
+      <c r="B8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>768</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>770</v>
+      </c>
+      <c r="B11" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>771</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>774</v>
+      </c>
+      <c r="B15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>775</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>776</v>
+      </c>
+      <c r="B17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>777</v>
+      </c>
+      <c r="B18" t="s">
+        <v>778</v>
+      </c>
+      <c r="C18" t="s">
+        <v>778</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>779</v>
+      </c>
+      <c r="B19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>780</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11931,41 +12048,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B4" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C4" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11982,7 +12099,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B6">
         <v>-4.9591843073892612</v>
@@ -11999,7 +12116,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B7">
         <v>42645</v>
@@ -12016,7 +12133,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B8">
         <v>42647</v>
@@ -12033,7 +12150,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -12053,7 +12170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -12097,7 +12214,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -12114,7 +12231,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12131,7 +12248,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B5">
         <v>7.4999999999999997E-2</v>
@@ -12148,7 +12265,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B6">
         <v>8.611111111111111E-2</v>
@@ -12165,24 +12282,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B8" t="s">
         <v>147</v>
@@ -12199,7 +12316,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B9" s="3">
         <v>42678</v>
@@ -12216,7 +12333,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B10">
         <v>8.3333333333333329E-2</v>
@@ -12233,7 +12350,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B11">
         <v>8.3333333333333329E-2</v>
@@ -12250,58 +12367,58 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B12" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C12" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B13" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C13" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B14" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C14" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B15" t="e">
         <v>#N/A</v>
@@ -12318,7 +12435,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B16" t="e">
         <v>#N/A</v>
@@ -12335,7 +12452,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B17" t="e">
         <v>#N/A</v>
@@ -12352,7 +12469,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B18" t="e">
         <v>#N/A</v>
@@ -12369,7 +12486,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -12386,7 +12503,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -12403,7 +12520,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -12420,7 +12537,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B22" t="e">
         <v>#N/A</v>
@@ -12437,7 +12554,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
@@ -12454,7 +12571,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
@@ -12471,7 +12588,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B25" t="e">
         <v>#N/A</v>
@@ -12488,7 +12605,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B26" t="e">
         <v>#N/A</v>
@@ -12505,7 +12622,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B27" t="e">
         <v>#N/A</v>
@@ -12522,7 +12639,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B28" t="e">
         <v>#VALUE!</v>
@@ -12539,7 +12656,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B29" t="e">
         <v>#VALUE!</v>
@@ -12559,7 +12676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -12603,24 +12720,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B4">
         <v>42738</v>
@@ -12637,7 +12754,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B5">
         <v>42736</v>
@@ -12654,7 +12771,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12671,7 +12788,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -12688,7 +12805,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12705,7 +12822,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12722,7 +12839,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B10">
         <v>-180</v>
@@ -12739,7 +12856,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B11">
         <v>-180</v>
@@ -12756,7 +12873,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B12">
         <v>-252.99872090438052</v>
@@ -12773,143 +12890,143 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B13" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C13" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B14" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C14" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B15" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C15" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B16" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C16" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B17" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C17" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B18" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C18" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B19" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C19" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12926,7 +13043,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B22">
         <v>42736</v>
@@ -12943,7 +13060,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -12960,7 +13077,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B24">
         <v>8.3333333333333332E-3</v>
@@ -12977,7 +13094,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B25">
         <v>42739</v>
@@ -12997,7 +13114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -13041,24 +13158,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B3" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C3" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -13075,7 +13192,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -13092,7 +13209,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -13109,7 +13226,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -13126,7 +13243,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -13143,7 +13260,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13160,7 +13277,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -13177,7 +13294,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -13197,7 +13314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -13241,19 +13358,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B3" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C3" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -13261,7 +13378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -13305,92 +13422,92 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B3" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C3" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B5" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C5" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B6" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C6" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B7" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C7" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B8">
         <v>-0.67739587129550227</v>
@@ -13407,7 +13524,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B9">
         <v>-33869.793564775115</v>
@@ -13424,7 +13541,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B10">
         <v>142.62616569880501</v>
@@ -13441,7 +13558,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B11">
         <v>4.477796795487806</v>
@@ -13458,7 +13575,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B12">
         <v>966143.7578307871</v>
@@ -13475,7 +13592,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B13">
         <v>-20.819925665350592</v>
@@ -13492,24 +13609,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B14" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C14" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B15">
         <v>1000000</v>
@@ -13526,7 +13643,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -13543,24 +13660,24 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B17" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C17" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -13577,7 +13694,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B19" t="s">
         <v>143</v>
@@ -13594,24 +13711,24 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B20" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C20" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -13628,7 +13745,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -13648,7 +13765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -13692,7 +13809,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B3">
         <v>23.948673390030997</v>
@@ -13709,24 +13826,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B4" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C4" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B5">
         <v>42648</v>
@@ -13743,7 +13860,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B6">
         <v>-1.7976931348623157E+308</v>
@@ -13760,7 +13877,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B7">
         <v>1.7976931348623157E+308</v>
@@ -13777,7 +13894,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -13794,7 +13911,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13811,7 +13928,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B10">
         <v>3.3161907871456142</v>
@@ -13828,7 +13945,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -13845,7 +13962,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B12">
         <v>2.7777777777777779E-3</v>
@@ -13862,7 +13979,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B13">
         <v>0.10997121336749448</v>
@@ -13879,7 +13996,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -13896,7 +14013,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B15">
         <v>2.7777777777777779E-3</v>
@@ -13913,7 +14030,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B16">
         <v>1.0000000000000011</v>
@@ -13930,7 +14047,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -13947,24 +14064,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B18" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C18" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B19" t="e">
         <v>#VALUE!</v>
@@ -13981,7 +14098,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B20" t="s">
         <v>231</v>
@@ -13998,7 +14115,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B21" t="s">
         <v>231</v>
@@ -14015,7 +14132,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B22">
         <v>42648</v>
@@ -14032,7 +14149,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B23">
         <v>2.7777777777777779E-3</v>
@@ -14049,75 +14166,75 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B24">
         <v>0.16276901888733139</v>
       </c>
       <c r="C24">
-        <v>0.16276901888733139</v>
+        <v>0.16276967485704383</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>0.16276901888733139</v>
+        <v>0.16276967485704383</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B25">
         <v>0.20553128316863267</v>
       </c>
       <c r="C25">
-        <v>0.20553128316863267</v>
+        <v>0.20543416674806414</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>0.20553128316863267</v>
+        <v>0.20543416674806414</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B26">
         <v>-5.6930143586703347E-4</v>
       </c>
       <c r="C26">
-        <v>-5.6930143586703347E-4</v>
+        <v>-1.1138084851759278E-3</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>-5.6930143586703347E-4</v>
+        <v>-1.1138084851759278E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B27">
         <v>816.38970366714</v>
       </c>
       <c r="C27">
-        <v>816.38970366714</v>
+        <v>816.38481984485099</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>816.38970366714</v>
+        <v>816.38481984485099</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B28">
         <v>55.846414299893993</v>
@@ -14134,41 +14251,41 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B29">
         <v>5.6930143586703347E-4</v>
       </c>
       <c r="C29">
-        <v>1.1139404844395559E-3</v>
+        <v>5.6930143586703347E-4</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>1.1139404844395559E-3</v>
+        <v>5.6930143586703347E-4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B30">
         <v>0.85719125008922603</v>
       </c>
       <c r="C30">
-        <v>0.85719125008922603</v>
+        <v>0.85716351011528225</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>0.85719125008922603</v>
+        <v>0.85716351011528225</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B31">
         <v>1.0563094653822682</v>
@@ -14185,24 +14302,24 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B32" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C32" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -14219,7 +14336,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B34" t="e">
         <v>#VALUE!</v>
@@ -14236,7 +14353,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B35" t="e">
         <v>#VALUE!</v>
@@ -14253,7 +14370,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B36" t="e">
         <v>#VALUE!</v>

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="929">
   <si>
     <t>Group</t>
   </si>
@@ -2028,45 +2028,24 @@
     <t>qlSimpleQuote</t>
   </si>
   <si>
-    <t>quote01#0000</t>
-  </si>
-  <si>
     <t>qlForwardValueQuote</t>
   </si>
   <si>
-    <t>quote02#0000</t>
-  </si>
-  <si>
     <t>qlForwardSwapQuote</t>
   </si>
   <si>
-    <t>quote03#0000</t>
-  </si>
-  <si>
     <t>qlImpliedStdDevQuote</t>
   </si>
   <si>
-    <t>quote04#0000</t>
-  </si>
-  <si>
     <t>qlEurodollarFuturesImpliedStdDevQuote</t>
   </si>
   <si>
-    <t>quote05#0000</t>
-  </si>
-  <si>
     <t>qlCompositeQuote</t>
   </si>
   <si>
-    <t>quote06#0000</t>
-  </si>
-  <si>
     <t>qlFuturesConvAdjustmentQuote</t>
   </si>
   <si>
-    <t>quote07#0000</t>
-  </si>
-  <si>
     <t>qlFuturesConvAdjustmentQuoteVolatility</t>
   </si>
   <si>
@@ -2082,16 +2061,10 @@
     <t>qlLastFixingQuote</t>
   </si>
   <si>
-    <t>quote08#0000</t>
-  </si>
-  <si>
     <t>qlLastFixingQuoteReferenceDate</t>
   </si>
   <si>
     <t>qlRelinkableHandleQuote</t>
-  </si>
-  <si>
-    <t>quote09#0000</t>
   </si>
   <si>
     <t>Quotes</t>
@@ -3475,11 +3448,11 @@
       </c>
       <c r="C9">
         <f>COUNTIF(Date!D3:D42,"FAIL")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <f>COUNTIF(Date!D3:D42,"PASS")</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <f>SUM(C9:D9)</f>
@@ -3487,7 +3460,7 @@
       </c>
       <c r="F9" s="7">
         <f>D9/E9</f>
-        <v>0.92500000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,15 +3865,15 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B26">
         <f>COUNTIF(Quotes!D3:D25,"ERROR")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <f>COUNTIF(Quotes!D3:D25,"FAIL")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f>COUNTIF(Quotes!D3:D25,"PASS")</f>
@@ -3908,16 +3881,16 @@
       </c>
       <c r="E26">
         <f>SUM(C26:D26)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7">
         <f>D26/E26</f>
-        <v>0.95652173913043481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B27">
         <f>COUNTIF(RateHelpers!D3:D35,"ERROR")</f>
@@ -3942,7 +3915,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B28">
         <f>COUNTIF(Schedules!D3:D19,"ERROR")</f>
@@ -3967,7 +3940,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B29">
         <f>COUNTIF(ShortRateModels!D3:D15,"ERROR")</f>
@@ -3992,7 +3965,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B30">
         <f>COUNTIF(SmileSection!D3:D20,"ERROR")</f>
@@ -4017,7 +3990,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B31">
         <f>COUNTIF(Swap!D3:D9,"ERROR")</f>
@@ -4042,7 +4015,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B32">
         <f>COUNTIF(SwaptionVolatility!D3:D29,"ERROR")</f>
@@ -4067,7 +4040,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B33">
         <f>COUNTIF(TermStructures!D3:D25,"ERROR")</f>
@@ -4092,7 +4065,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B34">
         <f>COUNTIF(TimeSeries!D3:D11,"ERROR")</f>
@@ -4117,7 +4090,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B35">
         <f>COUNTIF(Utilities!D3,"ERROR")</f>
@@ -4142,7 +4115,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B36">
         <f>COUNTIF(VanillaSwap!D3:D22,"ERROR")</f>
@@ -4167,7 +4140,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B37">
         <f>COUNTIF(Volatilities!D3:D36,"ERROR")</f>
@@ -4175,11 +4148,11 @@
       </c>
       <c r="C37">
         <f>COUNTIF(Volatilities!D3:D36,"FAIL")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f>COUNTIF(Volatilities!D3:D36,"PASS")</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <f>SUM(C37:D37)</f>
@@ -4187,7 +4160,7 @@
       </c>
       <c r="F37" s="7">
         <f>D37/E37</f>
-        <v>0.81481481481481477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4196,23 +4169,23 @@
       </c>
       <c r="B38" s="1">
         <f>SUM(B2:B37)</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1">
         <f>SUM(C2:C37)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1">
         <f>SUM(D2:D37)</f>
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E38" s="1">
         <f>SUM(E2:E37)</f>
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F38" s="8">
         <f>D38/E38</f>
-        <v>0.95755517826825132</v>
+        <v>0.96598639455782309</v>
       </c>
     </row>
   </sheetData>
@@ -9935,124 +9908,124 @@
       <c r="A12" t="s">
         <v>645</v>
       </c>
-      <c r="B12" t="s">
-        <v>646</v>
-      </c>
-      <c r="C12" t="s">
-        <v>646</v>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>646</v>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>647</v>
-      </c>
-      <c r="B13" t="s">
-        <v>648</v>
-      </c>
-      <c r="C13" t="s">
-        <v>648</v>
+        <v>646</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>648</v>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>649</v>
-      </c>
-      <c r="B14" t="s">
-        <v>650</v>
-      </c>
-      <c r="C14" t="s">
-        <v>650</v>
+        <v>647</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s">
-        <v>650</v>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>651</v>
-      </c>
-      <c r="B15" t="s">
-        <v>652</v>
-      </c>
-      <c r="C15" t="s">
-        <v>652</v>
+        <v>648</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>652</v>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>653</v>
-      </c>
-      <c r="B16" t="s">
-        <v>654</v>
-      </c>
-      <c r="C16" t="s">
-        <v>654</v>
+        <v>649</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>654</v>
+      <c r="E16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>655</v>
-      </c>
-      <c r="B17" t="s">
-        <v>656</v>
-      </c>
-      <c r="C17" t="s">
-        <v>656</v>
+        <v>650</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
-        <v>656</v>
+      <c r="E17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>657</v>
-      </c>
-      <c r="B18" t="s">
-        <v>658</v>
-      </c>
-      <c r="C18" t="s">
-        <v>658</v>
+        <v>651</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
-        <v>658</v>
+      <c r="E18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -10069,7 +10042,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -10086,7 +10059,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -10103,7 +10076,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -10120,53 +10093,53 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>663</v>
-      </c>
-      <c r="B23" t="s">
-        <v>664</v>
-      </c>
-      <c r="C23" t="s">
-        <v>664</v>
+        <v>656</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
-        <v>664</v>
+      <c r="E23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>665</v>
-      </c>
-      <c r="B24">
+        <v>657</v>
+      </c>
+      <c r="B24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C24">
         <v>42644</v>
       </c>
-      <c r="C24" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#NUM!</v>
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>42644</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>666</v>
-      </c>
-      <c r="B25" t="s">
-        <v>667</v>
-      </c>
-      <c r="C25" t="s">
-        <v>667</v>
+        <v>658</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" t="s">
-        <v>667</v>
+      <c r="E25" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10218,7 +10191,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B3">
         <v>42648</v>
@@ -10235,7 +10208,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B4">
         <v>42649</v>
@@ -10252,7 +10225,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B5">
         <v>42649</v>
@@ -10269,7 +10242,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B6" s="6">
         <v>42649</v>
@@ -10286,7 +10259,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
@@ -10300,7 +10273,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10317,7 +10290,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B9" s="6" t="e">
         <v>#NUM!</v>
@@ -10334,7 +10307,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -10351,75 +10324,75 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B11" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="C11" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B12" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="C12" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B13" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C13" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B14" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C14" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10436,78 +10409,78 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B16" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="C16" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B17" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="C17" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B18" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C18" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B19" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C19" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B20" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C20" t="e">
         <v>#NAME?</v>
@@ -10521,10 +10494,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B21" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C21" t="e">
         <v>#NAME?</v>
@@ -10538,7 +10511,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -10555,75 +10528,75 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B23" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C23" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B24" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C24" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B25" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="C25" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B26" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C26" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -10640,24 +10613,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B28" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C28" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -10674,7 +10647,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
@@ -10691,7 +10664,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B31" t="s">
         <v>147</v>
@@ -10708,7 +10681,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -10725,7 +10698,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -10742,24 +10715,24 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B34" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C34" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -10823,7 +10796,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -10840,7 +10813,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B4" s="6">
         <v>25573</v>
@@ -10857,7 +10830,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10874,7 +10847,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B6" s="6">
         <v>25570</v>
@@ -10891,7 +10864,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -10908,7 +10881,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -10925,7 +10898,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>49</v>
@@ -10942,7 +10915,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B10" s="6">
         <v>25570</v>
@@ -10959,7 +10932,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B11" s="6">
         <v>25573</v>
@@ -10976,7 +10949,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B12" t="s">
         <v>231</v>
@@ -10993,7 +10966,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B13" t="s">
         <v>147</v>
@@ -11010,7 +10983,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B14" t="s">
         <v>147</v>
@@ -11027,24 +11000,24 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B15" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C15" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -11061,53 +11034,53 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B17" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C17" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B18" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C18" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B19" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C19" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -11159,41 +11132,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B4" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="C4" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B5">
         <v>2.6897035576518178E-3</v>
@@ -11210,7 +11183,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -11227,7 +11200,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -11244,7 +11217,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11261,7 +11234,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -11278,24 +11251,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C10" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -11312,7 +11285,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -11329,7 +11302,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -11346,7 +11319,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B14">
         <v>0.01</v>
@@ -11363,7 +11336,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B15">
         <v>-0.75</v>
@@ -11695,7 +11668,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11712,7 +11685,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B4">
         <v>2.7777777777777779E-3</v>
@@ -11729,7 +11702,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11746,7 +11719,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B6" s="6">
         <v>42645</v>
@@ -11763,7 +11736,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B7" t="s">
         <v>143</v>
@@ -11780,58 +11753,58 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C8" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B11" s="6" t="e">
         <v>#NUM!</v>
@@ -11848,7 +11821,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -11865,7 +11838,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -11882,7 +11855,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -11899,7 +11872,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -11916,7 +11889,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -11933,7 +11906,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B17" t="e">
         <v>#NUM!</v>
@@ -11950,24 +11923,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B18" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C18" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -11984,7 +11957,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -12048,41 +12021,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B4" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C4" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12099,7 +12072,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B6">
         <v>-4.9591843073892612</v>
@@ -12116,7 +12089,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B7">
         <v>42645</v>
@@ -12133,7 +12106,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B8">
         <v>42647</v>
@@ -12150,7 +12123,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -12214,7 +12187,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -12231,7 +12204,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12248,7 +12221,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B5">
         <v>7.4999999999999997E-2</v>
@@ -12265,7 +12238,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B6">
         <v>8.611111111111111E-2</v>
@@ -12282,24 +12255,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B7" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C7" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B8" t="s">
         <v>147</v>
@@ -12316,7 +12289,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B9" s="3">
         <v>42678</v>
@@ -12333,7 +12306,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="B10">
         <v>8.3333333333333329E-2</v>
@@ -12350,7 +12323,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B11">
         <v>8.3333333333333329E-2</v>
@@ -12367,58 +12340,58 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B12" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C12" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B13" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C13" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="B14" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C14" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B15" t="e">
         <v>#N/A</v>
@@ -12435,7 +12408,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B16" t="e">
         <v>#N/A</v>
@@ -12452,7 +12425,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B17" t="e">
         <v>#N/A</v>
@@ -12469,7 +12442,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="B18" t="e">
         <v>#N/A</v>
@@ -12486,7 +12459,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -12503,7 +12476,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -12520,7 +12493,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -12537,7 +12510,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B22" t="e">
         <v>#N/A</v>
@@ -12554,7 +12527,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
@@ -12571,7 +12544,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
@@ -12588,7 +12561,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B25" t="e">
         <v>#N/A</v>
@@ -12605,7 +12578,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="B26" t="e">
         <v>#N/A</v>
@@ -12622,7 +12595,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B27" t="e">
         <v>#N/A</v>
@@ -12639,7 +12612,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="B28" t="e">
         <v>#VALUE!</v>
@@ -12656,7 +12629,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B29" t="e">
         <v>#VALUE!</v>
@@ -12720,24 +12693,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B4">
         <v>42738</v>
@@ -12754,7 +12727,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B5">
         <v>42736</v>
@@ -12771,7 +12744,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12788,7 +12761,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -12805,7 +12778,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12822,7 +12795,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12839,7 +12812,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="B10">
         <v>-180</v>
@@ -12856,7 +12829,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="B11">
         <v>-180</v>
@@ -12873,7 +12846,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="B12">
         <v>-252.99872090438052</v>
@@ -12890,143 +12863,143 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="B13" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C13" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B14" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C14" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="B15" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="C15" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B16" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C16" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B17" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="C17" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="B18" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C18" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="B19" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C19" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="B20" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C20" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -13043,7 +13016,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="B22">
         <v>42736</v>
@@ -13060,7 +13033,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -13077,7 +13050,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="B24">
         <v>8.3333333333333332E-3</v>
@@ -13094,7 +13067,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B25">
         <v>42739</v>
@@ -13158,24 +13131,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B3" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="C3" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -13192,7 +13165,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -13209,7 +13182,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -13226,7 +13199,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -13243,7 +13216,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -13260,7 +13233,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13277,7 +13250,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -13294,7 +13267,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -13358,19 +13331,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B3" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C3" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -13422,92 +13395,92 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="B3" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="C3" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="B4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B6" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C6" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="B7" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C7" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B8">
         <v>-0.67739587129550227</v>
@@ -13524,7 +13497,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="B9">
         <v>-33869.793564775115</v>
@@ -13541,7 +13514,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="B10">
         <v>142.62616569880501</v>
@@ -13558,7 +13531,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="B11">
         <v>4.477796795487806</v>
@@ -13575,7 +13548,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="B12">
         <v>966143.7578307871</v>
@@ -13592,7 +13565,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B13">
         <v>-20.819925665350592</v>
@@ -13609,24 +13582,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="B14" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C14" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="B15">
         <v>1000000</v>
@@ -13643,7 +13616,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -13660,24 +13633,24 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B17" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C17" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -13694,7 +13667,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="B19" t="s">
         <v>143</v>
@@ -13711,24 +13684,24 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="B20" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C20" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -13745,7 +13718,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -13809,7 +13782,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B3">
         <v>23.948673390030997</v>
@@ -13826,24 +13799,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B4" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C4" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B5">
         <v>42648</v>
@@ -13860,7 +13833,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B6">
         <v>-1.7976931348623157E+308</v>
@@ -13877,7 +13850,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B7">
         <v>1.7976931348623157E+308</v>
@@ -13894,7 +13867,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -13911,7 +13884,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13928,7 +13901,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B10">
         <v>3.3161907871456142</v>
@@ -13945,7 +13918,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -13962,7 +13935,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B12">
         <v>2.7777777777777779E-3</v>
@@ -13979,7 +13952,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B13">
         <v>0.10997121336749448</v>
@@ -13996,7 +13969,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14013,7 +13986,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B15">
         <v>2.7777777777777779E-3</v>
@@ -14030,7 +14003,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B16">
         <v>1.0000000000000011</v>
@@ -14047,7 +14020,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -14064,24 +14037,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="B18" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C18" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B19" t="e">
         <v>#VALUE!</v>
@@ -14098,7 +14071,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="B20" t="s">
         <v>231</v>
@@ -14115,7 +14088,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="B21" t="s">
         <v>231</v>
@@ -14132,7 +14105,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B22">
         <v>42648</v>
@@ -14149,7 +14122,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B23">
         <v>2.7777777777777779E-3</v>
@@ -14166,75 +14139,75 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="B24">
         <v>0.16276901888733139</v>
       </c>
       <c r="C24">
-        <v>0.16276967485704383</v>
+        <v>0.16276901888733139</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>0.16276967485704383</v>
+        <v>0.16276901888733139</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B25">
         <v>0.20553128316863267</v>
       </c>
       <c r="C25">
-        <v>0.20543416674806414</v>
+        <v>0.20553128316863267</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>0.20543416674806414</v>
+        <v>0.20553128316863267</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B26">
         <v>-5.6930143586703347E-4</v>
       </c>
       <c r="C26">
-        <v>-1.1138084851759278E-3</v>
+        <v>-5.6930143586703347E-4</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>-1.1138084851759278E-3</v>
+        <v>-5.6930143586703347E-4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B27">
         <v>816.38970366714</v>
       </c>
       <c r="C27">
-        <v>816.38481984485099</v>
+        <v>816.38970366714</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>816.38481984485099</v>
+        <v>816.38970366714</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B28">
         <v>55.846414299893993</v>
@@ -14251,7 +14224,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B29">
         <v>5.6930143586703347E-4</v>
@@ -14268,24 +14241,24 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="B30">
         <v>0.85719125008922603</v>
       </c>
       <c r="C30">
-        <v>0.85716351011528225</v>
+        <v>0.85719125008922603</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>0.85716351011528225</v>
+        <v>0.85719125008922603</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B31">
         <v>1.0563094653822682</v>
@@ -14302,24 +14275,24 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="B32" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="C32" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -14336,7 +14309,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B34" t="e">
         <v>#VALUE!</v>
@@ -14353,7 +14326,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="B35" t="e">
         <v>#VALUE!</v>
@@ -14370,7 +14343,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="B36" t="e">
         <v>#VALUE!</v>
@@ -17667,13 +17640,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">

--- a/UnitTests/UnitTests.xlsx
+++ b/UnitTests/UnitTests.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="916">
   <si>
     <t>Group</t>
   </si>
@@ -372,39 +372,21 @@
     <t>qlFixedRateBond</t>
   </si>
   <si>
-    <t>bond01#0000</t>
-  </si>
-  <si>
     <t>qlFixedRateBond2</t>
   </si>
   <si>
-    <t>bond02#0000</t>
-  </si>
-  <si>
     <t>qlFloatingRateBond</t>
   </si>
   <si>
-    <t>bond03#0000</t>
-  </si>
-  <si>
     <t>qlCmsRateBond</t>
   </si>
   <si>
-    <t>bond04#0000</t>
-  </si>
-  <si>
     <t>qlZeroCouponBond</t>
   </si>
   <si>
-    <t>bond05#0000</t>
-  </si>
-  <si>
     <t>qlBond</t>
   </si>
   <si>
-    <t>bond06#0000</t>
-  </si>
-  <si>
     <t>qlBondAlive</t>
   </si>
   <si>
@@ -417,7 +399,10 @@
     <t>qlBondMaturitySort</t>
   </si>
   <si>
-    <t>bond06</t>
+    <t>obj_0000c</t>
+  </si>
+  <si>
+    <t>obj_0001b</t>
   </si>
   <si>
     <t>Bonds</t>
@@ -645,24 +630,15 @@
     <t>qlCmsCouponPricer</t>
   </si>
   <si>
-    <t>cv10#0000</t>
-  </si>
-  <si>
     <t>qlConundrumPricerByNumericalIntegration</t>
   </si>
   <si>
-    <t>cv11#0000</t>
-  </si>
-  <si>
     <t>qlConundrumPricerByNumericalIntegrationUpperLimit</t>
   </si>
   <si>
     <t>qlDigitalReplication</t>
   </si>
   <si>
-    <t>cv12#0000</t>
-  </si>
-  <si>
     <t>CouponVectors</t>
   </si>
   <si>
@@ -1473,27 +1449,15 @@
     <t>qlLeg</t>
   </si>
   <si>
-    <t>leg01#0000</t>
-  </si>
-  <si>
     <t>qlLegFromCapFloor</t>
   </si>
   <si>
-    <t>leg02#0000</t>
-  </si>
-  <si>
     <t>qlLegFromSwap</t>
   </si>
   <si>
-    <t>leg03#0000</t>
-  </si>
-  <si>
     <t>qlMultiPhaseLeg</t>
   </si>
   <si>
-    <t>leg04#0000</t>
-  </si>
-  <si>
     <t>qlInterestRateRate</t>
   </si>
   <si>
@@ -1527,9 +1491,6 @@
     <t>qlInterestRate</t>
   </si>
   <si>
-    <t>leg05#0000</t>
-  </si>
-  <si>
     <t>Leg</t>
   </si>
   <si>
@@ -2214,7 +2175,7 @@
     <t>obj_000a0</t>
   </si>
   <si>
-    <t>obj_000d6</t>
+    <t>obj_000d7</t>
   </si>
   <si>
     <t>qlRateHelperRate</t>
@@ -3315,7 +3276,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Bonds!D3:D54,"ERROR")</f>
@@ -3323,11 +3284,11 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Bonds!D3:D54,"FAIL")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Bonds!D3:D54,"PASS")</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <f>SUM(C4:D4)</f>
@@ -3335,12 +3296,12 @@
       </c>
       <c r="F4" s="7">
         <f>D4/E4</f>
-        <v>0.91836734693877553</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Calendars!D3:D13,"ERROR")</f>
@@ -3365,7 +3326,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <f>COUNTIF(CapletVolatility!D3:D41,"ERROR")</f>
@@ -3390,11 +3351,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <f>COUNTIF(CouponVectors!D3:D15,"ERROR")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f>COUNTIF(CouponVectors!D3:D15,"FAIL")</f>
@@ -3402,11 +3363,11 @@
       </c>
       <c r="D7">
         <f>COUNTIF(CouponVectors!D3:D15,"PASS")</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <f>SUM(C7:D7)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7">
         <f>D7/E7</f>
@@ -3415,7 +3376,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Credit!D3:D27,"ERROR")</f>
@@ -3440,7 +3401,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Date!D3:D42,"ERROR")</f>
@@ -3448,11 +3409,11 @@
       </c>
       <c r="C9">
         <f>COUNTIF(Date!D3:D42,"FAIL")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <f>COUNTIF(Date!D3:D42,"PASS")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <f>SUM(C9:D9)</f>
@@ -3460,12 +3421,12 @@
       </c>
       <c r="F9" s="7">
         <f>D9/E9</f>
-        <v>0.9</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B10">
         <f>COUNTIF(DayCounters!D3:D5,"ERROR")</f>
@@ -3490,7 +3451,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B11">
         <f>COUNTIF(DefaultBasket!D3:D16,"ERROR")</f>
@@ -3515,7 +3476,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B12">
         <f>COUNTIF(DefaultTermStructures!D3:D6,"ERROR")</f>
@@ -3540,7 +3501,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B13">
         <f>COUNTIF(Exercise!D3:D7,"ERROR")</f>
@@ -3565,7 +3526,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B14">
         <f>COUNTIF(Index!D3:D34,"ERROR")</f>
@@ -3590,7 +3551,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Instruments!D3:D8,"ERROR")</f>
@@ -3615,7 +3576,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B16">
         <f>COUNTIF(Interpolation!D3:D47,"ERROR")</f>
@@ -3640,7 +3601,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B17">
         <f>COUNTIF(LatentModels!D3:D10,"ERROR")</f>
@@ -3665,7 +3626,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B18">
         <f>COUNTIF(Leg!D3:D48,"ERROR")</f>
@@ -3673,11 +3634,11 @@
       </c>
       <c r="C18">
         <f>COUNTIF(Leg!D3:D48,"FAIL")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <f>COUNTIF(Leg!D3:D48,"PASS")</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <f>SUM(C18:D18)</f>
@@ -3685,12 +3646,12 @@
       </c>
       <c r="F18" s="7">
         <f>D18/E18</f>
-        <v>0.88372093023255816</v>
+        <v>0.95348837209302328</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B19">
         <f>COUNTIF(Math!D3:D18,"ERROR")</f>
@@ -3715,7 +3676,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B20">
         <f>COUNTIF(Optimization!D3:D15,"ERROR")</f>
@@ -3740,7 +3701,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B21">
         <f>COUNTIF(Payoffs!D3:D16,"ERROR")</f>
@@ -3765,7 +3726,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B22">
         <f>COUNTIF(PiecewiseYieldCurve!D3:D9,"ERROR")</f>
@@ -3790,7 +3751,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B23">
         <f>COUNTIF(Prices!D3:D4,"ERROR")</f>
@@ -3815,7 +3776,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B24">
         <f>COUNTIF(PricingEngines!D3:D55,"ERROR")</f>
@@ -3840,7 +3801,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="B25">
         <f>COUNTIF(Processes!D3,"ERROR")</f>
@@ -3865,7 +3826,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B26">
         <f>COUNTIF(Quotes!D3:D25,"ERROR")</f>
@@ -3890,7 +3851,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B27">
         <f>COUNTIF(RateHelpers!D3:D35,"ERROR")</f>
@@ -3915,7 +3876,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="B28">
         <f>COUNTIF(Schedules!D3:D19,"ERROR")</f>
@@ -3940,7 +3901,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="B29">
         <f>COUNTIF(ShortRateModels!D3:D15,"ERROR")</f>
@@ -3965,7 +3926,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B30">
         <f>COUNTIF(SmileSection!D3:D20,"ERROR")</f>
@@ -3990,7 +3951,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="B31">
         <f>COUNTIF(Swap!D3:D9,"ERROR")</f>
@@ -4015,7 +3976,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="B32">
         <f>COUNTIF(SwaptionVolatility!D3:D29,"ERROR")</f>
@@ -4040,7 +4001,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B33">
         <f>COUNTIF(TermStructures!D3:D25,"ERROR")</f>
@@ -4065,7 +4026,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="B34">
         <f>COUNTIF(TimeSeries!D3:D11,"ERROR")</f>
@@ -4090,7 +4051,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="B35">
         <f>COUNTIF(Utilities!D3,"ERROR")</f>
@@ -4115,7 +4076,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="B36">
         <f>COUNTIF(VanillaSwap!D3:D22,"ERROR")</f>
@@ -4140,7 +4101,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="B37">
         <f>COUNTIF(Volatilities!D3:D36,"ERROR")</f>
@@ -4169,23 +4130,23 @@
       </c>
       <c r="B38" s="1">
         <f>SUM(B2:B37)</f>
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C38" s="1">
         <f>SUM(C2:C37)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1">
         <f>SUM(D2:D37)</f>
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="E38" s="1">
         <f>SUM(E2:E37)</f>
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F38" s="8">
         <f>D38/E38</f>
-        <v>0.96598639455782309</v>
+        <v>0.97815126050420165</v>
       </c>
     </row>
   </sheetData>
@@ -4238,24 +4199,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B4">
         <v>364</v>
@@ -4272,7 +4233,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B5">
         <v>1.0111111111111111</v>
@@ -4336,24 +4297,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4370,7 +4331,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4387,7 +4348,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4404,7 +4365,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4421,7 +4382,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4438,7 +4399,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4455,7 +4416,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -4472,7 +4433,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -4489,7 +4450,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -4506,7 +4467,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4523,7 +4484,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -4540,7 +4501,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -4557,7 +4518,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -4621,7 +4582,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4638,41 +4599,41 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B6">
         <v>63.249680225051691</v>
@@ -4736,7 +4697,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B3" s="3">
         <v>42645</v>
@@ -4753,7 +4714,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B4" s="3">
         <v>42648</v>
@@ -4770,53 +4731,53 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4868,24 +4829,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -4902,7 +4863,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -4919,7 +4880,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -4936,7 +4897,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4953,7 +4914,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4970,7 +4931,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4987,41 +4948,41 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5038,7 +4999,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -5055,24 +5016,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B15">
         <v>42709</v>
@@ -5089,7 +5050,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B16">
         <v>42703</v>
@@ -5106,7 +5067,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B17">
         <v>43070</v>
@@ -5123,24 +5084,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -5157,257 +5118,257 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C22" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B26" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C29" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C30" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C32" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B33" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C33" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5459,7 +5420,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B3">
         <v>932273.96426601196</v>
@@ -5476,7 +5437,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B4" t="e">
         <v>#NUM!</v>
@@ -5493,7 +5454,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B5">
         <v>42646</v>
@@ -5510,7 +5471,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -5527,7 +5488,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -5544,7 +5505,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -5608,7 +5569,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -5625,7 +5586,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5642,7 +5603,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B5">
         <v>0.99999999999999989</v>
@@ -5659,7 +5620,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5676,7 +5637,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5693,7 +5654,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -5710,7 +5671,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5727,7 +5688,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -5744,58 +5705,58 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5812,7 +5773,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5829,7 +5790,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5846,7 +5807,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5863,7 +5824,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -5880,24 +5841,24 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B20">
         <v>-7.7636293687148434</v>
@@ -5914,7 +5875,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B21">
         <v>-4.9420174793581868</v>
@@ -5931,7 +5892,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B22">
         <v>0.69766803247102049</v>
@@ -5948,7 +5909,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B23">
         <v>11.139418706107959</v>
@@ -5965,7 +5926,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B24">
         <v>2.1471103494774504E-6</v>
@@ -5982,7 +5943,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B25">
         <v>0.14393281788978829</v>
@@ -5999,41 +5960,41 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C26" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6050,7 +6011,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -6067,7 +6028,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B30">
         <v>403.47569699818865</v>
@@ -6084,7 +6045,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B31">
         <v>0.96361608648142882</v>
@@ -6101,7 +6062,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B32">
         <v>9.5450411997902709</v>
@@ -6118,7 +6079,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B33">
         <v>-1.891972516973674E-2</v>
@@ -6135,7 +6096,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B34">
         <v>1.2920874845338397E-2</v>
@@ -6152,7 +6113,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B35">
         <v>5.2496772945305636E-2</v>
@@ -6169,24 +6130,24 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B36" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C36" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B37">
         <v>0.59588070870046583</v>
@@ -6203,7 +6164,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -6220,7 +6181,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -6237,7 +6198,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -6254,7 +6215,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -6271,7 +6232,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -6288,7 +6249,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -6305,7 +6266,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6322,7 +6283,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -6339,7 +6300,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6356,19 +6317,19 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C47" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6420,7 +6381,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B3" t="e">
         <v>#NUM!</v>
@@ -6437,7 +6398,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B4" t="e">
         <v>#NUM!</v>
@@ -6454,7 +6415,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B5" t="e">
         <v>#NUM!</v>
@@ -6471,7 +6432,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B6" t="e">
         <v>#NUM!</v>
@@ -6488,7 +6449,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B7" t="e">
         <v>#NUM!</v>
@@ -6505,7 +6466,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -6522,7 +6483,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B9" t="e">
         <v>#NUM!</v>
@@ -6539,7 +6500,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -6603,7 +6564,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B3">
         <v>42645</v>
@@ -6620,7 +6581,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B4">
         <v>42647</v>
@@ -6637,7 +6598,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -6654,7 +6615,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6671,7 +6632,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B7">
         <v>42645</v>
@@ -6688,7 +6649,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6705,7 +6666,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6722,7 +6683,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6739,7 +6700,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -6756,7 +6717,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6773,7 +6734,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6790,7 +6751,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6807,7 +6768,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6824,7 +6785,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6841,7 +6802,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6858,7 +6819,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6875,7 +6836,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6892,7 +6853,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6909,7 +6870,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6926,7 +6887,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -6943,7 +6904,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6960,7 +6921,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6977,7 +6938,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -6994,24 +6955,24 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" t="e">
-        <v>#NAME?</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B27">
         <v>-183.89722455577379</v>
@@ -7028,7 +6989,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B28">
         <v>4.5537340619307881E-4</v>
@@ -7045,7 +7006,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B29">
         <v>7.6102932637914364E-5</v>
@@ -7062,7 +7023,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B30">
         <v>-1.3594485829067323E-7</v>
@@ -7079,7 +7040,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B31">
         <v>-7.3559230485996778</v>
@@ -7096,7 +7057,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -7113,7 +7074,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -7130,7 +7091,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -7147,7 +7108,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B35" t="e">
         <v>#N/A</v>
@@ -7164,75 +7125,75 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>460</v>
-      </c>
-      <c r="B36" t="s">
-        <v>461</v>
-      </c>
-      <c r="C36" t="s">
-        <v>461</v>
+        <v>452</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" t="s">
-        <v>461</v>
+      <c r="E36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>462</v>
-      </c>
-      <c r="B37" t="s">
-        <v>463</v>
-      </c>
-      <c r="C37" t="e">
-        <v>#NAME?</v>
+        <v>453</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="E37" t="e">
-        <v>#NAME?</v>
+      <c r="E37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>464</v>
-      </c>
-      <c r="B38" t="s">
-        <v>465</v>
-      </c>
-      <c r="C38" t="e">
-        <v>#NAME?</v>
+        <v>454</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>466</v>
-      </c>
-      <c r="B39" t="s">
-        <v>467</v>
-      </c>
-      <c r="C39" t="s">
-        <v>467</v>
+        <v>455</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" t="s">
-        <v>467</v>
+      <c r="E39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -7249,58 +7210,58 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>470</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
+        <v>458</v>
+      </c>
+      <c r="B42" t="s">
+        <v>459</v>
       </c>
       <c r="C42" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B43" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C43" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B44">
         <v>0.97297297297297303</v>
@@ -7317,7 +7278,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B45">
         <v>1.0277777777777777</v>
@@ -7334,7 +7295,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B46">
         <v>4.9999999999999822</v>
@@ -7351,7 +7312,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B47">
         <v>720</v>
@@ -7368,19 +7329,19 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>478</v>
-      </c>
-      <c r="B48" t="s">
-        <v>479</v>
-      </c>
-      <c r="C48" t="s">
-        <v>479</v>
+        <v>466</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E48" t="s">
-        <v>479</v>
+      <c r="E48" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7432,7 +7393,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -7449,7 +7410,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B4">
         <v>0.99999971334842819</v>
@@ -7466,7 +7427,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B5">
         <v>0.99999971334842819</v>
@@ -7483,7 +7444,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7500,7 +7461,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7517,7 +7478,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B8">
         <v>3.4142135623730949</v>
@@ -7534,7 +7495,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B9">
         <v>0.50000000000000011</v>
@@ -7551,24 +7512,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B11">
         <v>1.4142135623730951</v>
@@ -7585,7 +7546,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B12">
         <v>1.4142135623730951</v>
@@ -7602,7 +7563,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B13">
         <v>1.4142135623730949</v>
@@ -7619,7 +7580,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7636,7 +7597,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7653,7 +7614,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B16">
         <v>1.4142135623730951</v>
@@ -7670,7 +7631,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7687,19 +7648,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C18" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -7968,7 +7929,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B3">
         <v>0.3090169943749474</v>
@@ -7985,24 +7946,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B4" s="5">
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="C4" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -8019,7 +7980,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -8036,7 +7997,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8053,7 +8014,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -8070,121 +8031,121 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C11" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C12" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C13" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B14" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -8236,41 +8197,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8287,24 +8248,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B6" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C6" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8321,7 +8282,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8338,138 +8299,138 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C9" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C11" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C12" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C13" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C14" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C15" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B16" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -8521,41 +8482,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C4" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8572,7 +8533,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B6" s="6">
         <v>42646</v>
@@ -8589,7 +8550,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8606,7 +8567,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B8">
         <v>-47.43611111111111</v>
@@ -8623,7 +8584,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B9" s="6">
         <v>25569</v>
@@ -8687,7 +8648,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -8704,7 +8665,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -8768,7 +8729,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B3">
         <v>0.38292492254802624</v>
@@ -8785,7 +8746,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="B4">
         <v>0.30853753872598688</v>
@@ -8802,7 +8763,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="B5">
         <v>2.5066282746310002</v>
@@ -8819,7 +8780,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8836,7 +8797,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B7">
         <v>0.35206532676429952</v>
@@ -8853,7 +8814,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B8">
         <v>0.3989422804014327</v>
@@ -8870,7 +8831,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="B9">
         <v>2.5066282746309976</v>
@@ -8887,7 +8848,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -8904,7 +8865,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -8921,7 +8882,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -8938,7 +8899,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -8955,7 +8916,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -8972,7 +8933,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -8989,7 +8950,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B16">
         <v>0.38292492254802624</v>
@@ -9006,7 +8967,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B17">
         <v>0.69146246127401323</v>
@@ -9023,7 +8984,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B18">
         <v>0.69146246127401323</v>
@@ -9040,7 +9001,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B19">
         <v>1.8057389857858896</v>
@@ -9057,7 +9018,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B20">
         <v>1.8057389857858896</v>
@@ -9074,7 +9035,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="B21">
         <v>0.35206532676429947</v>
@@ -9091,7 +9052,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B22">
         <v>0.35206532676429947</v>
@@ -9108,7 +9069,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B23">
         <v>-0.17603266338214973</v>
@@ -9125,7 +9086,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B24">
         <v>-4.8228126954013624E-4</v>
@@ -9142,7 +9103,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B25">
         <v>0.35206532676429952</v>
@@ -9159,7 +9120,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="B26">
         <v>0.30853753872598699</v>
@@ -9176,7 +9137,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B27">
         <v>-0.69146246127401323</v>
@@ -9193,7 +9154,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B28">
         <v>0.30853753872598688</v>
@@ -9210,7 +9171,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B29">
         <v>0.69146246127401312</v>
@@ -9227,7 +9188,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B30">
         <v>-0.30853753872598688</v>
@@ -9244,7 +9205,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B31">
         <v>0.69146246127401312</v>
@@ -9261,7 +9222,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B32">
         <v>-0.30853753872598688</v>
@@ -9278,41 +9239,41 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="B33" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C33" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B34" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C34" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B35">
         <v>0.69146246127401323</v>
@@ -9329,7 +9290,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B36">
         <v>1.8057389857858896</v>
@@ -9346,7 +9307,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B37">
         <v>0.35206532676429947</v>
@@ -9363,7 +9324,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B38">
         <v>-0.17603266338214973</v>
@@ -9380,7 +9341,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B39">
         <v>-4.8228126954013624E-4</v>
@@ -9397,274 +9358,274 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B40" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C40" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B41" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C41" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B42" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C42" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B43" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C43" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="B44" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C44" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B45" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C45" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="B46" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C46" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B47" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C47" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B48" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C48" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B49" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C49" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B50" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C50" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B51" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C51" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="B52" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C52" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B53" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C53" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="B54" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="C54" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="B55" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="C55" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -9716,19 +9677,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -9780,7 +9741,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -9797,7 +9758,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -9814,7 +9775,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -9831,7 +9792,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9848,7 +9809,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -9865,7 +9826,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="B8">
         <v>456</v>
@@ -9882,7 +9843,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -9890,7 +9851,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -9898,7 +9859,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -9906,7 +9867,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -9923,7 +9884,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -9940,7 +9901,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -9957,7 +9918,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -9974,7 +9935,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -9991,7 +9952,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -10008,7 +9969,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -10025,7 +9986,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="B19">
         <v>456</v>
@@ -10042,7 +10003,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="B20">
         <v>789</v>
@@ -10059,7 +10020,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B21">
         <v>43544</v>
@@ -10076,7 +10037,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -10093,7 +10054,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -10110,7 +10071,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -10127,7 +10088,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -10191,7 +10152,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B3">
         <v>42648</v>
@@ -10208,7 +10169,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="B4">
         <v>42649</v>
@@ -10225,7 +10186,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="B5">
         <v>42649</v>
@@ -10242,7 +10203,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B6" s="6">
         <v>42649</v>
@@ -10259,21 +10220,21 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10290,7 +10251,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="B9" s="6" t="e">
         <v>#NUM!</v>
@@ -10307,7 +10268,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -10324,75 +10285,75 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="B11" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B12" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C12" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="B13" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="C13" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B14" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="C14" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10409,78 +10370,78 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B16" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C16" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B17" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C17" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="B18" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C18" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B19" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C19" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="B20" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C20" t="e">
         <v>#NAME?</v>
@@ -10494,10 +10455,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="B21" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="C21" t="e">
         <v>#NAME?</v>
@@ -10511,7 +10472,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -10528,75 +10489,75 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B23" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C23" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="B24" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C24" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B25" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="C25" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B26" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="C26" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -10613,24 +10574,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="B28" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="C28" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -10647,7 +10608,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
@@ -10664,24 +10625,24 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -10698,7 +10659,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -10715,24 +10676,24 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B34" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C34" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -10796,7 +10757,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -10813,7 +10774,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="B4" s="6">
         <v>25573</v>
@@ -10830,7 +10791,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10847,7 +10808,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B6" s="6">
         <v>25570</v>
@@ -10864,7 +10825,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -10881,7 +10842,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -10898,7 +10859,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>49</v>
@@ -10915,7 +10876,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="B10" s="6">
         <v>25570</v>
@@ -10932,7 +10893,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="B11" s="6">
         <v>25573</v>
@@ -10949,75 +10910,75 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="B15" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C15" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -11034,53 +10995,53 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="B17" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C17" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="B18" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="C18" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="B19" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -11132,41 +11093,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="B3" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C3" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="B4" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="C4" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="B5">
         <v>2.6897035576518178E-3</v>
@@ -11183,7 +11144,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -11200,7 +11161,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -11217,7 +11178,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11234,7 +11195,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -11251,24 +11212,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="B10" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C10" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -11285,7 +11246,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -11302,7 +11263,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -11319,7 +11280,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="B14">
         <v>0.01</v>
@@ -11336,7 +11297,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="B15">
         <v>-0.75</v>
@@ -11668,7 +11629,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11685,7 +11646,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="B4">
         <v>2.7777777777777779E-3</v>
@@ -11702,7 +11663,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11719,7 +11680,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="B6" s="6">
         <v>42645</v>
@@ -11736,75 +11697,75 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="B8" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="C8" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="B11" s="6" t="e">
         <v>#NUM!</v>
@@ -11821,7 +11782,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -11838,7 +11799,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="B13" t="e">
         <v>#NUM!</v>
@@ -11855,7 +11816,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="B14" t="e">
         <v>#NUM!</v>
@@ -11872,7 +11833,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="B15" t="e">
         <v>#NUM!</v>
@@ -11889,7 +11850,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -11906,7 +11867,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="B17" t="e">
         <v>#NUM!</v>
@@ -11923,24 +11884,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="B18" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="C18" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -11957,7 +11918,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -12021,41 +11982,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="B4" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="C4" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12072,7 +12033,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="B6">
         <v>-4.9591843073892612</v>
@@ -12089,7 +12050,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="B7">
         <v>42645</v>
@@ -12106,7 +12067,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="B8">
         <v>42647</v>
@@ -12123,7 +12084,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -12187,7 +12148,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -12204,7 +12165,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12221,7 +12182,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="B5">
         <v>7.4999999999999997E-2</v>
@@ -12238,7 +12199,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="B6">
         <v>8.611111111111111E-2</v>
@@ -12255,41 +12216,41 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="C7" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="B9" s="3">
         <v>42678</v>
@@ -12306,7 +12267,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="B10">
         <v>8.3333333333333329E-2</v>
@@ -12323,7 +12284,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="B11">
         <v>8.3333333333333329E-2</v>
@@ -12340,58 +12301,58 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="B12" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="C12" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="B13" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C13" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="B14" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="C14" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="B15" t="e">
         <v>#N/A</v>
@@ -12408,7 +12369,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="B16" t="e">
         <v>#N/A</v>
@@ -12425,7 +12386,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="B17" t="e">
         <v>#N/A</v>
@@ -12442,7 +12403,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="B18" t="e">
         <v>#N/A</v>
@@ -12459,7 +12420,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -12476,7 +12437,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="B20" t="e">
         <v>#NUM!</v>
@@ -12493,7 +12454,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -12510,7 +12471,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B22" t="e">
         <v>#N/A</v>
@@ -12527,7 +12488,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
@@ -12544,7 +12505,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
@@ -12561,7 +12522,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="B25" t="e">
         <v>#N/A</v>
@@ -12578,7 +12539,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="B26" t="e">
         <v>#N/A</v>
@@ -12595,7 +12556,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="B27" t="e">
         <v>#N/A</v>
@@ -12612,7 +12573,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B28" t="e">
         <v>#VALUE!</v>
@@ -12629,7 +12590,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="B29" t="e">
         <v>#VALUE!</v>
@@ -12693,24 +12654,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="C3" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="B4">
         <v>42738</v>
@@ -12727,7 +12688,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="B5">
         <v>42736</v>
@@ -12744,7 +12705,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12761,7 +12722,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -12778,7 +12739,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12795,7 +12756,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12812,7 +12773,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="B10">
         <v>-180</v>
@@ -12829,7 +12790,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="B11">
         <v>-180</v>
@@ -12846,7 +12807,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="B12">
         <v>-252.99872090438052</v>
@@ -12863,143 +12824,143 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="B13" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="C13" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="B14" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="C14" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="B15" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C15" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="B16" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C16" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="B17" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C17" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="B18" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="C18" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="B19" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="C19" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="B20" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="C20" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -13016,7 +12977,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="B22">
         <v>42736</v>
@@ -13033,7 +12994,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -13050,7 +13011,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="B24">
         <v>8.3333333333333332E-3</v>
@@ -13067,7 +13028,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="B25">
         <v>42739</v>
@@ -13131,24 +13092,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B3" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="C3" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="B4">
         <v>25569</v>
@@ -13165,7 +13126,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="B5">
         <v>25571</v>
@@ -13182,7 +13143,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -13199,7 +13160,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -13216,7 +13177,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="B8">
         <v>25569</v>
@@ -13233,7 +13194,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13250,7 +13211,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -13267,7 +13228,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -13331,19 +13292,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="B3" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="C3" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -13395,92 +13356,92 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="B3" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C3" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="B4" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C4" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="B5" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="C5" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="B6" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C6" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="B7" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="C7" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="B8">
         <v>-0.67739587129550227</v>
@@ -13497,7 +13458,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="B9">
         <v>-33869.793564775115</v>
@@ -13514,7 +13475,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="B10">
         <v>142.62616569880501</v>
@@ -13531,7 +13492,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="B11">
         <v>4.477796795487806</v>
@@ -13548,7 +13509,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B12">
         <v>966143.7578307871</v>
@@ -13565,7 +13526,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="B13">
         <v>-20.819925665350592</v>
@@ -13582,24 +13543,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="B14" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="C14" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="B15">
         <v>1000000</v>
@@ -13616,7 +13577,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -13633,24 +13594,24 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="B17" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="C17" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -13667,41 +13628,41 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="B20" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="C20" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -13718,7 +13679,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -13782,7 +13743,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="B3">
         <v>23.948673390030997</v>
@@ -13799,24 +13760,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B4" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="C4" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="B5">
         <v>42648</v>
@@ -13833,7 +13794,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="B6">
         <v>-1.7976931348623157E+308</v>
@@ -13850,7 +13811,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="B7">
         <v>1.7976931348623157E+308</v>
@@ -13867,7 +13828,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -13884,7 +13845,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -13901,7 +13862,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="B10">
         <v>3.3161907871456142</v>
@@ -13918,7 +13879,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -13935,7 +13896,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="B12">
         <v>2.7777777777777779E-3</v>
@@ -13952,7 +13913,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="B13">
         <v>0.10997121336749448</v>
@@ -13969,7 +13930,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -13986,7 +13947,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="B15">
         <v>2.7777777777777779E-3</v>
@@ -14003,7 +13964,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="B16">
         <v>1.0000000000000011</v>
@@ -14020,7 +13981,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -14037,24 +13998,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="B18" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="C18" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="B19" t="e">
         <v>#VALUE!</v>
@@ -14071,41 +14032,41 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B22">
         <v>42648</v>
@@ -14122,7 +14083,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="B23">
         <v>2.7777777777777779E-3</v>
@@ -14139,7 +14100,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="B24">
         <v>0.16276901888733139</v>
@@ -14156,7 +14117,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="B25">
         <v>0.20553128316863267</v>
@@ -14173,7 +14134,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="B26">
         <v>-5.6930143586703347E-4</v>
@@ -14190,7 +14151,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="B27">
         <v>816.38970366714</v>
@@ -14207,7 +14168,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="B28">
         <v>55.846414299893993</v>
@@ -14224,7 +14185,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="B29">
         <v>5.6930143586703347E-4</v>
@@ -14241,7 +14202,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="B30">
         <v>0.85719125008922603</v>
@@ -14258,7 +14219,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="B31">
         <v>1.0563094653822682</v>
@@ -14275,24 +14236,24 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="B32" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="C32" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="B33" t="e">
         <v>#NUM!</v>
@@ -14309,7 +14270,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="B34" t="e">
         <v>#VALUE!</v>
@@ -14326,7 +14287,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="B35" t="e">
         <v>#VALUE!</v>
@@ -14343,7 +14304,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="B36" t="e">
         <v>#VALUE!</v>
@@ -14633,14 +14594,14 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" t="e">
-        <v>#VALUE!</v>
+      <c r="C16">
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#VALUE!</v>
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14650,14 +14611,14 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" t="e">
-        <v>#VALUE!</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#VALUE!</v>
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -14854,14 +14815,14 @@
       <c r="B29">
         <v>0.99999999999997435</v>
       </c>
-      <c r="C29" t="e">
-        <v>#VALUE!</v>
+      <c r="C29">
+        <v>0.99999999999997435</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#VALUE!</v>
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0.99999999999997435</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -15140,107 +15101,107 @@
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="s">
-        <v>94</v>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" t="s">
-        <v>94</v>
+      <c r="E46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="e">
-        <v>#NAME?</v>
+        <v>94</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E48" t="s">
-        <v>98</v>
+      <c r="E48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
-      <c r="E49" t="s">
-        <v>100</v>
+      <c r="E49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50" t="s">
-        <v>102</v>
+      <c r="E50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="E51" t="s">
-        <v>104</v>
+      <c r="E51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B52" t="e">
         <v>#N/A</v>
@@ -15257,36 +15218,36 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -15338,7 +15299,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -15355,7 +15316,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -15372,7 +15333,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -15389,7 +15350,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -15406,7 +15367,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>25598</v>
@@ -15423,7 +15384,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -15440,7 +15401,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -15457,7 +15418,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B10">
         <v>42005</v>
@@ -15474,7 +15435,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11">
         <v>25570</v>
@@ -15491,7 +15452,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B12">
         <v>25570</v>
@@ -15508,7 +15469,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B13">
         <v>255</v>
@@ -15572,7 +15533,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15589,7 +15550,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -15606,7 +15567,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>1.1111111111111112E-2</v>
@@ -15623,7 +15584,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>1.0138888888888888</v>
@@ -15640,92 +15601,92 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -15742,7 +15703,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -15759,7 +15720,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>42645</v>
@@ -15776,7 +15737,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <v>-5.5555555555555558E-3</v>
@@ -15793,7 +15754,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -15810,24 +15771,24 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
@@ -15844,7 +15805,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -15861,41 +15822,41 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B22" t="e">
         <v>#NUM!</v>
@@ -15912,7 +15873,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B23" t="e">
         <v>#NUM!</v>
@@ -15929,7 +15890,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -15946,7 +15907,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B25" t="e">
         <v>#NUM!</v>
@@ -15963,7 +15924,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B26" t="e">
         <v>#NUM!</v>
@@ -15980,7 +15941,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B27" t="e">
         <v>#NUM!</v>
@@ -15997,24 +15958,24 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B29" t="e">
         <v>#NUM!</v>
@@ -16031,7 +15992,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B30" t="e">
         <v>#NUM!</v>
@@ -16048,7 +16009,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B31" t="e">
         <v>#NUM!</v>
@@ -16065,24 +16026,24 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B33">
         <v>1.0958904109588663E-2</v>
@@ -16099,7 +16060,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -16116,24 +16077,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B36">
         <v>43012</v>
@@ -16150,41 +16111,41 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B39">
         <v>43012</v>
@@ -16201,7 +16162,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -16218,19 +16179,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -16282,92 +16243,92 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
+        <v>170</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NAME?</v>
+        <v>171</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NAME?</v>
+        <v>15</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
+        <v>172</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
+        <v>173</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
+        <v>174</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B8" t="e">
         <v>#N/A</v>
@@ -16384,7 +16345,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B9" t="e">
         <v>#NUM!</v>
@@ -16401,75 +16362,75 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
+        <v>177</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
+        <v>178</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>185</v>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>187</v>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -16486,19 +16447,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>190</v>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16550,92 +16511,92 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B8" t="e">
         <v>#NUM!</v>
@@ -16652,7 +16613,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B9" t="e">
         <v>#NUM!</v>
@@ -16669,7 +16630,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -16686,7 +16647,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B11" t="e">
         <v>#NUM!</v>
@@ -16703,7 +16664,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B12" t="e">
         <v>#NUM!</v>
@@ -16720,7 +16681,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B13" t="e">
         <v>#VALUE!</v>
@@ -16737,7 +16698,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B14" t="e">
         <v>#VALUE!</v>
@@ -16754,75 +16715,75 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B19" t="e">
         <v>#NUM!</v>
@@ -16839,24 +16800,24 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B21" t="e">
         <v>#NUM!</v>
@@ -16873,41 +16834,41 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B24" t="e">
         <v>#NUM!</v>
@@ -16924,7 +16885,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B25" t="e">
         <v>#NUM!</v>
@@ -16941,7 +16902,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B26" t="e">
         <v>#NUM!</v>
@@ -16958,7 +16919,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B27" t="e">
         <v>#NUM!</v>
@@ -17022,41 +16983,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -17073,24 +17034,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B7">
         <v>367</v>
@@ -17107,7 +17068,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B8">
         <v>109574</v>
@@ -17124,7 +17085,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -17141,7 +17102,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B10">
         <v>25599</v>
@@ -17158,7 +17119,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -17175,7 +17136,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B12">
         <v>25573</v>
@@ -17192,7 +17153,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B13">
         <v>25594</v>
@@ -17209,7 +17170,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -17226,7 +17187,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -17243,58 +17204,58 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B19">
         <v>45735</v>
@@ -17311,7 +17272,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B20">
         <v>42725</v>
@@ -17328,7 +17289,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B21">
         <v>42725</v>
@@ -17345,7 +17306,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -17362,7 +17323,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -17379,58 +17340,58 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B27">
         <v>45730</v>
@@ -17447,7 +17408,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B28">
         <v>42713</v>
@@ -17464,7 +17425,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B29">
         <v>42713</v>
@@ -17481,7 +17442,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B30">
         <v>25569</v>
@@ -17498,7 +17459,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -17515,7 +17476,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -17532,7 +17493,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B33">
         <v>38371</v>
@@ -17549,7 +17510,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B34">
         <v>40247</v>
@@ -17566,24 +17527,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B35" s="4">
         <v>42439</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B36">
         <v>42669</v>
@@ -17600,7 +17561,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B37">
         <v>40282</v>
@@ -17617,7 +17578,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B38">
         <v>42669</v>
@@ -17634,24 +17595,24 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -17668,36 +17629,36 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B41" s="4">
         <v>42659</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B42" s="4">
         <v>42470</v>
       </c>
       <c r="C42" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
